--- a/Análisis/Entropías2.xlsx
+++ b/Análisis/Entropías2.xlsx
@@ -22,7 +22,6 @@
     <sheet name="I(x)" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="142">
   <si>
     <t>E1</t>
   </si>
@@ -79,216 +78,21 @@
     <t>Glicerol</t>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
     <t xml:space="preserve">, , , , , , , </t>
   </si>
   <si>
-    <t>H(dY) =  [3.4063745, 2.7001638, 3.2296031, 2.8899579, 3.3245847, 2.0815687, 2.973726, 3.1941826]</t>
-  </si>
-  <si>
-    <t>H(dY|dlogOD) =  [0.62395036, 0.71950549, 0.73281991, 0.67984301, 0.71005392, 0.86648738, 0.75604606, 0.63353819]</t>
-  </si>
-  <si>
-    <t>H(dY|dC) =  [0.44484675, 0.60485709, 0.60431826, 0.6522823, 0.6202659, 0.72942168, 0.59342849, 0.62858212]</t>
-  </si>
-  <si>
-    <t>H(dY|dR) =  [0.37609792, 0.49134982, 0.64318919, 0.63389641, 0.53958476, 0.69792217, 0.66532558, 0.65062982]</t>
-  </si>
-  <si>
-    <t>H(dY|dC,dlogOD) =  [0.29732749, 0.37734655, 0.37318128, 0.4496026, 0.40996164, 0.53812027, 0.40067568, 0.40197551]</t>
-  </si>
-  <si>
-    <t>H(dY|dR,dlogOD) =  [0.20702676, 0.2828241, 0.42768365, 0.41852787, 0.33504957, 0.52578205, 0.45266309, 0.36990476]</t>
-  </si>
-  <si>
-    <t>H(dY|dC,dR) =  [0.23892613, 0.25686523, 0.42160937, 0.40509936, 0.32721454, 0.46394324, 0.45408797, 0.37819803]</t>
-  </si>
-  <si>
-    <t>H(dY|dC,dR,dlogOD) =  [0.14385097, 0.13019443, 0.26117191, 0.28222933, 0.21475197, 0.31501138, 0.28863123, 0.22740951]</t>
-  </si>
-  <si>
-    <t>H(dR) =  [3.295188, 2.5339801, 2.4274936, 2.1193154, 3.0985579, 1.6597375, 2.5368514, 2.2492189]</t>
-  </si>
-  <si>
-    <t>H(dC) =  [3.1014738, 2.2681925, 2.2681925, 2.4389482, 2.7255735, 2.2352805, 3.2124338, 2.9405906]</t>
-  </si>
-  <si>
-    <t>I(dlogOD,dC) =  [1.2846828, 0.62776423, 0.80136776, 0.86873031, 0.81418538, 0.27450633, 0.8958478, 1.1267142]</t>
-  </si>
-  <si>
-    <t>I(dlogOD,dY) =  [1.2809658, 0.7573812, 0.86288571, 0.92524028, 0.9639504, 0.27791572, 0.72545218, 1.1705461]</t>
-  </si>
-  <si>
-    <t>I(dlogOD,dR) =  [1.1885848, 0.6780057, 0.62320232, 0.68864799, 0.83198118, 0.2458744, 0.59315872, 0.73141527]</t>
-  </si>
-  <si>
-    <t>I(dY,dC) =  [1.8910599, 1.0669506, 1.2778947, 1.0048895, 1.2624581, 0.56322742, 1.2090321, 1.1863763]</t>
-  </si>
-  <si>
-    <t>I(dY,dR) =  [2.1252441, 1.3734388, 1.1523571, 1.0580239, 1.5306895, 0.62879574, 0.99522996, 1.1159523]</t>
-  </si>
-  <si>
-    <t>I(dR,dC)  =  [1.6949859, 0.77482557, 0.87817764, 0.68732667, 0.95718026, 0.40764558, 1.048878, 0.75988555]</t>
-  </si>
-  <si>
-    <t>H(dY) =  [3.0553079, 2.7406261, 2.9393642, 2.8216164, 2.7262752, 2.8647974, 2.8693051, 3.1542616]</t>
-  </si>
-  <si>
-    <t>H(dY|dlogOD) =  [0.72043854, 0.68961668, 0.67415404, 0.61254728, 0.66828525, 0.6453051, 0.82759273, 0.77397186]</t>
-  </si>
-  <si>
-    <t>H(dY|dC) =  [0.56498742, 0.67843652, 0.42577597, 0.55150151, 0.49321139, 0.58444262, 0.77295119, 0.82443899]</t>
-  </si>
-  <si>
-    <t>H(dY|dR) =  [0.48339683, 0.51538986, 0.39836276, 0.56687653, 0.46547079, 0.50031054, 0.90502882, 0.90113878]</t>
-  </si>
-  <si>
-    <t>H(dY|dC,dlogOD) =  [0.42521301, 0.41553929, 0.31273577, 0.34679985, 0.39252084, 0.38754106, 0.56430244, 0.59857816]</t>
-  </si>
-  <si>
-    <t>H(dY|dR,dlogOD) =  [0.35086465, 0.32669193, 0.3023352, 0.34241393, 0.33814207, 0.3080551, 0.62960076, 0.60831529]</t>
-  </si>
-  <si>
-    <t>H(dY|dC,dR) =  [0.39675269, 0.33319509, 0.3250263, 0.34030724, 0.38719082, 0.303967, 0.6183008, 0.67513031]</t>
-  </si>
-  <si>
-    <t>H(dY|dC,dR,dlogOD) =  [0.28247547, 0.18365312, 0.22265455, 0.21320239, 0.28486341, 0.18912484, 0.39167184, 0.44104505]</t>
-  </si>
-  <si>
-    <t>H(dR) =  [2.7967966, 2.726778, 2.8203249, 2.7469184, 2.9108872, 2.7010849, 2.5414712, 2.9217784]</t>
-  </si>
-  <si>
-    <t>H(dR|dlogOD) =  [0.75196475, 0.71467692, 0.69647479, 0.65112805, 0.69001913, 0.6893335, 0.89915037, 0.89425617]</t>
-  </si>
-  <si>
-    <t>H(dR|dC) =  [0.54973471, 0.73601627, 0.41850254, 0.6174649, 0.45050251, 0.61946207, 0.89944971, 0.90720284]</t>
-  </si>
-  <si>
-    <t>H(dR|dY) =  [0.43564656, 0.51292878, 0.37296906, 0.55509841, 0.49937138, 0.47002423, 0.89277816, 0.89327258]</t>
-  </si>
-  <si>
-    <t>H(dR|dC,dlogOD) =  [0.42873013, 0.47278169, 0.33406475, 0.39466867, 0.36779672, 0.4170939, 0.71885622, 0.78324401]</t>
-  </si>
-  <si>
-    <t>H(dR|dY,dlogOD) =  [0.34823084, 0.34990928, 0.30896217, 0.37364885, 0.38081387, 0.33164263, 0.67561883, 0.71541852]</t>
-  </si>
-  <si>
-    <t>H(dR|dC,dY) =  [0.36594978, 0.38902149, 0.31350055, 0.40052786, 0.35120606, 0.32198685, 0.72485024, 0.74601394]</t>
-  </si>
-  <si>
-    <t>H(dR|dC,dY,dlogOD) =  [0.27279884, 0.23971805, 0.24018142, 0.25743842, 0.26696709, 0.20665184, 0.52395737, 0.61317599]</t>
-  </si>
-  <si>
     <t>H(dC) =  [2.5170131, 2.8512642, 2.8512642, 2.8526394, 2.8757298, 2.9339933, 2.4817264, 2.7744265]</t>
   </si>
   <si>
     <t>H(dC|dlogOD) =  [0.70901406, 0.70497662, 0.66565508, 0.62888163, 0.60580957, 0.6292088, 0.73948479, 0.60508662]</t>
   </si>
   <si>
-    <t>H(dC|dR) =  [0.49968475, 0.74754179, 0.40705258, 0.63164192, 0.44378459, 0.64967024, 0.8970291, 0.90227395]</t>
-  </si>
-  <si>
-    <t>H(dC|dY) =  [0.47195455, 0.69091433, 0.39027345, 0.55637872, 0.51954979, 0.59424311, 0.73749226, 0.80040359]</t>
-  </si>
-  <si>
-    <t>H(dC|dY,dlogOD) =  [0.350651, 0.44153455, 0.2930693, 0.3660242, 0.34437692, 0.37752408, 0.4350754, 0.40568051]</t>
-  </si>
-  <si>
-    <t>H(dC|dR,dlogOD) =  [0.34984925, 0.47364256, 0.30717775, 0.38192713, 0.2796475, 0.37858081, 0.55485022, 0.4881787]</t>
-  </si>
-  <si>
-    <t>H(dC|dY,dR) =  [0.39451051, 0.5724166, 0.33145037, 0.40753669, 0.36957291, 0.45795748, 0.56552166, 0.64532429]</t>
-  </si>
-  <si>
-    <t>H(dC|dY,dR,dlogOD) =  [0.26683438, 0.33615443, 0.22503507, 0.25412047, 0.2291383, 0.2624554, 0.27976289, 0.29800799]</t>
-  </si>
-  <si>
     <t>I(dlogOD,dC) =  [0.73241544, 0.84118962, 0.902668, 1.0586672, 1.1335852, 1.0878992, 0.64652753, 1.0956581]</t>
   </si>
   <si>
-    <t>I(dlogOD,dY) =  [0.85414577, 0.85064435, 0.95777988, 1.0932429, 0.90434575, 1.016129, 0.49468899, 0.71295238]</t>
-  </si>
-  <si>
-    <t>I(dlogOD,dR) =  [0.69370413, 0.77801299, 0.85603976, 0.95832276, 0.90231943, 0.8391366, 0.25630641, 0.30895972]</t>
-  </si>
-  <si>
-    <t>I(dY,dC) =  [1.3290973, 0.88128495, 1.6878536, 1.2654908, 1.381645, 1.1904876, 0.65147233, 0.55376577]</t>
-  </si>
-  <si>
-    <t>I(dY,dR) =  [1.5783815, 1.328135, 1.7684309, 1.2221084, 1.4572737, 1.431509, 0.27250123, 0.3118341]</t>
-  </si>
-  <si>
-    <t>I(dR,dC)  =  [1.2593005, 0.71982527, 1.6400118, 1.0507927, 1.5995252, 1.0278652, 0.25554562, 0.27113271]</t>
-  </si>
-  <si>
-    <t>H(dR) =  [2.4274936, 2.1193154, 2.9892364, 2.8819854, 2.5365081, 2.2485073, 2.899261, 2.6674078]</t>
-  </si>
-  <si>
-    <t>H(dR|dlogOD) =  [0.74327332, 0.67506123, 0.64984727, 0.66585833, 0.76499909, 0.67502725, 0.82235265, 0.62018907]</t>
-  </si>
-  <si>
-    <t>H(dR|dC) =  [0.63823676, 0.67568457, 0.4559156, 0.61037737, 0.58173448, 0.66236538, 0.63992864, 0.69591367]</t>
-  </si>
-  <si>
-    <t>H(dR|dY) =  [0.52528906, 0.50077099, 0.35313261, 0.4378787, 0.58740866, 0.50379789, 0.51030594, 0.48401102]</t>
-  </si>
-  <si>
-    <t>H(dR|dC,dlogOD) =  [0.39514318, 0.44158179, 0.31397301, 0.34806311, 0.38222405, 0.42672262, 0.39028019, 0.34566358]</t>
-  </si>
-  <si>
-    <t>H(dR|dY,dlogOD) =  [0.33731207, 0.31872508, 0.23835889, 0.25735638, 0.38476342, 0.30051482, 0.29951888, 0.26044127]</t>
-  </si>
-  <si>
-    <t>H(dR|dC,dY) =  [0.39515594, 0.33861896, 0.25890371, 0.28256914, 0.40568927, 0.30667496, 0.34314087, 0.2554704]</t>
-  </si>
-  <si>
-    <t>H(dR|dC,dY,dlogOD) =  [0.24612308, 0.21334691, 0.18089491, 0.13408491, 0.24480534, 0.17873754, 0.19006097, 0.13253796]</t>
-  </si>
-  <si>
-    <t>H(dC) =  [2.8645215, 2.4389482, 2.4389482, 3.2645369, 3.3300154, 2.9405906, 2.8943088, 3.2296572]</t>
-  </si>
-  <si>
-    <t>H(dC|dlogOD) =  [0.72024357, 0.64380944, 0.77338386, 0.649261, 0.72148192, 0.61684102, 0.82647276, 0.71384305]</t>
-  </si>
-  <si>
-    <t>H(dC|dR) =  [0.69342953, 0.71818727, 0.5379594, 0.65603471, 0.68140274, 0.74182963, 0.63931257, 0.74885178]</t>
-  </si>
-  <si>
-    <t>H(dC|dY) =  [0.55388868, 0.58798224, 0.52986002, 0.54942632, 0.60964262, 0.59639072, 0.57712615, 0.61696464]</t>
-  </si>
-  <si>
-    <t>H(dC|dY,dlogOD) =  [0.31476876, 0.37099326, 0.34454846, 0.32776564, 0.36866558, 0.36530876, 0.35034022, 0.41083792]</t>
-  </si>
-  <si>
-    <t>H(dC|dR,dlogOD) =  [0.42522585, 0.44092831, 0.36172825, 0.36870629, 0.42991784, 0.42697623, 0.39366105, 0.48710987]</t>
-  </si>
-  <si>
-    <t>H(dC|dY,dR) =  [0.44360939, 0.447081, 0.41437054, 0.41231686, 0.47122547, 0.44566175, 0.40967524, 0.42821068]</t>
-  </si>
-  <si>
     <t>H(dC|dY,dR,dlogOD) =  [0.23749225, 0.27942586, 0.27411917, 0.21893947, 0.26205775, 0.27219242, 0.24069503, 0.30520138]</t>
   </si>
   <si>
-    <t>I(dlogOD,dC) =  [0.80136776, 0.86873031, 1.0522089, 1.1450005, 0.92746949, 1.1267142, 0.50224113, 0.92418885]</t>
-  </si>
-  <si>
-    <t>I(dlogOD,dY) =  [0.86288571, 0.92524028, 1.1477349, 1.2254639, 0.72021437, 1.1710191, 0.4890182, 1.1872389]</t>
-  </si>
-  <si>
-    <t>I(dlogOD,dR) =  [0.62320232, 0.68864799, 1.0466893, 0.96299148, 0.59608173, 0.73070335, 0.51504612, 1.0131106]</t>
-  </si>
-  <si>
-    <t>I(dY,dC) =  [1.2778947, 1.0048895, 1.6461513, 1.4709139, 1.2998955, 1.1868496, 1.2239263, 1.2370725]</t>
-  </si>
-  <si>
-    <t>I(dY,dR) =  [1.1523571, 1.0580239, 1.9336395, 1.6200254, 1.0465422, 1.1157138, 1.4197507, 1.376353]</t>
-  </si>
-  <si>
-    <t>I(dR,dC)  =  [0.87817764, 0.68732667, 1.6263969, 1.1228867, 1.0609338, 0.75917363, 1.0439408, 0.81112218]</t>
-  </si>
-  <si>
     <t>H(dY) =  [3.6257074, 3.2830191, 3.38006, 3.8548996, 3.4728532, 3.7898448, 3.2390075, 3.6151679]</t>
   </si>
   <si>
@@ -379,48 +183,6 @@
     <t>I(dR,dC)  =  [1.6104052, 0.79427147, 1.4398246, 1.2071135, 1.6820753, 0.57585621, 1.3270862, 0.98246193]</t>
   </si>
   <si>
-    <t>H(dC|dlogOD) =  [0.58578312, 0.72323149, 0.90960234, 0.64380944, 0.70127916, 0.87719381, 0.72113115, 0.61684102]</t>
-  </si>
-  <si>
-    <t>H(dC|dR) =  [0.4534902, 0.65839517, 0.87573862, 0.71818727, 0.64881504, 0.81763124, 0.67349422, 0.74158758]</t>
-  </si>
-  <si>
-    <t>H(dC|dY) =  [0.39027041, 0.5296033, 0.69951117, 0.58798224, 0.53680992, 0.74802852, 0.62363976, 0.59655166]</t>
-  </si>
-  <si>
-    <t>H(dC|dY,dlogOD) =  [0.22705051, 0.31590933, 0.39752439, 0.37099326, 0.33523434, 0.57140708, 0.39216727, 0.36530876]</t>
-  </si>
-  <si>
-    <t>H(dC|dR,dlogOD) =  [0.23124899, 0.3606658, 0.5370217, 0.44092831, 0.3953903, 0.61160314, 0.42528263, 0.42697623]</t>
-  </si>
-  <si>
-    <t>H(dC|dY,dR) =  [0.30283296, 0.37925392, 0.56023842, 0.447081, 0.38977093, 0.59974259, 0.47795326, 0.44566175]</t>
-  </si>
-  <si>
-    <t>H(dC|dY,dR,dlogOD) =  [0.16186248, 0.17896798, 0.29993117, 0.27942586, 0.24865472, 0.41532639, 0.27343956, 0.27219242]</t>
-  </si>
-  <si>
-    <t>H(dR|dlogOD) =  [0.63929683, 0.73243451, 0.74327332, 0.67506123, 0.73149407, 0.85185939, 0.76618308, 0.67481369]</t>
-  </si>
-  <si>
-    <t>H(dR|dC) =  [0.48561785, 0.69422585, 0.63823676, 0.67568457, 0.6910885, 0.75439155, 0.58654332, 0.66215581]</t>
-  </si>
-  <si>
-    <t>H(dR|dY) =  [0.35504621, 0.45799139, 0.52528906, 0.50077099, 0.50599957, 0.62114716, 0.60769105, 0.50384891]</t>
-  </si>
-  <si>
-    <t>H(dR|dC,dlogOD) =  [0.30560464, 0.40789843, 0.39514318, 0.44158179, 0.46242613, 0.49417078, 0.39154777, 0.42658758]</t>
-  </si>
-  <si>
-    <t>H(dR|dY,dlogOD) =  [0.20830546, 0.26711482, 0.33731207, 0.31872508, 0.32913458, 0.42456251, 0.41055414, 0.30041972]</t>
-  </si>
-  <si>
-    <t>H(dR|dC,dY) =  [0.27274919, 0.32341197, 0.39515594, 0.33861896, 0.37666029, 0.4214409, 0.42320696, 0.30657792]</t>
-  </si>
-  <si>
-    <t>H(dR|dC,dY,dlogOD) =  [0.1469495, 0.14453736, 0.24612308, 0.21334691, 0.25297675, 0.21435784, 0.26020819, 0.17868099]</t>
-  </si>
-  <si>
     <t>0.6081177,</t>
   </si>
   <si>
@@ -433,97 +195,268 @@
     <t>i/hr</t>
   </si>
   <si>
-    <t>H(dY) =  [3.769557, 2.7887261, 3.3030782, 3.5284791, 3.3232262, 3.4519298, 3.1953564, 3.2569337]</t>
-  </si>
-  <si>
-    <t>H(dY|dlogOD) =  [0.71921682, 0.79743636, 0.81607586, 0.7619288, 0.77760077, 0.72764134, 0.86551404, 0.79171115]</t>
-  </si>
-  <si>
-    <t>H(dY|dC) =  [0.57098603, 0.64773875, 0.50163114, 0.56609237, 0.59567475, 0.54813963, 0.61696702, 0.60015273]</t>
-  </si>
-  <si>
-    <t>H(dY|dR) =  [0.39344972, 0.50809884, 0.41459468, 0.5408715, 0.55179954, 0.4640052, 0.55568314, 0.57740831]</t>
-  </si>
-  <si>
-    <t>H(dY|dC,dlogOD) =  [0.29613334, 0.40947115, 0.3237974, 0.32474905, 0.32944149, 0.27631825, 0.43503651, 0.33532831]</t>
-  </si>
-  <si>
-    <t>H(dY|dR,dlogOD) =  [0.20696533, 0.32295784, 0.26393893, 0.33764935, 0.28931084, 0.28359044, 0.40889919, 0.36041805]</t>
-  </si>
-  <si>
-    <t>H(dY|dC,dR) =  [0.24637289, 0.29111657, 0.32333833, 0.30447432, 0.37863287, 0.27212042, 0.34768087, 0.25926942]</t>
-  </si>
-  <si>
-    <t>H(dY|dC,dR,dlogOD) =  [0.12155464, 0.15322202, 0.19058946, 0.16443458, 0.16986687, 0.13804372, 0.24362035, 0.15446134]</t>
-  </si>
-  <si>
-    <t>H(dR) =  [3.7383564, 2.6007154, 2.9892364, 2.8819854, 3.325237, 2.8809516, 2.899261, 2.6674078]</t>
-  </si>
-  <si>
-    <t>H(dR|dlogOD) =  [0.72133774, 0.80935127, 0.80639499, 0.76149476, 0.78401899, 0.72516829, 0.84680015, 0.76030815]</t>
-  </si>
-  <si>
-    <t>H(dR|dC) =  [0.58644187, 0.72444755, 0.4559156, 0.59426779, 0.53626996, 0.57195401, 0.63992864, 0.66232157]</t>
-  </si>
-  <si>
-    <t>H(dR|dY) =  [0.38838726, 0.47253856, 0.35313261, 0.4378787, 0.55207068, 0.35777596, 0.51030594, 0.48401102]</t>
-  </si>
-  <si>
-    <t>H(dR|dC,dlogOD) =  [0.29776281, 0.456882, 0.28384483, 0.31831822, 0.31699094, 0.28340161, 0.40268603, 0.3315253]</t>
-  </si>
-  <si>
-    <t>H(dR|dY,dlogOD) =  [0.20481138, 0.30057156, 0.19628903, 0.24203993, 0.2960242, 0.19311054, 0.3435522, 0.23369458]</t>
-  </si>
-  <si>
-    <t>H(dR|dC,dY) =  [0.25911957, 0.34204423, 0.25890371, 0.27396303, 0.31935933, 0.24123035, 0.34314087, 0.24609938]</t>
-  </si>
-  <si>
-    <t>H(dR|dC,dY,dlogOD) =  [0.12172704, 0.18210828, 0.13665129, 0.12204131, 0.15751283, 0.117722, 0.19172095, 0.11068457]</t>
-  </si>
-  <si>
-    <t>H(dC) =  [3.6624401, 2.7168407, 2.7168407, 3.3254166, 3.3751297, 3.420927, 2.8943088, 3.2518053]</t>
-  </si>
-  <si>
-    <t>H(dC|dlogOD) =  [0.72504127, 0.81816363, 0.90582293, 0.76155883, 0.78776419, 0.78232944, 0.88200164, 0.804111]</t>
-  </si>
-  <si>
-    <t>H(dC|dR) =  [0.57786942, 0.73622543, 0.48293412, 0.64837062, 0.54312509, 0.6395188, 0.63931257, 0.72300738]</t>
-  </si>
-  <si>
-    <t>H(dC|dY) =  [0.55843848, 0.63841838, 0.47566321, 0.53959632, 0.60189253, 0.54404455, 0.57712615, 0.59952211]</t>
-  </si>
-  <si>
-    <t>H(dC|dY,dlogOD) =  [0.28958389, 0.41993299, 0.30732068, 0.29768333, 0.34649682, 0.32691598, 0.40674862, 0.34700838]</t>
-  </si>
-  <si>
-    <t>H(dC|dR,dlogOD) =  [0.29268646, 0.48076007, 0.33088031, 0.37747824, 0.32764024, 0.41029319, 0.43712786, 0.45238659]</t>
-  </si>
-  <si>
-    <t>H(dC|dY,dR) =  [0.42649117, 0.51350158, 0.37198654, 0.39753789, 0.37262142, 0.4458952, 0.40967524, 0.40436673]</t>
-  </si>
-  <si>
-    <t>H(dC|dY,dR,dlogOD) =  [0.20477735, 0.30653301, 0.24170357, 0.19368607, 0.21003297, 0.26342741, 0.25465742, 0.24610509]</t>
-  </si>
-  <si>
-    <t>I(dlogOD,dC) =  [1.0070198, 0.49402046, 0.4774754, 0.7929163, 0.71632361, 0.74463534, 0.34152365, 0.63699293]</t>
-  </si>
-  <si>
-    <t>I(dlogOD,dY) =  [1.0584283, 0.56489444, 0.60751581, 0.84002924, 0.73908281, 0.94016266, 0.42973018, 0.67838287]</t>
-  </si>
-  <si>
-    <t>I(dlogOD,dR) =  [1.0417387, 0.49582314, 0.57873106, 0.68736863, 0.71818805, 0.7917769, 0.44416642, 0.6393559]</t>
-  </si>
-  <si>
-    <t>I(dY,dC) =  [1.6171925, 0.98236012, 1.6461513, 1.531034, 1.3436642, 1.5597899, 1.2239263, 1.3022761]</t>
-  </si>
-  <si>
-    <t>I(dY,dR) =  [2.2864258, 1.3717775, 1.9336395, 1.6200254, 1.4894712, 1.8502164, 1.4197507, 1.376353]</t>
-  </si>
-  <si>
-    <t>I(dR,dC)  =  [1.5460279, 0.7166338, 1.6263969, 1.1693144, 1.5420117, 1.2331798, 1.0439408, 0.90072608]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">, , , , , </t>
+    <t>H(dY) =  [3.4063745, 2.7001638, 2.9468951, 3.2893825, 3.3245847, 2.0815687, 3.3540344, 3.1765318]</t>
+  </si>
+  <si>
+    <t>H(dY|dlogOD) =  [0.62395036, 0.71950549, 0.73154348, 0.59807062, 0.71005392, 0.86648738, 0.70005149, 0.66456324]</t>
+  </si>
+  <si>
+    <t>H(dY|dC) =  [0.44484675, 0.60485709, 0.51538271, 0.58881766, 0.6202659, 0.72942168, 0.50537467, 0.63852936]</t>
+  </si>
+  <si>
+    <t>H(dY|dR) =  [0.37609792, 0.49134982, 0.56006831, 0.57430708, 0.53958476, 0.69792217, 0.60050064, 0.63922995]</t>
+  </si>
+  <si>
+    <t>H(dY|dC,dlogOD) =  [0.29732749, 0.37734655, 0.31076875, 0.30562651, 0.40996164, 0.53812027, 0.2999002, 0.39815018]</t>
+  </si>
+  <si>
+    <t>H(dY|dR,dlogOD) =  [0.20702676, 0.2828241, 0.34773976, 0.28631112, 0.33504957, 0.52578205, 0.3553724, 0.36718962]</t>
+  </si>
+  <si>
+    <t>H(dY|dC,dR) =  [0.23892613, 0.25686523, 0.35741681, 0.28385097, 0.32721454, 0.46394324, 0.33655259, 0.35414407]</t>
+  </si>
+  <si>
+    <t>H(dY|dC,dR,dlogOD) =  [0.14385097, 0.13019443, 0.20890725, 0.15575787, 0.21475197, 0.31501138, 0.19743003, 0.21570477]</t>
+  </si>
+  <si>
+    <t>H(dR) =  [3.295188, 2.5339801, 2.8177695, 2.7626796, 3.0985579, 1.6597375, 2.972295, 2.5584598]</t>
+  </si>
+  <si>
+    <t>H(dR|dlogOD) =  [0.63929683, 0.73243451, 0.74981534, 0.62861919, 0.73149407, 0.85185939, 0.7038722, 0.67545098]</t>
+  </si>
+  <si>
+    <t>H(dR|dC) =  [0.48561785, 0.69422585, 0.57387394, 0.65278977, 0.6910885, 0.75439155, 0.57080227, 0.66243994]</t>
+  </si>
+  <si>
+    <t>H(dR|dY) =  [0.35504621, 0.45799139, 0.53990817, 0.4931491, 0.50599957, 0.62114716, 0.54919207, 0.55207533]</t>
+  </si>
+  <si>
+    <t>H(dR|dC,dlogOD) =  [0.30560464, 0.40789843, 0.35931417, 0.34166455, 0.46242613, 0.49417078, 0.33219835, 0.38752273]</t>
+  </si>
+  <si>
+    <t>H(dR|dY,dlogOD) =  [0.20830546, 0.26711482, 0.34842369, 0.25742319, 0.32913458, 0.42456251, 0.31492513, 0.3062377]</t>
+  </si>
+  <si>
+    <t>H(dR|dC,dY) =  [0.27274919, 0.32341197, 0.40866899, 0.28968152, 0.37666029, 0.4214409, 0.38029796, 0.30935282]</t>
+  </si>
+  <si>
+    <t>H(dR|dC,dY,dlogOD) =  [0.1469495, 0.14453736, 0.25278482, 0.16322356, 0.25297675, 0.21435784, 0.21656781, 0.16100222]</t>
+  </si>
+  <si>
+    <t>H(dC) =  [3.1014738, 2.2681925, 2.2681925, 3.0658953, 2.7255735, 2.2352805, 3.6309054, 3.0773447]</t>
+  </si>
+  <si>
+    <t>H(dC|dlogOD) =  [0.58578312, 0.72323149, 0.96399081, 0.60444003, 0.70127916, 0.87719381, 0.64547139, 0.64054787]</t>
+  </si>
+  <si>
+    <t>H(dC|dR) =  [0.4534902, 0.65839517, 0.7659266, 0.68712872, 0.64881504, 0.81763124, 0.64865458, 0.71935761]</t>
+  </si>
+  <si>
+    <t>H(dC|dY) =  [0.39027041, 0.5296033, 0.66567439, 0.55884457, 0.53680992, 0.74802852, 0.54309189, 0.62687874]</t>
+  </si>
+  <si>
+    <t>H(dC|dY,dlogOD) =  [0.22705051, 0.31590933, 0.41730979, 0.29067841, 0.33523434, 0.57140708, 0.27583352, 0.36554796]</t>
+  </si>
+  <si>
+    <t>H(dC|dR,dlogOD) =  [0.23124899, 0.3606658, 0.47887248, 0.3458651, 0.3953903, 0.61160314, 0.34121576, 0.40116867]</t>
+  </si>
+  <si>
+    <t>H(dC|dY,dR) =  [0.30283296, 0.37925392, 0.50263643, 0.37549999, 0.38977093, 0.59974259, 0.40483361, 0.42508301]</t>
+  </si>
+  <si>
+    <t>H(dC|dY,dR,dlogOD) =  [0.16186248, 0.17896798, 0.29849786, 0.20579492, 0.24865472, 0.41532639, 0.19531725, 0.24480142]</t>
+  </si>
+  <si>
+    <t>I(dlogOD,dC) =  [1.2846828, 0.62776423, 0.75147724, 1.2127454, 0.81418538, 0.27450633, 1.2872601, 1.1061583]</t>
+  </si>
+  <si>
+    <t>I(dlogOD,dY) =  [1.2809658, 0.7573812, 0.79111314, 1.3220994, 0.9639504, 0.27791572, 1.0060377, 1.0655253]</t>
+  </si>
+  <si>
+    <t>I(dlogOD,dR) =  [1.1885848, 0.6780057, 0.70496273, 1.0260065, 0.83198118, 0.2458744, 0.88017917, 0.83034539]</t>
+  </si>
+  <si>
+    <t>I(dY,dC) =  [1.8910599, 1.0669506, 1.4281163, 1.352536, 1.2624581, 0.56322742, 1.6589904, 1.1482227]</t>
+  </si>
+  <si>
+    <t>I(dY,dR) =  [2.1252441, 1.3734388, 1.2964327, 1.4002669, 1.5306895, 0.62879574, 1.3399346, 1.1459973]</t>
+  </si>
+  <si>
+    <t>I(dR,dC)  =  [1.6949859, 0.77482557, 1.2007251, 0.9592309, 0.95718026, 0.40764558, 1.2757022, 0.86363363]</t>
+  </si>
+  <si>
+    <t>H(dY) =  [3.0553079, 2.7406261, 2.9393642, 2.8216164, 2.7262752, 2.8647974, 2.5004792, 2.9798715]</t>
+  </si>
+  <si>
+    <t>H(dY|dlogOD) =  [0.72043854, 0.68961668, 0.67415404, 0.61254728, 0.66828525, 0.6453051, 0.79662281, 0.647443]</t>
+  </si>
+  <si>
+    <t>H(dY|dC) =  [0.56498742, 0.67843652, 0.42577597, 0.55150151, 0.49321139, 0.58444262, 0.64394766, 0.67341304]</t>
+  </si>
+  <si>
+    <t>H(dY|dR) =  [0.48339683, 0.51538986, 0.39836276, 0.56687653, 0.46547079, 0.50031054, 0.58723181, 0.55475706]</t>
+  </si>
+  <si>
+    <t>H(dY|dC,dlogOD) =  [0.42521301, 0.41553929, 0.31273577, 0.34679985, 0.39252084, 0.38754106, 0.47333762, 0.42370024]</t>
+  </si>
+  <si>
+    <t>H(dY|dR,dlogOD) =  [0.35086465, 0.32669193, 0.3023352, 0.34241393, 0.33814207, 0.3080551, 0.41652724, 0.31144169]</t>
+  </si>
+  <si>
+    <t>H(dY|dC,dR) =  [0.39675269, 0.33319509, 0.3250263, 0.34030724, 0.38719082, 0.303967, 0.48477769, 0.36102259]</t>
+  </si>
+  <si>
+    <t>H(dY|dC,dR,dlogOD) =  [0.28247547, 0.18365312, 0.22265455, 0.21320239, 0.28486341, 0.18912484, 0.30816522, 0.21629754]</t>
+  </si>
+  <si>
+    <t>H(dR) =  [2.7967966, 2.726778, 2.8203249, 2.7469184, 2.9108872, 2.7010849, 2.5386939, 2.9179335]</t>
+  </si>
+  <si>
+    <t>H(dR|dlogOD) =  [0.75196475, 0.71467692, 0.69647479, 0.65112805, 0.69001913, 0.6893335, 0.7955187, 0.69109946]</t>
+  </si>
+  <si>
+    <t>H(dR|dC) =  [0.54973471, 0.73601627, 0.41850254, 0.6174649, 0.45050251, 0.61946207, 0.58793014, 0.67954862]</t>
+  </si>
+  <si>
+    <t>H(dR|dY) =  [0.43564656, 0.51292878, 0.37296906, 0.55509841, 0.49937138, 0.47002423, 0.59344494, 0.54530621]</t>
+  </si>
+  <si>
+    <t>H(dR|dC,dlogOD) =  [0.42873013, 0.47278169, 0.33406475, 0.39466867, 0.36779672, 0.4170939, 0.45608974, 0.48010671]</t>
+  </si>
+  <si>
+    <t>H(dR|dY,dlogOD) =  [0.34823084, 0.34990928, 0.30896217, 0.37364885, 0.38081387, 0.33164263, 0.42114475, 0.34796619]</t>
+  </si>
+  <si>
+    <t>H(dR|dC,dY) =  [0.36594978, 0.38902149, 0.31350055, 0.40052786, 0.35120606, 0.32198685, 0.43115616, 0.36052686]</t>
+  </si>
+  <si>
+    <t>H(dR|dC,dY,dlogOD) =  [0.27279884, 0.23971805, 0.24018142, 0.25743842, 0.26696709, 0.20665184, 0.29340383, 0.26830137]</t>
+  </si>
+  <si>
+    <t>H(dC|dR) =  [0.49968475, 0.74754179, 0.40705258, 0.63164192, 0.44378459, 0.64967024, 0.57847124, 0.66297334]</t>
+  </si>
+  <si>
+    <t>H(dC|dY) =  [0.47195455, 0.69091433, 0.39027345, 0.55637872, 0.51954979, 0.59424311, 0.64125723, 0.64922941]</t>
+  </si>
+  <si>
+    <t>H(dC|dY,dlogOD) =  [0.350651, 0.44153455, 0.2930693, 0.3660242, 0.34437692, 0.37752408, 0.41375622, 0.36477607]</t>
+  </si>
+  <si>
+    <t>H(dC|dR,dlogOD) =  [0.34984925, 0.47364256, 0.30717775, 0.38192713, 0.2796475, 0.37858081, 0.3922641, 0.38318032]</t>
+  </si>
+  <si>
+    <t>H(dC|dY,dR) =  [0.39451051, 0.5724166, 0.33145037, 0.40753669, 0.36957291, 0.45795748, 0.47524291, 0.45489269]</t>
+  </si>
+  <si>
+    <t>H(dC|dY,dR,dlogOD) =  [0.26683438, 0.33615443, 0.22503507, 0.25412047, 0.2291383, 0.2624554, 0.28308305, 0.28099042]</t>
+  </si>
+  <si>
+    <t>I(dlogOD,dY) =  [0.85414577, 0.85064435, 0.95777988, 1.0932429, 0.90434575, 1.016129, 0.50854039, 1.0505745]</t>
+  </si>
+  <si>
+    <t>I(dlogOD,dR) =  [0.69370413, 0.77801299, 0.85603976, 0.95832276, 0.90231943, 0.8391366, 0.51911569, 0.90135121]</t>
+  </si>
+  <si>
+    <t>I(dY,dC) =  [1.3290973, 0.88128495, 1.6878536, 1.2654908, 1.381645, 1.1904876, 0.89030147, 0.97318721]</t>
+  </si>
+  <si>
+    <t>I(dY,dR) =  [1.5783815, 1.328135, 1.7684309, 1.2221084, 1.4572737, 1.431509, 1.0321183, 1.3267667]</t>
+  </si>
+  <si>
+    <t>I(dR,dC)  =  [1.2593005, 0.71982527, 1.6400118, 1.0507927, 1.5995252, 1.0278652, 1.0461195, 0.93505573]</t>
+  </si>
+  <si>
+    <t>H(dY) =  [3.769557, 2.7451031, 3.3030782, 3.5284791, 3.0859168, 3.3969474, 3.1953564, 3.2569337]</t>
+  </si>
+  <si>
+    <t>H(dY|dlogOD) =  [0.61874223, 0.68006724, 0.65252566, 0.65269345, 0.71670741, 0.49560571, 0.84695965, 0.63547343]</t>
+  </si>
+  <si>
+    <t>H(dY|dC) =  [0.57098603, 0.66189492, 0.50163114, 0.5831309, 0.59435153, 0.53572977, 0.61696702, 0.62017268]</t>
+  </si>
+  <si>
+    <t>H(dY|dR) =  [0.39344972, 0.53947353, 0.41459468, 0.5408715, 0.55739301, 0.45615712, 0.55568314, 0.57740831]</t>
+  </si>
+  <si>
+    <t>H(dY|dC,dlogOD) =  [0.3007386, 0.44827506, 0.33587945, 0.35524708, 0.35314977, 0.29388392, 0.4156855, 0.33500609]</t>
+  </si>
+  <si>
+    <t>H(dY|dR,dlogOD) =  [0.20921658, 0.31848764, 0.28013527, 0.31903791, 0.31258059, 0.21540277, 0.37257376, 0.34084231]</t>
+  </si>
+  <si>
+    <t>H(dY|dC,dR) =  [0.24637289, 0.3404597, 0.32333833, 0.31538442, 0.4011412, 0.25933522, 0.34768087, 0.25945258]</t>
+  </si>
+  <si>
+    <t>H(dY|dC,dR,dlogOD) =  [0.12922971, 0.20889078, 0.21544576, 0.18047445, 0.20810331, 0.13488314, 0.23401946, 0.16045743]</t>
+  </si>
+  <si>
+    <t>H(dR) =  [3.7383564, 2.6007154, 2.9892364, 2.8819854, 3.115283, 2.8809516, 2.899261, 2.6674078]</t>
+  </si>
+  <si>
+    <t>H(dR|dlogOD) =  [0.61329442, 0.71880829, 0.64984727, 0.66585833, 0.72077638, 0.55008948, 0.82235265, 0.62018907]</t>
+  </si>
+  <si>
+    <t>H(dR|dC) =  [0.58644187, 0.73254365, 0.4559156, 0.61037737, 0.51775509, 0.56821811, 0.63992864, 0.69591367]</t>
+  </si>
+  <si>
+    <t>H(dR|dY) =  [0.38838726, 0.51390582, 0.35313261, 0.4378787, 0.5615654, 0.3587516, 0.51030594, 0.48401102]</t>
+  </si>
+  <si>
+    <t>H(dR|dC,dlogOD) =  [0.30247217, 0.49428213, 0.31397301, 0.34806311, 0.32235518, 0.33194911, 0.39028019, 0.34566358]</t>
+  </si>
+  <si>
+    <t>H(dR|dY,dlogOD) =  [0.20035098, 0.33715436, 0.23835889, 0.25735638, 0.32045904, 0.21970049, 0.29951888, 0.26044127]</t>
+  </si>
+  <si>
+    <t>H(dR|dC,dY) =  [0.25911957, 0.39326283, 0.25890371, 0.28256914, 0.32636636, 0.24231943, 0.34314087, 0.2554704]</t>
+  </si>
+  <si>
+    <t>H(dR|dC,dY,dlogOD) =  [0.12953186, 0.24160725, 0.18089491, 0.13408491, 0.17867601, 0.14447051, 0.19006097, 0.13253796]</t>
+  </si>
+  <si>
+    <t>H(dC) =  [3.6624401, 2.3324304, 2.3324304, 3.2645369, 3.1251435, 3.189307, 2.8943088, 3.2296572]</t>
+  </si>
+  <si>
+    <t>H(dC|dlogOD) =  [0.61125106, 0.63592964, 0.80870289, 0.649261, 0.66190487, 0.53038597, 0.82647276, 0.71384305]</t>
+  </si>
+  <si>
+    <t>H(dC|dR) =  [0.57786942, 0.70177978, 0.562527, 0.65603471, 0.51927668, 0.60996455, 0.63931257, 0.74885178]</t>
+  </si>
+  <si>
+    <t>H(dC|dY) =  [0.55843848, 0.60207462, 0.55405778, 0.54942632, 0.5994432, 0.50550342, 0.57712615, 0.61696464]</t>
+  </si>
+  <si>
+    <t>H(dC|dY,dlogOD) =  [0.28394648, 0.36312687, 0.36028334, 0.32776564, 0.30291045, 0.31553102, 0.35034022, 0.41083792]</t>
+  </si>
+  <si>
+    <t>H(dC|dR,dlogOD) =  [0.29398569, 0.38557702, 0.37824774, 0.36870629, 0.26474079, 0.33333629, 0.39366105, 0.48710987]</t>
+  </si>
+  <si>
+    <t>H(dC|dY,dR) =  [0.42649117, 0.46755499, 0.43329406, 0.41231686, 0.3649863, 0.4003284, 0.40967524, 0.42821068]</t>
+  </si>
+  <si>
+    <t>H(dC|dY,dR,dlogOD) =  [0.21165954, 0.2565898, 0.28663766, 0.21893947, 0.16157477, 0.24757427, 0.24069503, 0.30520138]</t>
+  </si>
+  <si>
+    <t>I(dlogOD,dC) =  [1.42377, 0.84916878, 1.0522089, 1.1450005, 1.0565958, 1.4977434, 0.50224113, 0.92418885]</t>
+  </si>
+  <si>
+    <t>I(dlogOD,dY) =  [1.4371729, 0.87824845, 1.1477349, 1.2254639, 0.87421727, 1.7134008, 0.4890182, 1.1872389]</t>
+  </si>
+  <si>
+    <t>I(dlogOD,dR) =  [1.4456432, 0.73130012, 1.0466893, 0.96299148, 0.86986065, 1.2961705, 0.51504612, 1.0131106]</t>
+  </si>
+  <si>
+    <t>I(dY,dC) =  [1.6171925, 0.92813325, 1.6461513, 1.4709139, 1.2517977, 1.5771015, 1.2239263, 1.2370725]</t>
+  </si>
+  <si>
+    <t>I(dY,dR) =  [2.2864258, 1.2641926, 1.9336395, 1.6200254, 1.3658485, 1.8474057, 1.4197507, 1.376353]</t>
+  </si>
+  <si>
+    <t>I(dR,dC)  =  [1.5460279, 0.6955781, 1.6263969, 1.1228867, 1.5023293, 1.2439427, 1.0439408, 0.81112218]</t>
+  </si>
+  <si>
+    <t>, , , , , , ,</t>
   </si>
 </sst>
 </file>
@@ -545,12 +478,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -565,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -574,6 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1005,129 +945,129 @@
   <dimension ref="B3:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="15.75" x14ac:dyDescent="0.3">
@@ -1136,35 +1076,33 @@
     <row r="32" spans="2:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="E32" s="1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E33" s="1" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E35" s="1" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E36" s="1" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1175,7 +1113,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId4" name="Control 8">
+        <control shapeId="1025" r:id="rId4" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -1195,12 +1133,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId4" name="Control 8"/>
+        <control shapeId="1025" r:id="rId4" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId6" name="Control 1">
+        <control shapeId="1032" r:id="rId6" name="Control 8">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -1220,7 +1158,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId6" name="Control 1"/>
+        <control shapeId="1032" r:id="rId6" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1232,50 +1170,50 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B4:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
@@ -1283,112 +1221,112 @@
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1401,160 +1339,160 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -1574,152 +1512,152 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1731,8 +1669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
@@ -1750,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
@@ -1758,7 +1696,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -1766,7 +1704,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
@@ -1858,7 +1796,7 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>3.2296030999999998</v>
+        <v>2.9468950999999999</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1867,7 +1805,7 @@
         <v>3.3245846999999999</v>
       </c>
       <c r="G13">
-        <v>2.9737260000000001</v>
+        <v>3.3540344000000002</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1876,7 +1814,7 @@
         <v>5</v>
       </c>
       <c r="K13">
-        <v>2.8899579000000002</v>
+        <v>3.2893824999999999</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1885,7 +1823,7 @@
         <v>2.0815687</v>
       </c>
       <c r="N13">
-        <v>3.1941826</v>
+        <v>3.1765317999999998</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1905,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.3232262000000001</v>
+        <v>3.0859168000000001</v>
       </c>
       <c r="H14">
         <v>3.1953564000000001</v>
@@ -1914,7 +1852,7 @@
         <v>5</v>
       </c>
       <c r="K14">
-        <v>2.7887260999999999</v>
+        <v>2.7451031000000001</v>
       </c>
       <c r="L14">
         <v>3.5284791000000002</v>
@@ -1923,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3.4519297999999998</v>
+        <v>3.3969474000000002</v>
       </c>
       <c r="O14">
         <v>3.2569336999999998</v>
@@ -1946,7 +1884,7 @@
         <v>2.7262751999999999</v>
       </c>
       <c r="H15">
-        <v>2.8693051000000001</v>
+        <v>2.5004792</v>
       </c>
       <c r="J15" t="s">
         <v>6</v>
@@ -1964,7 +1902,7 @@
         <v>2.8647974</v>
       </c>
       <c r="O15">
-        <v>3.1542615999999999</v>
+        <v>2.9798714999999998</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
@@ -2018,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -2026,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -2034,7 +1972,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -2042,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -2134,7 +2072,7 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>0.73281991000000002</v>
+        <v>0.73154348000000002</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2143,7 +2081,7 @@
         <v>0.71005392000000001</v>
       </c>
       <c r="G28">
-        <v>0.75604605999999996</v>
+        <v>0.70005149</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2152,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="K28">
-        <v>0.67984301000000003</v>
+        <v>0.59807062</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2161,7 +2099,7 @@
         <v>0.86648738000000003</v>
       </c>
       <c r="N28">
-        <v>0.63353819</v>
+        <v>0.66456324</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -2172,37 +2110,37 @@
         <v>5</v>
       </c>
       <c r="D29">
-        <v>0.71921681999999998</v>
+        <v>0.61874222999999995</v>
       </c>
       <c r="E29">
-        <v>0.81607585999999999</v>
+        <v>0.65252566000000001</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0.77760077000000005</v>
+        <v>0.71670741000000004</v>
       </c>
       <c r="H29">
-        <v>0.86551403999999998</v>
+        <v>0.84695964999999995</v>
       </c>
       <c r="J29" t="s">
         <v>5</v>
       </c>
       <c r="K29">
-        <v>0.79743635999999996</v>
+        <v>0.68006723999999996</v>
       </c>
       <c r="L29">
-        <v>0.76192879999999996</v>
+        <v>0.65269345000000001</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0.72764134000000003</v>
+        <v>0.49560570999999998</v>
       </c>
       <c r="O29">
-        <v>0.79171115000000003</v>
+        <v>0.63547343000000001</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -2222,7 +2160,7 @@
         <v>0.66828525000000005</v>
       </c>
       <c r="H30">
-        <v>0.82759273</v>
+        <v>0.79662281000000001</v>
       </c>
       <c r="J30" t="s">
         <v>6</v>
@@ -2240,7 +2178,7 @@
         <v>0.64530509999999996</v>
       </c>
       <c r="O30">
-        <v>0.77397185999999996</v>
+        <v>0.64744299999999999</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
@@ -2291,7 +2229,7 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>163</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -2299,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
@@ -2307,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
@@ -2315,7 +2253,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -2323,7 +2261,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
@@ -2415,7 +2353,7 @@
         <v>5</v>
       </c>
       <c r="D43">
-        <v>0.60431826</v>
+        <v>0.51538271000000002</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2424,7 +2362,7 @@
         <v>0.62026590000000004</v>
       </c>
       <c r="G43">
-        <v>0.59342848999999998</v>
+        <v>0.50537467000000003</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2433,7 +2371,7 @@
         <v>5</v>
       </c>
       <c r="K43">
-        <v>0.65228229999999998</v>
+        <v>0.58881766000000002</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -2442,7 +2380,7 @@
         <v>0.72942167999999996</v>
       </c>
       <c r="N43">
-        <v>0.62858212000000002</v>
+        <v>0.63852936000000005</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -2462,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0.59567475000000003</v>
+        <v>0.59435152999999996</v>
       </c>
       <c r="H44">
         <v>0.61696702000000003</v>
@@ -2471,19 +2409,19 @@
         <v>5</v>
       </c>
       <c r="K44">
-        <v>0.64773875000000003</v>
+        <v>0.66189492000000005</v>
       </c>
       <c r="L44">
-        <v>0.56609237000000001</v>
+        <v>0.58313090000000001</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>0.54813962999999999</v>
+        <v>0.53572976999999999</v>
       </c>
       <c r="O44">
-        <v>0.60015273000000002</v>
+        <v>0.62017268000000003</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
@@ -2503,7 +2441,7 @@
         <v>0.49321139000000003</v>
       </c>
       <c r="H45">
-        <v>0.77295119000000001</v>
+        <v>0.64394766000000003</v>
       </c>
       <c r="J45" t="s">
         <v>6</v>
@@ -2521,7 +2459,7 @@
         <v>0.58444262000000002</v>
       </c>
       <c r="O45">
-        <v>0.82443898999999998</v>
+        <v>0.67341304000000002</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -2572,7 +2510,7 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
@@ -2580,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
@@ -2588,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
@@ -2596,7 +2534,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
@@ -2604,7 +2542,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
@@ -2696,7 +2634,7 @@
         <v>5</v>
       </c>
       <c r="D58">
-        <v>0.64318918999999997</v>
+        <v>0.56006831000000001</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2705,7 +2643,7 @@
         <v>0.53958476</v>
       </c>
       <c r="G58">
-        <v>0.66532557999999997</v>
+        <v>0.55568313999999996</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -2714,7 +2652,7 @@
         <v>5</v>
       </c>
       <c r="K58">
-        <v>0.63389640999999997</v>
+        <v>0.57430707999999997</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -2723,7 +2661,7 @@
         <v>0.69792217000000001</v>
       </c>
       <c r="N58">
-        <v>0.65062982000000003</v>
+        <v>0.57740831000000004</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -2743,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0.55179953999999998</v>
+        <v>0.55739300999999997</v>
       </c>
       <c r="H59">
         <v>0.55568313999999996</v>
@@ -2752,7 +2690,7 @@
         <v>5</v>
       </c>
       <c r="K59">
-        <v>0.50809884000000005</v>
+        <v>0.53947352999999998</v>
       </c>
       <c r="L59">
         <v>0.54087149999999995</v>
@@ -2761,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>0.46400520000000001</v>
+        <v>0.45615712000000003</v>
       </c>
       <c r="O59">
         <v>0.57740831000000004</v>
@@ -2784,7 +2722,7 @@
         <v>0.46547079000000002</v>
       </c>
       <c r="H60">
-        <v>0.90502881999999996</v>
+        <v>0.58723181000000002</v>
       </c>
       <c r="J60" t="s">
         <v>6</v>
@@ -2802,7 +2740,7 @@
         <v>0.50031053999999997</v>
       </c>
       <c r="O60">
-        <v>0.90113878000000003</v>
+        <v>0.55475706000000002</v>
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
@@ -2851,12 +2789,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>141</v>
+      </c>
+    </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
@@ -2864,7 +2807,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
@@ -2872,7 +2815,7 @@
         <v>2</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
@@ -2880,7 +2823,7 @@
         <v>3</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
@@ -2930,6 +2873,7 @@
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
       <c r="C73" t="s">
         <v>4</v>
       </c>
@@ -2972,7 +2916,7 @@
         <v>5</v>
       </c>
       <c r="D74">
-        <v>0.37318128</v>
+        <v>0.31076874999999998</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2981,7 +2925,7 @@
         <v>0.40996164000000002</v>
       </c>
       <c r="G74">
-        <v>0.40067567999999998</v>
+        <v>0.29990020000000001</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -2990,7 +2934,7 @@
         <v>5</v>
       </c>
       <c r="K74">
-        <v>0.44960260000000002</v>
+        <v>0.30562651000000002</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -2999,7 +2943,7 @@
         <v>0.53812026999999996</v>
       </c>
       <c r="N74">
-        <v>0.40197550999999998</v>
+        <v>0.39815018000000002</v>
       </c>
       <c r="O74">
         <v>0</v>
@@ -3010,37 +2954,37 @@
         <v>5</v>
       </c>
       <c r="D75">
-        <v>0.29613334000000002</v>
+        <v>0.30073860000000002</v>
       </c>
       <c r="E75">
-        <v>0.32379740000000001</v>
+        <v>0.33587945000000002</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>0.32944149</v>
+        <v>0.35314976999999997</v>
       </c>
       <c r="H75">
-        <v>0.43503650999999999</v>
+        <v>0.41568549999999999</v>
       </c>
       <c r="J75" t="s">
         <v>5</v>
       </c>
       <c r="K75">
-        <v>0.40947115000000001</v>
+        <v>0.44827506</v>
       </c>
       <c r="L75">
-        <v>0.32474904999999998</v>
+        <v>0.35524707999999999</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
-        <v>0.27631824999999999</v>
+        <v>0.29388392000000002</v>
       </c>
       <c r="O75">
-        <v>0.33532831000000002</v>
+        <v>0.33500608999999998</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
@@ -3060,7 +3004,7 @@
         <v>0.39252083999999998</v>
       </c>
       <c r="H76">
-        <v>0.56430243999999996</v>
+        <v>0.47333762000000001</v>
       </c>
       <c r="J76" t="s">
         <v>6</v>
@@ -3078,7 +3022,7 @@
         <v>0.38754105999999999</v>
       </c>
       <c r="O76">
-        <v>0.59857815999999997</v>
+        <v>0.42370024000000001</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
@@ -3127,12 +3071,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>0</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
@@ -3140,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
@@ -3148,7 +3097,7 @@
         <v>2</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
@@ -3156,7 +3105,7 @@
         <v>3</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.25">
@@ -3408,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.25">
@@ -3416,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.25">
@@ -3424,7 +3373,7 @@
         <v>2</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
@@ -3432,7 +3381,7 @@
         <v>3</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.25">
@@ -3685,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114" spans="2:16" x14ac:dyDescent="0.25">
@@ -3693,7 +3642,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
     </row>
     <row r="115" spans="2:16" x14ac:dyDescent="0.25">
@@ -3701,7 +3650,7 @@
         <v>2</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="2:16" x14ac:dyDescent="0.25">
@@ -3709,7 +3658,7 @@
         <v>3</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" spans="2:16" x14ac:dyDescent="0.25">
@@ -3968,8 +3917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P131"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121:O125"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3979,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
@@ -3987,7 +3936,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
@@ -3995,7 +3944,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -4003,7 +3952,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
@@ -4255,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -4263,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -4271,7 +4220,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -4279,7 +4228,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -4531,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
@@ -4539,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
@@ -4547,7 +4496,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -4555,7 +4504,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
@@ -4807,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
@@ -4815,7 +4764,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
@@ -4823,7 +4772,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
@@ -4831,7 +4780,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
@@ -5083,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
@@ -5091,7 +5040,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
@@ -5099,7 +5048,7 @@
         <v>2</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
@@ -5107,7 +5056,7 @@
         <v>3</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
@@ -5359,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
@@ -5367,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
@@ -5375,7 +5324,7 @@
         <v>2</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.25">
@@ -5383,7 +5332,7 @@
         <v>3</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.25">
@@ -5635,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.25">
@@ -5643,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
@@ -5651,7 +5600,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.25">
@@ -5659,7 +5608,7 @@
         <v>3</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.25">
@@ -5912,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115" spans="2:16" x14ac:dyDescent="0.25">
@@ -5920,7 +5869,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
     </row>
     <row r="116" spans="2:16" x14ac:dyDescent="0.25">
@@ -5928,7 +5877,7 @@
         <v>2</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="2:16" x14ac:dyDescent="0.25">
@@ -5936,7 +5885,7 @@
         <v>3</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="2:16" x14ac:dyDescent="0.25">
@@ -6204,8 +6153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P132"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122:O126"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6215,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
@@ -6223,7 +6172,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
@@ -6231,7 +6180,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -6239,7 +6188,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
@@ -6491,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -6499,7 +6448,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -6507,7 +6456,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -6515,7 +6464,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -6767,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
@@ -6775,7 +6724,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -6783,7 +6732,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -6791,7 +6740,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
@@ -7000,7 +6949,7 @@
         <v>0.54414463000000002</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -7043,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
@@ -7051,7 +7000,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
@@ -7059,7 +7008,7 @@
         <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
@@ -7067,7 +7016,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
@@ -7319,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
@@ -7327,7 +7276,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
@@ -7335,7 +7284,7 @@
         <v>2</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
@@ -7343,7 +7292,7 @@
         <v>3</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
@@ -7592,7 +7541,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
@@ -7600,7 +7549,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.25">
@@ -7608,7 +7557,7 @@
         <v>2</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.25">
@@ -7616,7 +7565,7 @@
         <v>3</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
@@ -7868,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
@@ -7876,7 +7825,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.25">
@@ -7884,7 +7833,7 @@
         <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.25">
@@ -7892,7 +7841,7 @@
         <v>3</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
@@ -8148,7 +8097,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116" spans="2:16" x14ac:dyDescent="0.25">
@@ -8156,7 +8105,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117" spans="2:16" x14ac:dyDescent="0.25">
@@ -8164,7 +8113,7 @@
         <v>2</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="2:16" x14ac:dyDescent="0.25">
@@ -8172,7 +8121,7 @@
         <v>3</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="2:16" x14ac:dyDescent="0.25">
@@ -8440,8 +8389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AA115"/>
   <sheetViews>
-    <sheetView topLeftCell="M90" workbookViewId="0">
-      <selection activeCell="Q111" sqref="Q111:AA115"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8454,7 +8403,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.25">
@@ -8462,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.25">
@@ -8470,7 +8419,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.25">
@@ -8478,7 +8427,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.25">
@@ -8942,7 +8891,7 @@
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
@@ -8950,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
@@ -8958,7 +8907,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
@@ -8966,7 +8915,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
@@ -8974,7 +8923,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.25">
@@ -9140,7 +9089,7 @@
       </c>
       <c r="Q29">
         <f>IF('H(Y)'!D13&gt;0,'I(x)'!D29/'H(Y)'!D13,0)</f>
-        <v>0.26718010953110616</v>
+        <v>0.2928118174277734</v>
       </c>
       <c r="R29">
         <f>IF('H(Y)'!E13&gt;0,'I(x)'!E29/'H(Y)'!E13,0)</f>
@@ -9152,7 +9101,7 @@
       </c>
       <c r="T29">
         <f>IF('H(Y)'!G13&gt;0,'I(x)'!G29/'H(Y)'!G13,0)</f>
-        <v>0.24395394195699266</v>
+        <v>0.2162924089269925</v>
       </c>
       <c r="U29">
         <f>IF('H(Y)'!H13&gt;0,'I(x)'!H29/'H(Y)'!H13,0)</f>
@@ -9163,7 +9112,7 @@
       </c>
       <c r="W29">
         <f>IF('H(Y)'!K13&gt;0,'I(x)'!K29/'H(Y)'!K13,0)</f>
-        <v>0.32015700989969437</v>
+        <v>0.28128084222494648</v>
       </c>
       <c r="X29">
         <f>IF('H(Y)'!L13&gt;0,'I(x)'!L29/'H(Y)'!L13,0)</f>
@@ -9175,7 +9124,7 @@
       </c>
       <c r="Z29">
         <f>IF('H(Y)'!N13&gt;0,'I(x)'!N29/'H(Y)'!N13,0)</f>
-        <v>0.36646186100944883</v>
+        <v>0.36849815260782215</v>
       </c>
       <c r="AA29">
         <f>IF('H(Y)'!O13&gt;0,'I(x)'!O29/'H(Y)'!O13,0)</f>
@@ -9233,7 +9182,7 @@
       </c>
       <c r="T30">
         <f>IF('H(Y)'!G14&gt;0,'I(x)'!G30/'H(Y)'!G14,0)</f>
-        <v>0.21672144074935373</v>
+        <v>0.23338748795819769</v>
       </c>
       <c r="U30">
         <f>IF('H(Y)'!H14&gt;0,'I(x)'!H30/'H(Y)'!H14,0)</f>
@@ -9244,7 +9193,7 @@
       </c>
       <c r="W30">
         <f>IF('H(Y)'!K14&gt;0,'I(x)'!K30/'H(Y)'!K14,0)</f>
-        <v>0.33177882905029649</v>
+        <v>0.33705119490776136</v>
       </c>
       <c r="X30">
         <f>IF('H(Y)'!L14&gt;0,'I(x)'!L30/'H(Y)'!L14,0)</f>
@@ -9256,7 +9205,7 @@
       </c>
       <c r="Z30">
         <f>IF('H(Y)'!N14&gt;0,'I(x)'!N30/'H(Y)'!N14,0)</f>
-        <v>0.33923607021208835</v>
+        <v>0.34472688626264864</v>
       </c>
       <c r="AA30">
         <f>IF('H(Y)'!O14&gt;0,'I(x)'!O30/'H(Y)'!O14,0)</f>
@@ -9318,7 +9267,7 @@
       </c>
       <c r="U31">
         <f>IF('H(Y)'!H15&gt;0,'I(x)'!H31/'H(Y)'!H15,0)</f>
-        <v>0.17240724592166931</v>
+        <v>0.19783767447455672</v>
       </c>
       <c r="V31" t="s">
         <v>6</v>
@@ -9341,7 +9290,7 @@
       </c>
       <c r="AA31">
         <f>IF('H(Y)'!O15&gt;0,'I(x)'!O31/'H(Y)'!O15,0)</f>
-        <v>0.22602829771633401</v>
+        <v>0.23925608201561716</v>
       </c>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.25">
@@ -9438,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
@@ -9446,7 +9395,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.25">
@@ -9454,7 +9403,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.25">
@@ -9462,7 +9411,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
@@ -9929,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
@@ -9937,7 +9886,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
@@ -9945,7 +9894,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
@@ -9953,7 +9902,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
@@ -10202,10 +10151,10 @@
     </row>
     <row r="66" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="Q66" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="2:27" x14ac:dyDescent="0.25">
@@ -10305,7 +10254,7 @@
     <row r="68" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D68">
         <f>IF('H(Y)'!D13&gt;0,'I(x)'!D61/'H(Y)'!D13,0)</f>
-        <v>0.39568165512350423</v>
+        <v>0.43364105495305894</v>
       </c>
       <c r="E68">
         <f>IF('H(Y)'!E13&gt;0,'I(x)'!E61/'H(Y)'!E13,0)</f>
@@ -10317,7 +10266,7 @@
       </c>
       <c r="G68">
         <f>IF('H(Y)'!G13&gt;0,'I(x)'!G61/'H(Y)'!G13,0)</f>
-        <v>0.40657145278347767</v>
+        <v>0.360470989802609</v>
       </c>
       <c r="H68">
         <f>IF('H(Y)'!H13&gt;0,'I(x)'!H61/'H(Y)'!H13,0)</f>
@@ -10333,7 +10282,7 @@
       </c>
       <c r="K68">
         <f>IF('H(Y)'!K13&gt;0,'I(x)'!K61/'H(Y)'!K13,0)</f>
-        <v>0.34771769512628536</v>
+        <v>0.30549487631797156</v>
       </c>
       <c r="L68">
         <f>IF('H(Y)'!L13&gt;0,'I(x)'!L61/'H(Y)'!L13,0)</f>
@@ -10345,7 +10294,7 @@
       </c>
       <c r="N68">
         <f>IF('H(Y)'!N13&gt;0,'I(x)'!N61/'H(Y)'!N13,0)</f>
-        <v>0.3714178081115338</v>
+        <v>0.37348163805569334</v>
       </c>
       <c r="O68">
         <f>IF('H(Y)'!O13&gt;0,'I(x)'!O61/'H(Y)'!O13,0)</f>
@@ -10411,7 +10360,7 @@
       </c>
       <c r="G69">
         <f>IF('H(Y)'!G14&gt;0,'I(x)'!G62/'H(Y)'!G14,0)</f>
-        <v>0.39115468576890733</v>
+        <v>0.42123478507262413</v>
       </c>
       <c r="H69">
         <f>IF('H(Y)'!H14&gt;0,'I(x)'!H62/'H(Y)'!H14,0)</f>
@@ -10427,7 +10376,7 @@
       </c>
       <c r="K69">
         <f>IF('H(Y)'!K14&gt;0,'I(x)'!K62/'H(Y)'!K14,0)</f>
-        <v>0.36033997745422186</v>
+        <v>0.36606621441650039</v>
       </c>
       <c r="L69">
         <f>IF('H(Y)'!L14&gt;0,'I(x)'!L62/'H(Y)'!L14,0)</f>
@@ -10439,7 +10388,7 @@
       </c>
       <c r="N69">
         <f>IF('H(Y)'!N14&gt;0,'I(x)'!N62/'H(Y)'!N14,0)</f>
-        <v>0.34382205570924412</v>
+        <v>0.34938709972371074</v>
       </c>
       <c r="O69">
         <f>IF('H(Y)'!O14&gt;0,'I(x)'!O62/'H(Y)'!O14,0)</f>
@@ -10509,7 +10458,7 @@
       </c>
       <c r="H70">
         <f>IF('H(Y)'!H15&gt;0,'I(x)'!H63/'H(Y)'!H15,0)</f>
-        <v>0.22704881749940081</v>
+        <v>0.2605389918860353</v>
       </c>
       <c r="I70">
         <f>IF('H(Y)'!I15&gt;0,'I(x)'!I63/'H(Y)'!I15,0)</f>
@@ -10537,7 +10486,7 @@
       </c>
       <c r="O70">
         <f>IF('H(Y)'!O15&gt;0,'I(x)'!O63/'H(Y)'!O15,0)</f>
-        <v>0.17556114242395116</v>
+        <v>0.18583545297171375</v>
       </c>
       <c r="Q70">
         <f>IF('H(C)'!D15&gt;0,'I(x)'!D63/'H(C)'!D15,0)</f>
@@ -10683,7 +10632,7 @@
         <v>0</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="2:27" x14ac:dyDescent="0.25">
@@ -10691,7 +10640,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.25">
@@ -10699,7 +10648,7 @@
         <v>2</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="2:27" x14ac:dyDescent="0.25">
@@ -10707,7 +10656,7 @@
         <v>3</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="2:27" x14ac:dyDescent="0.25">
@@ -10956,10 +10905,10 @@
     </row>
     <row r="88" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="Q88" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="2:27" x14ac:dyDescent="0.25">
@@ -11059,7 +11008,7 @@
     <row r="90" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D90">
         <f>IF('H(Y)'!D13&gt;0,'I(x)'!D83/'H(Y)'!D13,0)</f>
-        <v>0.35681074866444112</v>
+        <v>0.39104109949485477</v>
       </c>
       <c r="E90">
         <f>IF('H(Y)'!E13&gt;0,'I(x)'!E83/'H(Y)'!E13,0)</f>
@@ -11071,7 +11020,7 @@
       </c>
       <c r="G90">
         <f>IF('H(Y)'!G13&gt;0,'I(x)'!G83/'H(Y)'!G13,0)</f>
-        <v>0.33467439838102098</v>
+        <v>0.29672622320152708</v>
       </c>
       <c r="H90">
         <f>IF('H(Y)'!H13&gt;0,'I(x)'!H83/'H(Y)'!H13,0)</f>
@@ -11087,7 +11036,7 @@
       </c>
       <c r="K90">
         <f>IF('H(Y)'!K13&gt;0,'I(x)'!K83/'H(Y)'!K13,0)</f>
-        <v>0.3661035684983508</v>
+        <v>0.3216481816875964</v>
       </c>
       <c r="L90">
         <f>IF('H(Y)'!L13&gt;0,'I(x)'!L83/'H(Y)'!L13,0)</f>
@@ -11099,7 +11048,7 @@
       </c>
       <c r="N90">
         <f>IF('H(Y)'!N13&gt;0,'I(x)'!N83/'H(Y)'!N13,0)</f>
-        <v>0.34937022698702325</v>
+        <v>0.35131154676304516</v>
       </c>
       <c r="O90">
         <f>IF('H(Y)'!O13&gt;0,'I(x)'!O83/'H(Y)'!O13,0)</f>
@@ -11165,7 +11114,7 @@
       </c>
       <c r="G91">
         <f>IF('H(Y)'!G14&gt;0,'I(x)'!G84/'H(Y)'!G14,0)</f>
-        <v>0.31491753405169948</v>
+        <v>0.33913493714412518</v>
       </c>
       <c r="H91">
         <f>IF('H(Y)'!H14&gt;0,'I(x)'!H84/'H(Y)'!H14,0)</f>
@@ -11181,7 +11130,7 @@
       </c>
       <c r="K91">
         <f>IF('H(Y)'!K14&gt;0,'I(x)'!K84/'H(Y)'!K14,0)</f>
-        <v>0.37939326490328329</v>
+        <v>0.38542228158935088</v>
       </c>
       <c r="L91">
         <f>IF('H(Y)'!L14&gt;0,'I(x)'!L84/'H(Y)'!L14,0)</f>
@@ -11193,7 +11142,7 @@
       </c>
       <c r="N91">
         <f>IF('H(Y)'!N14&gt;0,'I(x)'!N84/'H(Y)'!N14,0)</f>
-        <v>0.32321451032984505</v>
+        <v>0.32844600419776881</v>
       </c>
       <c r="O91">
         <f>IF('H(Y)'!O14&gt;0,'I(x)'!O84/'H(Y)'!O14,0)</f>
@@ -11263,7 +11212,7 @@
       </c>
       <c r="H92">
         <f>IF('H(Y)'!H15&gt;0,'I(x)'!H85/'H(Y)'!H15,0)</f>
-        <v>9.4971158696229269E-2</v>
+        <v>0.10897960278973726</v>
       </c>
       <c r="I92">
         <f>IF('H(Y)'!I15&gt;0,'I(x)'!I85/'H(Y)'!I15,0)</f>
@@ -11291,7 +11240,7 @@
       </c>
       <c r="O92">
         <f>IF('H(Y)'!O15&gt;0,'I(x)'!O85/'H(Y)'!O15,0)</f>
-        <v>9.8861204156307142E-2</v>
+        <v>0.10464682789173964</v>
       </c>
       <c r="Q92">
         <f>IF('H(R) '!D15&gt;0,'I(x)'!D85/'H(R) '!D15,0)</f>
@@ -11437,7 +11386,7 @@
         <v>0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="2:27" x14ac:dyDescent="0.25">
@@ -11445,7 +11394,7 @@
         <v>1</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="2:27" x14ac:dyDescent="0.25">
@@ -11453,7 +11402,7 @@
         <v>2</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="2:27" x14ac:dyDescent="0.25">
@@ -11461,7 +11410,7 @@
         <v>3</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" spans="2:27" x14ac:dyDescent="0.25">
@@ -11710,10 +11659,10 @@
     </row>
     <row r="110" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="Q110" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111" spans="2:27" x14ac:dyDescent="0.25">

--- a/Análisis/Entropías2.xlsx
+++ b/Análisis/Entropías2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="E1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="146">
   <si>
     <t>E1</t>
   </si>
@@ -81,18 +81,9 @@
     <t xml:space="preserve">, , , , , , , </t>
   </si>
   <si>
-    <t>H(dC) =  [2.5170131, 2.8512642, 2.8512642, 2.8526394, 2.8757298, 2.9339933, 2.4817264, 2.7744265]</t>
-  </si>
-  <si>
-    <t>H(dC|dlogOD) =  [0.70901406, 0.70497662, 0.66565508, 0.62888163, 0.60580957, 0.6292088, 0.73948479, 0.60508662]</t>
-  </si>
-  <si>
     <t>I(dlogOD,dC) =  [0.73241544, 0.84118962, 0.902668, 1.0586672, 1.1335852, 1.0878992, 0.64652753, 1.0956581]</t>
   </si>
   <si>
-    <t>H(dC|dY,dR,dlogOD) =  [0.23749225, 0.27942586, 0.27411917, 0.21893947, 0.26205775, 0.27219242, 0.24069503, 0.30520138]</t>
-  </si>
-  <si>
     <t>H(dY) =  [3.6257074, 3.2830191, 3.38006, 3.8548996, 3.4728532, 3.7898448, 3.2390075, 3.6151679]</t>
   </si>
   <si>
@@ -141,30 +132,6 @@
     <t>H(dR|dC,dY,dlogOD) =  [0.1415323, 0.15462032, 0.18135606, 0.12903087, 0.17379388, 0.15969701, 0.26192906, 0.19037339]</t>
   </si>
   <si>
-    <t>H(dC) =  [3.5327115, 2.9891796, 2.9891796, 3.4091365, 3.3283896, 1.9067755, 3.1656966, 3.0836437]</t>
-  </si>
-  <si>
-    <t>H(dC|dlogOD) =  [0.67614526, 0.74287146, 0.78979909, 0.71645457, 0.75810611, 0.69198072, 0.73512006, 0.82413536]</t>
-  </si>
-  <si>
-    <t>H(dC|dR) =  [0.54414463, 0.73428446, 0.6081177, 0.64591813, 0.4946281, 0.69799501, 0.58079165, 0.68139613]</t>
-  </si>
-  <si>
-    <t>H(dC|dY) =  [0.55227619, 0.68675989, 0.65016669, 0.58662099, 0.62124181, 0.62591761, 0.56107068, 0.56620032]</t>
-  </si>
-  <si>
-    <t>H(dC|dY,dlogOD) =  [0.32024074, 0.39436802, 0.32852027, 0.29927039, 0.34920925, 0.37622732, 0.34094939, 0.32772565]</t>
-  </si>
-  <si>
-    <t>H(dC|dR,dlogOD) =  [0.31073275, 0.43796942, 0.31217414, 0.35061961, 0.28333634, 0.41728491, 0.32248819, 0.41737351]</t>
-  </si>
-  <si>
-    <t>H(dC|dY,dR) =  [0.4346081, 0.53373039, 0.48466429, 0.43149629, 0.3578718, 0.51942658, 0.41631511, 0.40703851]</t>
-  </si>
-  <si>
-    <t>H(dC|dY,dR,dlogOD) =  [0.22474442, 0.2887156, 0.2025755, 0.20595603, 0.16996023, 0.29159036, 0.19602296, 0.21357723]</t>
-  </si>
-  <si>
     <t>I(dlogOD,dC) =  [1.1440854, 0.76860332, 0.89674616, 0.966645, 0.80511737, 0.58732355, 0.83852959, 0.5423038]</t>
   </si>
   <si>
@@ -183,9 +150,6 @@
     <t>I(dR,dC)  =  [1.6104052, 0.79427147, 1.4398246, 1.2071135, 1.6820753, 0.57585621, 1.3270862, 0.98246193]</t>
   </si>
   <si>
-    <t>0.6081177,</t>
-  </si>
-  <si>
     <t>i/hy</t>
   </si>
   <si>
@@ -243,30 +207,6 @@
     <t>H(dR|dC,dY,dlogOD) =  [0.1469495, 0.14453736, 0.25278482, 0.16322356, 0.25297675, 0.21435784, 0.21656781, 0.16100222]</t>
   </si>
   <si>
-    <t>H(dC) =  [3.1014738, 2.2681925, 2.2681925, 3.0658953, 2.7255735, 2.2352805, 3.6309054, 3.0773447]</t>
-  </si>
-  <si>
-    <t>H(dC|dlogOD) =  [0.58578312, 0.72323149, 0.96399081, 0.60444003, 0.70127916, 0.87719381, 0.64547139, 0.64054787]</t>
-  </si>
-  <si>
-    <t>H(dC|dR) =  [0.4534902, 0.65839517, 0.7659266, 0.68712872, 0.64881504, 0.81763124, 0.64865458, 0.71935761]</t>
-  </si>
-  <si>
-    <t>H(dC|dY) =  [0.39027041, 0.5296033, 0.66567439, 0.55884457, 0.53680992, 0.74802852, 0.54309189, 0.62687874]</t>
-  </si>
-  <si>
-    <t>H(dC|dY,dlogOD) =  [0.22705051, 0.31590933, 0.41730979, 0.29067841, 0.33523434, 0.57140708, 0.27583352, 0.36554796]</t>
-  </si>
-  <si>
-    <t>H(dC|dR,dlogOD) =  [0.23124899, 0.3606658, 0.47887248, 0.3458651, 0.3953903, 0.61160314, 0.34121576, 0.40116867]</t>
-  </si>
-  <si>
-    <t>H(dC|dY,dR) =  [0.30283296, 0.37925392, 0.50263643, 0.37549999, 0.38977093, 0.59974259, 0.40483361, 0.42508301]</t>
-  </si>
-  <si>
-    <t>H(dC|dY,dR,dlogOD) =  [0.16186248, 0.17896798, 0.29849786, 0.20579492, 0.24865472, 0.41532639, 0.19531725, 0.24480142]</t>
-  </si>
-  <si>
     <t>I(dlogOD,dC) =  [1.2846828, 0.62776423, 0.75147724, 1.2127454, 0.81418538, 0.27450633, 1.2872601, 1.1061583]</t>
   </si>
   <si>
@@ -333,24 +273,6 @@
     <t>H(dR|dC,dY,dlogOD) =  [0.27279884, 0.23971805, 0.24018142, 0.25743842, 0.26696709, 0.20665184, 0.29340383, 0.26830137]</t>
   </si>
   <si>
-    <t>H(dC|dR) =  [0.49968475, 0.74754179, 0.40705258, 0.63164192, 0.44378459, 0.64967024, 0.57847124, 0.66297334]</t>
-  </si>
-  <si>
-    <t>H(dC|dY) =  [0.47195455, 0.69091433, 0.39027345, 0.55637872, 0.51954979, 0.59424311, 0.64125723, 0.64922941]</t>
-  </si>
-  <si>
-    <t>H(dC|dY,dlogOD) =  [0.350651, 0.44153455, 0.2930693, 0.3660242, 0.34437692, 0.37752408, 0.41375622, 0.36477607]</t>
-  </si>
-  <si>
-    <t>H(dC|dR,dlogOD) =  [0.34984925, 0.47364256, 0.30717775, 0.38192713, 0.2796475, 0.37858081, 0.3922641, 0.38318032]</t>
-  </si>
-  <si>
-    <t>H(dC|dY,dR) =  [0.39451051, 0.5724166, 0.33145037, 0.40753669, 0.36957291, 0.45795748, 0.47524291, 0.45489269]</t>
-  </si>
-  <si>
-    <t>H(dC|dY,dR,dlogOD) =  [0.26683438, 0.33615443, 0.22503507, 0.25412047, 0.2291383, 0.2624554, 0.28308305, 0.28099042]</t>
-  </si>
-  <si>
     <t>I(dlogOD,dY) =  [0.85414577, 0.85064435, 0.95777988, 1.0932429, 0.90434575, 1.016129, 0.50854039, 1.0505745]</t>
   </si>
   <si>
@@ -414,30 +336,6 @@
     <t>H(dR|dC,dY,dlogOD) =  [0.12953186, 0.24160725, 0.18089491, 0.13408491, 0.17867601, 0.14447051, 0.19006097, 0.13253796]</t>
   </si>
   <si>
-    <t>H(dC) =  [3.6624401, 2.3324304, 2.3324304, 3.2645369, 3.1251435, 3.189307, 2.8943088, 3.2296572]</t>
-  </si>
-  <si>
-    <t>H(dC|dlogOD) =  [0.61125106, 0.63592964, 0.80870289, 0.649261, 0.66190487, 0.53038597, 0.82647276, 0.71384305]</t>
-  </si>
-  <si>
-    <t>H(dC|dR) =  [0.57786942, 0.70177978, 0.562527, 0.65603471, 0.51927668, 0.60996455, 0.63931257, 0.74885178]</t>
-  </si>
-  <si>
-    <t>H(dC|dY) =  [0.55843848, 0.60207462, 0.55405778, 0.54942632, 0.5994432, 0.50550342, 0.57712615, 0.61696464]</t>
-  </si>
-  <si>
-    <t>H(dC|dY,dlogOD) =  [0.28394648, 0.36312687, 0.36028334, 0.32776564, 0.30291045, 0.31553102, 0.35034022, 0.41083792]</t>
-  </si>
-  <si>
-    <t>H(dC|dR,dlogOD) =  [0.29398569, 0.38557702, 0.37824774, 0.36870629, 0.26474079, 0.33333629, 0.39366105, 0.48710987]</t>
-  </si>
-  <si>
-    <t>H(dC|dY,dR) =  [0.42649117, 0.46755499, 0.43329406, 0.41231686, 0.3649863, 0.4003284, 0.40967524, 0.42821068]</t>
-  </si>
-  <si>
-    <t>H(dC|dY,dR,dlogOD) =  [0.21165954, 0.2565898, 0.28663766, 0.21893947, 0.16157477, 0.24757427, 0.24069503, 0.30520138]</t>
-  </si>
-  <si>
     <t>I(dlogOD,dC) =  [1.42377, 0.84916878, 1.0522089, 1.1450005, 1.0565958, 1.4977434, 0.50224113, 0.92418885]</t>
   </si>
   <si>
@@ -457,6 +355,120 @@
   </si>
   <si>
     <t>, , , , , , ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,, , , , , , </t>
+  </si>
+  <si>
+    <t>, 0.26790264</t>
+  </si>
+  <si>
+    <t>, , , , , ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, , , , ,, , </t>
+  </si>
+  <si>
+    <t xml:space="preserve">, , , ,,, , </t>
+  </si>
+  <si>
+    <t>H(dC) =  [3.1014738, 2.2681925, 2.937994, 3.0658953, 2.7255735, 2.2352805, 3.6309054, 3.0773447]</t>
+  </si>
+  <si>
+    <t>H(dC|dlogOD) =  [0.58578312, 0.72323149, 0.74422097, 0.60444003, 0.70127916, 0.87719381, 0.64547139, 0.64054787]</t>
+  </si>
+  <si>
+    <t>H(dC|dR) =  [0.4534902, 0.65839517, 0.59131128, 0.68712872, 0.64881504, 0.81763124, 0.64865458, 0.71935761]</t>
+  </si>
+  <si>
+    <t>H(dC|dY) =  [0.39027041, 0.5296033, 0.51391447, 0.55884457, 0.53680992, 0.74802852, 0.54309189, 0.62687874]</t>
+  </si>
+  <si>
+    <t>H(dC|dY,dlogOD) =  [0.22705051, 0.31590933, 0.32217184, 0.29067841, 0.33523434, 0.57140708, 0.27583352, 0.36554796]</t>
+  </si>
+  <si>
+    <t>H(dC|dR,dlogOD) =  [0.23124899, 0.3606658, 0.36969951, 0.3458651, 0.3953903, 0.61160314, 0.34121576, 0.40116867]</t>
+  </si>
+  <si>
+    <t>H(dC|dY,dR) =  [0.30283296, 0.37925392, 0.38804579, 0.37549999, 0.38977093, 0.59974259, 0.40483361, 0.42508301]</t>
+  </si>
+  <si>
+    <t>H(dC|dY,dR,dlogOD) =  [0.16186248, 0.17896798, 0.23044655, 0.20579492, 0.24865472, 0.41532639, 0.19531725, 0.24480142]</t>
+  </si>
+  <si>
+    <t>H(dC) =  [3.6624401, 2.3324304, 2.938452, 3.2645369, 3.1251435, 3.189307, 2.8943088, 3.2296572]</t>
+  </si>
+  <si>
+    <t>H(dC|dlogOD) =  [0.61125106, 0.63592964, 0.64191729, 0.649261, 0.66190487, 0.53038597, 0.82647276, 0.71384305]</t>
+  </si>
+  <si>
+    <t>H(dC|dR) =  [0.57786942, 0.70177978, 0.44651234, 0.65603471, 0.51927668, 0.60996455, 0.63931257, 0.74885178]</t>
+  </si>
+  <si>
+    <t>H(dC|dY) =  [0.55843848, 0.60207462, 0.43978977, 0.54942632, 0.5994432, 0.50550342, 0.57712615, 0.61696464]</t>
+  </si>
+  <si>
+    <t>H(dC|dY,dlogOD) =  [0.28394648, 0.36312687, 0.28597909, 0.32776564, 0.30291045, 0.31553102, 0.35034022, 0.41083792]</t>
+  </si>
+  <si>
+    <t>H(dC|dR,dlogOD) =  [0.29398569, 0.38557702, 0.30023852, 0.36870629, 0.26474079, 0.33333629, 0.39366105, 0.48710987]</t>
+  </si>
+  <si>
+    <t>H(dC|dY,dR) =  [0.42649117, 0.46755499, 0.34393218, 0.41231686, 0.3649863, 0.4003284, 0.40967524, 0.42821068]</t>
+  </si>
+  <si>
+    <t>H(dC|dY,dR,dlogOD) =  [0.21165954, 0.2565898, 0.22752197, 0.21893947, 0.16157477, 0.24757427, 0.24069503, 0.30520138]</t>
+  </si>
+  <si>
+    <t>H(dC) =  [3.5327115, 2.9891796, 3.2575974, 3.4091365, 3.3283896, 1.9067755, 3.1656966, 3.0836437]</t>
+  </si>
+  <si>
+    <t>H(dC|dlogOD) =  [0.67614526, 0.74287146, 0.72472161, 0.71645457, 0.75810611, 0.69198072, 0.73512006, 0.82413536]</t>
+  </si>
+  <si>
+    <t>H(dC|dR) =  [0.54414463, 0.73428446, 0.55801034, 0.64591813, 0.4946281, 0.69799501, 0.58079165, 0.68139613]</t>
+  </si>
+  <si>
+    <t>H(dC|dY) =  [0.55227619, 0.68675989, 0.59659457, 0.58662099, 0.62124181, 0.62591761, 0.56107068, 0.56620032]</t>
+  </si>
+  <si>
+    <t>H(dC|dY,dlogOD) =  [0.32024074, 0.39436802, 0.30145103, 0.29927039, 0.34920925, 0.37622732, 0.34094939, 0.32772565]</t>
+  </si>
+  <si>
+    <t>H(dC|dR,dlogOD) =  [0.31073275, 0.43796942, 0.28645179, 0.35061961, 0.28333634, 0.41728491, 0.32248819, 0.41737351]</t>
+  </si>
+  <si>
+    <t>H(dC|dY,dR) =  [0.4346081, 0.53373039, 0.44472915, 0.43149629, 0.3578718, 0.51942658, 0.41631511, 0.40703851]</t>
+  </si>
+  <si>
+    <t>H(dC|dY,dR,dlogOD) =  [0.22474442, 0.2887156, 0.18588379, 0.20595603, 0.16996023, 0.29159036, 0.19602296, 0.21357723]</t>
+  </si>
+  <si>
+    <t>H(dC) =  [2.5170131, 2.8512642, 2.800626, 2.8526394, 2.8757298, 2.9339933, 2.4817264, 2.7744265]</t>
+  </si>
+  <si>
+    <t>H(dC|dlogOD) =  [0.70901406, 0.70497662, 0.6776908, 0.62888163, 0.60580957, 0.6292088, 0.73948479, 0.60508662]</t>
+  </si>
+  <si>
+    <t>H(dC|dR) =  [0.49968475, 0.74754179, 0.41441253, 0.63164192, 0.44378459, 0.64967024, 0.57847124, 0.66297334]</t>
+  </si>
+  <si>
+    <t>H(dC|dY) =  [0.47195455, 0.69091433, 0.39732999, 0.55637872, 0.51954979, 0.59424311, 0.64125723, 0.64922941]</t>
+  </si>
+  <si>
+    <t>H(dC|dY,dlogOD) =  [0.350651, 0.44153455, 0.2983683, 0.3660242, 0.34437692, 0.37752408, 0.41375622, 0.36477607]</t>
+  </si>
+  <si>
+    <t>H(dC|dR,dlogOD) =  [0.34984925, 0.47364256, 0.31273186, 0.38192713, 0.2796475, 0.37858081, 0.3922641, 0.38318032]</t>
+  </si>
+  <si>
+    <t>H(dC|dY,dR) =  [0.39451051, 0.5724166, 0.33744335, 0.40753669, 0.36957291, 0.45795748, 0.47524291, 0.45489269]</t>
+  </si>
+  <si>
+    <t>H(dC|dY,dR,dlogOD) =  [0.26683438, 0.33615443, 0.22910394, 0.25412047, 0.2291383, 0.2624554, 0.28308305, 0.28099042]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, , , , , </t>
   </si>
 </sst>
 </file>
@@ -478,18 +490,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -513,7 +519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -944,130 +950,130 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B3:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="15.75" x14ac:dyDescent="0.3">
@@ -1076,33 +1082,33 @@
     <row r="32" spans="2:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="E32" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E33" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E35" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E36" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1170,50 +1176,50 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="B4:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
@@ -1221,112 +1227,112 @@
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1339,160 +1345,160 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1504,160 +1510,160 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1669,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120:O124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
@@ -1688,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
@@ -1696,7 +1702,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -1704,7 +1710,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
@@ -1956,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -1964,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -1972,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -1980,7 +1986,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -2237,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
@@ -2245,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
@@ -2253,7 +2259,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -2261,7 +2267,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
@@ -2518,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
@@ -2526,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
@@ -2534,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
@@ -2542,7 +2548,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
@@ -2791,7 +2797,7 @@
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
@@ -2799,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
@@ -2807,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
@@ -2815,7 +2821,7 @@
         <v>2</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
@@ -2823,7 +2829,7 @@
         <v>3</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
@@ -3073,7 +3079,7 @@
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.25">
@@ -3081,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
@@ -3089,7 +3095,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
@@ -3097,7 +3103,7 @@
         <v>2</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
@@ -3105,7 +3111,7 @@
         <v>3</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.25">
@@ -3197,7 +3203,7 @@
         <v>5</v>
       </c>
       <c r="D89">
-        <v>0.42768365000000003</v>
+        <v>0.34773976000000001</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3206,7 +3212,7 @@
         <v>0.33504957000000002</v>
       </c>
       <c r="G89">
-        <v>0.45266308999999999</v>
+        <v>0.35537239999999998</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3215,7 +3221,7 @@
         <v>5</v>
       </c>
       <c r="K89">
-        <v>0.41852787000000002</v>
+        <v>0.28631111999999997</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -3224,7 +3230,7 @@
         <v>0.52578205</v>
       </c>
       <c r="N89">
-        <v>0.36990476</v>
+        <v>0.36718961999999999</v>
       </c>
       <c r="O89">
         <v>0</v>
@@ -3235,37 +3241,37 @@
         <v>5</v>
       </c>
       <c r="D90">
-        <v>0.20696533</v>
+        <v>0.20921658000000001</v>
       </c>
       <c r="E90">
-        <v>0.26393893000000002</v>
+        <v>0.28013526999999999</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0.28931084000000001</v>
+        <v>0.31258058999999999</v>
       </c>
       <c r="H90">
-        <v>0.40889919000000002</v>
+        <v>0.37257375999999998</v>
       </c>
       <c r="J90" t="s">
         <v>5</v>
       </c>
       <c r="K90">
-        <v>0.32295784</v>
+        <v>0.31848764000000002</v>
       </c>
       <c r="L90">
-        <v>0.33764935000000001</v>
+        <v>0.31903790999999998</v>
       </c>
       <c r="M90">
         <v>0</v>
       </c>
       <c r="N90">
-        <v>0.28359044</v>
+        <v>0.21540276999999999</v>
       </c>
       <c r="O90">
-        <v>0.36041804999999999</v>
+        <v>0.34084230999999998</v>
       </c>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.25">
@@ -3285,7 +3291,7 @@
         <v>0.33814207000000002</v>
       </c>
       <c r="H91">
-        <v>0.62960075999999998</v>
+        <v>0.41652724000000002</v>
       </c>
       <c r="J91" t="s">
         <v>6</v>
@@ -3303,7 +3309,7 @@
         <v>0.30805510000000003</v>
       </c>
       <c r="O91">
-        <v>0.60831528999999995</v>
+        <v>0.31144168999999999</v>
       </c>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.25">
@@ -3352,12 +3358,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.25">
@@ -3365,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.25">
@@ -3373,7 +3384,7 @@
         <v>2</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
@@ -3381,7 +3392,7 @@
         <v>3</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.25">
@@ -3473,7 +3484,7 @@
         <v>5</v>
       </c>
       <c r="D105">
-        <v>0.42160936999999998</v>
+        <v>0.35741680999999997</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -3482,7 +3493,7 @@
         <v>0.32721454</v>
       </c>
       <c r="G105">
-        <v>0.45408797000000001</v>
+        <v>0.33655258999999998</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -3491,7 +3502,7 @@
         <v>5</v>
       </c>
       <c r="K105">
-        <v>0.40509936000000002</v>
+        <v>0.28385096999999998</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -3500,7 +3511,7 @@
         <v>0.46394323999999998</v>
       </c>
       <c r="N105">
-        <v>0.37819803000000002</v>
+        <v>0.35414406999999998</v>
       </c>
       <c r="O105">
         <v>0</v>
@@ -3520,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>0.37863287000000001</v>
+        <v>0.40114119999999998</v>
       </c>
       <c r="H106">
         <v>0.34768086999999998</v>
@@ -3529,19 +3540,19 @@
         <v>5</v>
       </c>
       <c r="K106">
-        <v>0.29111657000000002</v>
+        <v>0.34045969999999998</v>
       </c>
       <c r="L106">
-        <v>0.30447432000000002</v>
+        <v>0.31538442</v>
       </c>
       <c r="M106">
         <v>0</v>
       </c>
       <c r="N106">
-        <v>0.27212041999999997</v>
+        <v>0.25933521999999998</v>
       </c>
       <c r="O106">
-        <v>0.25926941999999997</v>
+        <v>0.25945257999999999</v>
       </c>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.25">
@@ -3561,7 +3572,7 @@
         <v>0.38719081999999999</v>
       </c>
       <c r="H107">
-        <v>0.61830079999999998</v>
+        <v>0.48477768999999998</v>
       </c>
       <c r="J107" t="s">
         <v>6</v>
@@ -3579,7 +3590,7 @@
         <v>0.30396699999999999</v>
       </c>
       <c r="O107">
-        <v>0.67513031000000001</v>
+        <v>0.36102258999999998</v>
       </c>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.25">
@@ -3604,8 +3615,8 @@
       <c r="J108" t="s">
         <v>7</v>
       </c>
-      <c r="K108">
-        <v>0.26790264000000003</v>
+      <c r="K108" t="s">
+        <v>109</v>
       </c>
       <c r="L108">
         <v>0.30135246999999998</v>
@@ -3628,13 +3639,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>110</v>
+      </c>
+    </row>
     <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>0</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="2:16" x14ac:dyDescent="0.25">
@@ -3642,7 +3657,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="115" spans="2:16" x14ac:dyDescent="0.25">
@@ -3650,7 +3665,7 @@
         <v>2</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="2:16" x14ac:dyDescent="0.25">
@@ -3658,7 +3673,7 @@
         <v>3</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="2:16" x14ac:dyDescent="0.25">
@@ -3750,7 +3765,7 @@
         <v>5</v>
       </c>
       <c r="D121">
-        <v>0.26117191000000001</v>
+        <v>0.20890724999999999</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -3759,7 +3774,7 @@
         <v>0.21475196999999999</v>
       </c>
       <c r="G121">
-        <v>0.28863123000000002</v>
+        <v>0.19743003000000001</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -3768,7 +3783,7 @@
         <v>5</v>
       </c>
       <c r="K121">
-        <v>0.28222933</v>
+        <v>0.15575786999999999</v>
       </c>
       <c r="L121">
         <v>0</v>
@@ -3777,7 +3792,7 @@
         <v>0.31501138000000001</v>
       </c>
       <c r="N121">
-        <v>0.22740951000000001</v>
+        <v>0.21570476999999999</v>
       </c>
       <c r="O121">
         <v>0</v>
@@ -3788,37 +3803,37 @@
         <v>5</v>
       </c>
       <c r="D122">
-        <v>0.12155464000000001</v>
+        <v>0.12922971</v>
       </c>
       <c r="E122">
-        <v>0.19058945999999999</v>
+        <v>0.21544575999999999</v>
       </c>
       <c r="F122">
         <v>0</v>
       </c>
       <c r="G122">
-        <v>0.16986687</v>
+        <v>0.20810331000000001</v>
       </c>
       <c r="H122">
-        <v>0.24362035000000001</v>
+        <v>0.23401946000000001</v>
       </c>
       <c r="J122" t="s">
         <v>5</v>
       </c>
       <c r="K122">
-        <v>0.15322201999999999</v>
+        <v>0.20889078</v>
       </c>
       <c r="L122">
-        <v>0.16443458</v>
+        <v>0.18047445000000001</v>
       </c>
       <c r="M122">
         <v>0</v>
       </c>
       <c r="N122">
-        <v>0.13804372000000001</v>
+        <v>0.13488314000000001</v>
       </c>
       <c r="O122">
-        <v>0.15446134</v>
+        <v>0.16045743000000001</v>
       </c>
     </row>
     <row r="123" spans="2:16" x14ac:dyDescent="0.25">
@@ -3838,7 +3853,7 @@
         <v>0.28486340999999998</v>
       </c>
       <c r="H123">
-        <v>0.39167183999999999</v>
+        <v>0.30816522000000002</v>
       </c>
       <c r="J123" t="s">
         <v>6</v>
@@ -3856,7 +3871,7 @@
         <v>0.18912483999999999</v>
       </c>
       <c r="O123">
-        <v>0.44104504999999999</v>
+        <v>0.21629754000000001</v>
       </c>
     </row>
     <row r="124" spans="2:16" x14ac:dyDescent="0.25">
@@ -3907,6 +3922,9 @@
     </row>
     <row r="127" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C127" s="1"/>
+      <c r="D127" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3918,7 +3936,7 @@
   <dimension ref="B4:P131"/>
   <sheetViews>
     <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3928,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
@@ -3936,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
@@ -3944,7 +3962,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -3952,7 +3970,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
@@ -4044,7 +4062,7 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>2.4274936</v>
+        <v>2.8177694999999998</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -4053,7 +4071,7 @@
         <v>3.0985578999999999</v>
       </c>
       <c r="G13">
-        <v>2.5368514000000002</v>
+        <v>2.9722949999999999</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -4062,7 +4080,7 @@
         <v>5</v>
       </c>
       <c r="K13">
-        <v>2.1193154000000001</v>
+        <v>2.7626795999999998</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -4071,7 +4089,7 @@
         <v>1.6597375000000001</v>
       </c>
       <c r="N13">
-        <v>2.2492188999999998</v>
+        <v>2.5584598000000001</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -4082,7 +4100,7 @@
         <v>5</v>
       </c>
       <c r="D14">
-        <v>2.4274936</v>
+        <v>3.7383563999999998</v>
       </c>
       <c r="E14">
         <v>2.9892363999999998</v>
@@ -4091,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.5365080999999998</v>
+        <v>3.1152829999999998</v>
       </c>
       <c r="H14">
         <v>2.8992610000000001</v>
@@ -4100,7 +4118,7 @@
         <v>5</v>
       </c>
       <c r="K14">
-        <v>2.1193154000000001</v>
+        <v>2.6007153999999999</v>
       </c>
       <c r="L14">
         <v>2.8819854</v>
@@ -4109,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.2485073</v>
+        <v>2.8809515999999999</v>
       </c>
       <c r="O14">
         <v>2.6674077999999999</v>
@@ -4132,7 +4150,7 @@
         <v>2.9108871999999999</v>
       </c>
       <c r="H15">
-        <v>2.5414712000000002</v>
+        <v>2.5386939000000002</v>
       </c>
       <c r="J15" t="s">
         <v>6</v>
@@ -4150,7 +4168,7 @@
         <v>2.7010849000000001</v>
       </c>
       <c r="O15">
-        <v>2.9217784</v>
+        <v>2.9179335000000002</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
@@ -4204,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -4212,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -4220,7 +4238,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -4228,7 +4246,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -4320,7 +4338,7 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>0.74327332000000002</v>
+        <v>0.74981534000000005</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4329,7 +4347,7 @@
         <v>0.73149407</v>
       </c>
       <c r="G28">
-        <v>0.76618308000000002</v>
+        <v>0.70387219999999995</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -4338,7 +4356,7 @@
         <v>5</v>
       </c>
       <c r="K28">
-        <v>0.67506122999999996</v>
+        <v>0.62861918999999999</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -4347,7 +4365,7 @@
         <v>0.85185938999999999</v>
       </c>
       <c r="N28">
-        <v>0.67481369000000002</v>
+        <v>0.67545098000000003</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -4358,7 +4376,7 @@
         <v>5</v>
       </c>
       <c r="D29">
-        <v>0.74327332000000002</v>
+        <v>0.61329442000000001</v>
       </c>
       <c r="E29">
         <v>0.64984726999999998</v>
@@ -4367,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0.76499908999999999</v>
+        <v>0.72077637999999999</v>
       </c>
       <c r="H29">
         <v>0.82235265000000002</v>
@@ -4376,7 +4394,7 @@
         <v>5</v>
       </c>
       <c r="K29">
-        <v>0.67506122999999996</v>
+        <v>0.71880829000000002</v>
       </c>
       <c r="L29">
         <v>0.66585833000000005</v>
@@ -4385,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0.67502724999999997</v>
+        <v>0.55008948000000002</v>
       </c>
       <c r="O29">
         <v>0.62018907000000001</v>
@@ -4408,7 +4426,7 @@
         <v>0.69001913000000004</v>
       </c>
       <c r="H30">
-        <v>0.89915036999999998</v>
+        <v>0.79551870000000002</v>
       </c>
       <c r="J30" t="s">
         <v>6</v>
@@ -4426,7 +4444,7 @@
         <v>0.68933350000000004</v>
       </c>
       <c r="O30">
-        <v>0.89425617000000002</v>
+        <v>0.69109946</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
@@ -4475,12 +4493,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
@@ -4488,7 +4511,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
@@ -4496,7 +4519,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -4504,7 +4527,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
@@ -4596,7 +4619,7 @@
         <v>5</v>
       </c>
       <c r="D43">
-        <v>0.63823675999999996</v>
+        <v>0.57387394000000003</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -4605,7 +4628,7 @@
         <v>0.69108849999999999</v>
       </c>
       <c r="G43">
-        <v>0.58654331999999998</v>
+        <v>0.57080226999999994</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4614,7 +4637,7 @@
         <v>5</v>
       </c>
       <c r="K43">
-        <v>0.67568457000000004</v>
+        <v>0.65278977000000005</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -4623,7 +4646,7 @@
         <v>0.75439155000000002</v>
       </c>
       <c r="N43">
-        <v>0.66215581000000001</v>
+        <v>0.66243993999999995</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -4634,7 +4657,7 @@
         <v>5</v>
       </c>
       <c r="D44">
-        <v>0.63823675999999996</v>
+        <v>0.58644187000000003</v>
       </c>
       <c r="E44">
         <v>0.45591559999999998</v>
@@ -4643,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0.58173448000000005</v>
+        <v>0.51775508999999997</v>
       </c>
       <c r="H44">
         <v>0.63992864000000005</v>
@@ -4652,7 +4675,7 @@
         <v>5</v>
       </c>
       <c r="K44">
-        <v>0.67568457000000004</v>
+        <v>0.73254364999999999</v>
       </c>
       <c r="L44">
         <v>0.61037737000000003</v>
@@ -4661,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>0.66236538</v>
+        <v>0.56821811</v>
       </c>
       <c r="O44">
         <v>0.69591367000000004</v>
@@ -4684,7 +4707,7 @@
         <v>0.45050251000000002</v>
       </c>
       <c r="H45">
-        <v>0.89944970999999996</v>
+        <v>0.58793013999999999</v>
       </c>
       <c r="J45" t="s">
         <v>6</v>
@@ -4702,7 +4725,7 @@
         <v>0.61946206999999998</v>
       </c>
       <c r="O45">
-        <v>0.90720283999999995</v>
+        <v>0.67954862000000005</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -4751,12 +4774,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
@@ -4764,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
@@ -4772,7 +4800,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
@@ -4780,7 +4808,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
@@ -4872,7 +4900,7 @@
         <v>5</v>
       </c>
       <c r="D58">
-        <v>0.52528905999999997</v>
+        <v>0.53990817000000002</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -4881,7 +4909,7 @@
         <v>0.50599956999999995</v>
       </c>
       <c r="G58">
-        <v>0.60769105000000001</v>
+        <v>0.54919207000000003</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -4890,7 +4918,7 @@
         <v>5</v>
       </c>
       <c r="K58">
-        <v>0.50077099000000003</v>
+        <v>0.49314910000000001</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -4899,7 +4927,7 @@
         <v>0.62114716000000003</v>
       </c>
       <c r="N58">
-        <v>0.50384890999999998</v>
+        <v>0.55207532999999998</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -4910,7 +4938,7 @@
         <v>5</v>
       </c>
       <c r="D59">
-        <v>0.52528905999999997</v>
+        <v>0.38838726000000001</v>
       </c>
       <c r="E59">
         <v>0.35313261000000001</v>
@@ -4919,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0.58740866000000003</v>
+        <v>0.56156539999999999</v>
       </c>
       <c r="H59">
         <v>0.51030593999999996</v>
@@ -4928,7 +4956,7 @@
         <v>5</v>
       </c>
       <c r="K59">
-        <v>0.50077099000000003</v>
+        <v>0.51390581999999996</v>
       </c>
       <c r="L59">
         <v>0.43787870000000001</v>
@@ -4937,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>0.50379788999999997</v>
+        <v>0.3587516</v>
       </c>
       <c r="O59">
         <v>0.48401102000000001</v>
@@ -4960,7 +4988,7 @@
         <v>0.49937137999999998</v>
       </c>
       <c r="H60">
-        <v>0.89277815999999999</v>
+        <v>0.59344494000000003</v>
       </c>
       <c r="J60" t="s">
         <v>6</v>
@@ -4978,7 +5006,7 @@
         <v>0.47002422999999999</v>
       </c>
       <c r="O60">
-        <v>0.89327257999999998</v>
+        <v>0.54530621000000001</v>
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
@@ -5027,12 +5055,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
@@ -5040,7 +5073,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
@@ -5048,7 +5081,7 @@
         <v>2</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
@@ -5056,7 +5089,7 @@
         <v>3</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
@@ -5148,7 +5181,7 @@
         <v>5</v>
       </c>
       <c r="D74">
-        <v>0.39514317999999998</v>
+        <v>0.35931416999999999</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -5157,7 +5190,7 @@
         <v>0.46242612999999999</v>
       </c>
       <c r="G74">
-        <v>0.39154777000000002</v>
+        <v>0.33219834999999998</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -5166,7 +5199,7 @@
         <v>5</v>
       </c>
       <c r="K74">
-        <v>0.44158178999999997</v>
+        <v>0.34166455000000001</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -5175,7 +5208,7 @@
         <v>0.49417077999999998</v>
       </c>
       <c r="N74">
-        <v>0.42658758000000002</v>
+        <v>0.38752272999999998</v>
       </c>
       <c r="O74">
         <v>0</v>
@@ -5186,7 +5219,7 @@
         <v>5</v>
       </c>
       <c r="D75">
-        <v>0.39514317999999998</v>
+        <v>0.30247216999999998</v>
       </c>
       <c r="E75">
         <v>0.31397301</v>
@@ -5195,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>0.38222404999999998</v>
+        <v>0.32235518000000002</v>
       </c>
       <c r="H75">
         <v>0.39028019000000003</v>
@@ -5204,7 +5237,7 @@
         <v>5</v>
       </c>
       <c r="K75">
-        <v>0.44158178999999997</v>
+        <v>0.49428212999999999</v>
       </c>
       <c r="L75">
         <v>0.34806311000000001</v>
@@ -5213,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>0.42672262</v>
+        <v>0.33194910999999999</v>
       </c>
       <c r="O75">
         <v>0.34566358000000003</v>
@@ -5236,7 +5269,7 @@
         <v>0.36779672000000002</v>
       </c>
       <c r="H76">
-        <v>0.71885622000000005</v>
+        <v>0.45608974000000002</v>
       </c>
       <c r="J76" t="s">
         <v>6</v>
@@ -5254,7 +5287,7 @@
         <v>0.41709390000000002</v>
       </c>
       <c r="O76">
-        <v>0.78324400999999999</v>
+        <v>0.48010670999999999</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
@@ -5303,12 +5336,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>111</v>
+      </c>
+    </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>0</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
@@ -5316,7 +5354,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
@@ -5324,7 +5362,7 @@
         <v>2</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.25">
@@ -5332,7 +5370,7 @@
         <v>3</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.25">
@@ -5424,7 +5462,7 @@
         <v>5</v>
       </c>
       <c r="D90">
-        <v>0.33731207000000002</v>
+        <v>0.34842369000000001</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -5433,7 +5471,7 @@
         <v>0.32913458000000001</v>
       </c>
       <c r="G90">
-        <v>0.41055414000000001</v>
+        <v>0.31492513</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -5442,7 +5480,7 @@
         <v>5</v>
       </c>
       <c r="K90">
-        <v>0.31872507999999999</v>
+        <v>0.25742319000000002</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -5451,7 +5489,7 @@
         <v>0.42456251</v>
       </c>
       <c r="N90">
-        <v>0.30041972</v>
+        <v>0.3062377</v>
       </c>
       <c r="O90">
         <v>0</v>
@@ -5462,7 +5500,7 @@
         <v>5</v>
       </c>
       <c r="D91">
-        <v>0.33731207000000002</v>
+        <v>0.20035098000000001</v>
       </c>
       <c r="E91">
         <v>0.23835888999999999</v>
@@ -5471,7 +5509,7 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0.38476342000000002</v>
+        <v>0.32045903999999997</v>
       </c>
       <c r="H91">
         <v>0.29951887999999999</v>
@@ -5480,7 +5518,7 @@
         <v>5</v>
       </c>
       <c r="K91">
-        <v>0.31872507999999999</v>
+        <v>0.33715435999999999</v>
       </c>
       <c r="L91">
         <v>0.25735638</v>
@@ -5489,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <v>0.30051482000000002</v>
+        <v>0.21970049</v>
       </c>
       <c r="O91">
         <v>0.26044127</v>
@@ -5512,7 +5550,7 @@
         <v>0.38081387</v>
       </c>
       <c r="H92">
-        <v>0.67561883</v>
+        <v>0.42114475000000001</v>
       </c>
       <c r="J92" t="s">
         <v>6</v>
@@ -5530,7 +5568,7 @@
         <v>0.33164262999999999</v>
       </c>
       <c r="O92">
-        <v>0.71541851999999995</v>
+        <v>0.34796619000000001</v>
       </c>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.25">
@@ -5579,12 +5617,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>111</v>
+      </c>
+    </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>0</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.25">
@@ -5592,7 +5635,7 @@
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
@@ -5600,7 +5643,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.25">
@@ -5608,7 +5651,7 @@
         <v>3</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.25">
@@ -5700,7 +5743,7 @@
         <v>5</v>
       </c>
       <c r="D106">
-        <v>0.39515593999999998</v>
+        <v>0.40866899000000001</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -5709,7 +5752,7 @@
         <v>0.37666029000000001</v>
       </c>
       <c r="G106">
-        <v>0.42320696000000002</v>
+        <v>0.38029795999999999</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -5718,7 +5761,7 @@
         <v>5</v>
       </c>
       <c r="K106">
-        <v>0.33861896000000002</v>
+        <v>0.28968152000000003</v>
       </c>
       <c r="L106">
         <v>0</v>
@@ -5727,7 +5770,7 @@
         <v>0.42144090000000001</v>
       </c>
       <c r="N106">
-        <v>0.30657792</v>
+        <v>0.30935281999999997</v>
       </c>
       <c r="O106">
         <v>0</v>
@@ -5738,7 +5781,7 @@
         <v>5</v>
       </c>
       <c r="D107">
-        <v>0.39515593999999998</v>
+        <v>0.25911957000000002</v>
       </c>
       <c r="E107">
         <v>0.25890371000000001</v>
@@ -5747,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>0.40568926999999999</v>
+        <v>0.32636636000000002</v>
       </c>
       <c r="H107">
         <v>0.34314086999999999</v>
@@ -5756,7 +5799,7 @@
         <v>5</v>
       </c>
       <c r="K107">
-        <v>0.33861896000000002</v>
+        <v>0.39326283000000001</v>
       </c>
       <c r="L107">
         <v>0.28256914</v>
@@ -5765,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <v>0.30667496</v>
+        <v>0.24231943</v>
       </c>
       <c r="O107">
         <v>0.25547039999999999</v>
@@ -5788,7 +5831,7 @@
         <v>0.35120605999999999</v>
       </c>
       <c r="H108">
-        <v>0.72485023999999998</v>
+        <v>0.43115616000000001</v>
       </c>
       <c r="J108" t="s">
         <v>6</v>
@@ -5806,7 +5849,7 @@
         <v>0.32198684999999999</v>
       </c>
       <c r="O108">
-        <v>0.74601393999999999</v>
+        <v>0.36052686</v>
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
@@ -5855,13 +5898,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>0</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="115" spans="2:16" x14ac:dyDescent="0.25">
@@ -5869,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116" spans="2:16" x14ac:dyDescent="0.25">
@@ -5877,7 +5924,7 @@
         <v>2</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117" spans="2:16" x14ac:dyDescent="0.25">
@@ -5885,7 +5932,7 @@
         <v>3</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119" spans="2:16" x14ac:dyDescent="0.25">
@@ -5977,7 +6024,7 @@
         <v>5</v>
       </c>
       <c r="D122">
-        <v>0.24612307999999999</v>
+        <v>0.25278482000000002</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -5986,7 +6033,7 @@
         <v>0.25297674999999997</v>
       </c>
       <c r="G122">
-        <v>0.26020819000000001</v>
+        <v>0.21656781</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -5995,7 +6042,7 @@
         <v>5</v>
       </c>
       <c r="K122">
-        <v>0.21334691</v>
+        <v>0.16322355999999999</v>
       </c>
       <c r="L122">
         <v>0</v>
@@ -6004,7 +6051,7 @@
         <v>0.21435783999999999</v>
       </c>
       <c r="N122">
-        <v>0.17868099000000001</v>
+        <v>0.16100222</v>
       </c>
       <c r="O122">
         <v>0</v>
@@ -6015,7 +6062,7 @@
         <v>5</v>
       </c>
       <c r="D123">
-        <v>0.24612307999999999</v>
+        <v>0.12953186</v>
       </c>
       <c r="E123">
         <v>0.18089490999999999</v>
@@ -6024,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="G123">
-        <v>0.24480534000000001</v>
+        <v>0.17867601</v>
       </c>
       <c r="H123">
         <v>0.19006097</v>
@@ -6033,7 +6080,7 @@
         <v>5</v>
       </c>
       <c r="K123">
-        <v>0.21334691</v>
+        <v>0.24160725</v>
       </c>
       <c r="L123">
         <v>0.13408491</v>
@@ -6042,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="N123">
-        <v>0.17873754</v>
+        <v>0.14447051</v>
       </c>
       <c r="O123">
         <v>0.13253796000000001</v>
@@ -6065,7 +6112,7 @@
         <v>0.26696709000000002</v>
       </c>
       <c r="H124">
-        <v>0.52395736999999998</v>
+        <v>0.29340382999999998</v>
       </c>
       <c r="J124" t="s">
         <v>6</v>
@@ -6083,7 +6130,7 @@
         <v>0.20665184</v>
       </c>
       <c r="O124">
-        <v>0.61317599</v>
+        <v>0.26830136999999998</v>
       </c>
     </row>
     <row r="125" spans="2:16" x14ac:dyDescent="0.25">
@@ -6153,8 +6200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P132"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6164,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
@@ -6172,7 +6219,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
@@ -6180,7 +6227,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -6188,7 +6235,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
@@ -6280,7 +6327,7 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>2.2681925000000001</v>
+        <v>2.9379940000000002</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -6289,7 +6336,7 @@
         <v>2.7255734999999999</v>
       </c>
       <c r="G13">
-        <v>3.2124337999999999</v>
+        <v>3.6309054000000001</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -6298,7 +6345,7 @@
         <v>5</v>
       </c>
       <c r="K13">
-        <v>2.4389482</v>
+        <v>3.0658953000000002</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -6307,7 +6354,7 @@
         <v>2.2352805</v>
       </c>
       <c r="N13">
-        <v>2.9405906000000002</v>
+        <v>3.0773446999999998</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -6318,16 +6365,16 @@
         <v>5</v>
       </c>
       <c r="D14">
-        <v>2.8645214999999999</v>
+        <v>3.6624401</v>
       </c>
       <c r="E14">
-        <v>2.4389482</v>
+        <v>2.9384519999999998</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.3300154000000002</v>
+        <v>3.1251435000000001</v>
       </c>
       <c r="H14">
         <v>2.8943088000000001</v>
@@ -6336,7 +6383,7 @@
         <v>5</v>
       </c>
       <c r="K14">
-        <v>2.4389482</v>
+        <v>2.3324303999999998</v>
       </c>
       <c r="L14">
         <v>3.2645369</v>
@@ -6345,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.9405906000000002</v>
+        <v>3.1893069999999999</v>
       </c>
       <c r="O14">
         <v>3.2296572000000001</v>
@@ -6359,7 +6406,7 @@
         <v>2.5170130999999998</v>
       </c>
       <c r="E15">
-        <v>2.8512642000000001</v>
+        <v>2.8006259999999998</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -6397,7 +6444,7 @@
         <v>3.5327115</v>
       </c>
       <c r="E16">
-        <v>2.9891795999999999</v>
+        <v>3.2575973999999999</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -6440,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -6448,7 +6495,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -6456,7 +6503,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -6464,7 +6511,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -6556,7 +6603,7 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>0.90960233999999995</v>
+        <v>0.74422096999999998</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -6565,7 +6612,7 @@
         <v>0.70127916000000001</v>
       </c>
       <c r="G28">
-        <v>0.72113115000000005</v>
+        <v>0.64547138999999998</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -6574,7 +6621,7 @@
         <v>5</v>
       </c>
       <c r="K28">
-        <v>0.64380943999999996</v>
+        <v>0.60444003000000002</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -6583,7 +6630,7 @@
         <v>0.87719380999999996</v>
       </c>
       <c r="N28">
-        <v>0.61684101999999996</v>
+        <v>0.64054787000000002</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -6594,16 +6641,16 @@
         <v>5</v>
       </c>
       <c r="D29">
-        <v>0.72024357000000006</v>
+        <v>0.61125105999999996</v>
       </c>
       <c r="E29">
-        <v>0.77338386000000003</v>
+        <v>0.64191728999999997</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0.72148192</v>
+        <v>0.66190486999999998</v>
       </c>
       <c r="H29">
         <v>0.82647276000000003</v>
@@ -6612,7 +6659,7 @@
         <v>5</v>
       </c>
       <c r="K29">
-        <v>0.64380943999999996</v>
+        <v>0.63592963999999996</v>
       </c>
       <c r="L29">
         <v>0.64926099999999998</v>
@@ -6621,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0.61684101999999996</v>
+        <v>0.53038596999999998</v>
       </c>
       <c r="O29">
         <v>0.71384305000000003</v>
@@ -6635,7 +6682,7 @@
         <v>0.70901406</v>
       </c>
       <c r="E30">
-        <v>0.66565507999999995</v>
+        <v>0.67769080000000004</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -6673,7 +6720,7 @@
         <v>0.67614525999999997</v>
       </c>
       <c r="E31">
-        <v>0.78979909000000004</v>
+        <v>0.72472161000000002</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -6716,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
@@ -6724,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -6732,7 +6779,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -6740,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
@@ -6832,7 +6879,7 @@
         <v>5</v>
       </c>
       <c r="D44">
-        <v>0.87573862000000002</v>
+        <v>0.59131127999999999</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -6841,7 +6888,7 @@
         <v>0.64881504000000001</v>
       </c>
       <c r="G44">
-        <v>0.67349422000000003</v>
+        <v>0.64865457999999998</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -6850,7 +6897,7 @@
         <v>5</v>
       </c>
       <c r="K44">
-        <v>0.71818727000000004</v>
+        <v>0.68712872000000003</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -6859,7 +6906,7 @@
         <v>0.81763123999999998</v>
       </c>
       <c r="N44">
-        <v>0.74158758000000002</v>
+        <v>0.71935760999999998</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -6870,16 +6917,16 @@
         <v>5</v>
       </c>
       <c r="D45">
-        <v>0.69342952999999996</v>
+        <v>0.57786941999999997</v>
       </c>
       <c r="E45">
-        <v>0.53795939999999998</v>
+        <v>0.44651234000000001</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0.65603471000000002</v>
+        <v>0.51927668000000005</v>
       </c>
       <c r="H45">
         <v>0.63931256999999997</v>
@@ -6888,16 +6935,16 @@
         <v>5</v>
       </c>
       <c r="K45">
-        <v>0.71818727000000004</v>
+        <v>0.70177977999999996</v>
       </c>
       <c r="L45">
-        <v>0.68140274000000001</v>
+        <v>0.65603471000000002</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="N45">
-        <v>0.74182963000000002</v>
+        <v>0.60996455000000005</v>
       </c>
       <c r="O45">
         <v>0.74885177999999997</v>
@@ -6911,7 +6958,7 @@
         <v>0.49968475000000001</v>
       </c>
       <c r="E46">
-        <v>0.40705258</v>
+        <v>0.41441253</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -6920,7 +6967,7 @@
         <v>0.44378458999999998</v>
       </c>
       <c r="H46">
-        <v>0.89702910000000002</v>
+        <v>0.57847124000000005</v>
       </c>
       <c r="J46" t="s">
         <v>6</v>
@@ -6938,7 +6985,7 @@
         <v>0.64967023999999995</v>
       </c>
       <c r="O46">
-        <v>0.90227394999999999</v>
+        <v>0.66297333999999997</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
@@ -6948,8 +6995,8 @@
       <c r="D47">
         <v>0.54414463000000002</v>
       </c>
-      <c r="E47" t="s">
-        <v>50</v>
+      <c r="E47">
+        <v>0.55801034000000005</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -6992,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
@@ -7000,7 +7047,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
@@ -7008,7 +7055,7 @@
         <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
@@ -7016,7 +7063,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
@@ -7108,7 +7155,7 @@
         <v>5</v>
       </c>
       <c r="D59">
-        <v>0.69951116999999996</v>
+        <v>0.51391447000000001</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -7117,7 +7164,7 @@
         <v>0.53680992000000005</v>
       </c>
       <c r="G59">
-        <v>0.62363975999999999</v>
+        <v>0.54309189000000002</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -7126,7 +7173,7 @@
         <v>5</v>
       </c>
       <c r="K59">
-        <v>0.58798223999999999</v>
+        <v>0.55884456999999998</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -7135,7 +7182,7 @@
         <v>0.74802851999999997</v>
       </c>
       <c r="N59">
-        <v>0.59655166000000004</v>
+        <v>0.62687873999999999</v>
       </c>
       <c r="O59">
         <v>0</v>
@@ -7146,16 +7193,16 @@
         <v>5</v>
       </c>
       <c r="D60">
-        <v>0.55388868000000002</v>
+        <v>0.55843847999999996</v>
       </c>
       <c r="E60">
-        <v>0.52986001999999999</v>
+        <v>0.43978977000000002</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0.60964262000000002</v>
+        <v>0.59944319999999995</v>
       </c>
       <c r="H60">
         <v>0.57712615</v>
@@ -7164,7 +7211,7 @@
         <v>5</v>
       </c>
       <c r="K60">
-        <v>0.58798223999999999</v>
+        <v>0.60207462</v>
       </c>
       <c r="L60">
         <v>0.54942632000000002</v>
@@ -7173,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>0.59639072000000004</v>
+        <v>0.50550342000000004</v>
       </c>
       <c r="O60">
         <v>0.61696463999999995</v>
@@ -7187,7 +7234,7 @@
         <v>0.47195454999999997</v>
       </c>
       <c r="E61">
-        <v>0.39027345000000002</v>
+        <v>0.39732999000000002</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -7196,7 +7243,7 @@
         <v>0.51954979000000001</v>
       </c>
       <c r="H61">
-        <v>0.73749226000000001</v>
+        <v>0.64125723000000001</v>
       </c>
       <c r="J61" t="s">
         <v>6</v>
@@ -7214,7 +7261,7 @@
         <v>0.59424310999999996</v>
       </c>
       <c r="O61">
-        <v>0.80040359000000005</v>
+        <v>0.64922941000000001</v>
       </c>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
@@ -7225,7 +7272,7 @@
         <v>0.55227618999999994</v>
       </c>
       <c r="E62">
-        <v>0.65016669000000005</v>
+        <v>0.59659457000000005</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -7252,7 +7299,7 @@
         <v>0.62591761000000001</v>
       </c>
       <c r="O62">
-        <v>0.56107068000000004</v>
+        <v>0.56620031999999998</v>
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
@@ -7263,12 +7310,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>145</v>
+      </c>
+    </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>0</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
@@ -7276,7 +7328,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
@@ -7284,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
@@ -7292,7 +7344,7 @@
         <v>3</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
@@ -7381,7 +7433,7 @@
         <v>5</v>
       </c>
       <c r="D75">
-        <v>0.39752439000000001</v>
+        <v>0.32217183999999999</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -7390,7 +7442,7 @@
         <v>0.33523434000000002</v>
       </c>
       <c r="G75">
-        <v>0.39216727000000001</v>
+        <v>0.27583352</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -7399,7 +7451,7 @@
         <v>5</v>
       </c>
       <c r="K75">
-        <v>0.37099325999999999</v>
+        <v>0.29067841</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -7408,7 +7460,7 @@
         <v>0.57140707999999996</v>
       </c>
       <c r="N75">
-        <v>0.36530876000000001</v>
+        <v>0.36554796000000001</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -7419,16 +7471,16 @@
         <v>5</v>
       </c>
       <c r="D76">
-        <v>0.31476875999999998</v>
+        <v>0.28394648</v>
       </c>
       <c r="E76">
-        <v>0.34454846</v>
+        <v>0.28597908999999999</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>0.36866557999999999</v>
+        <v>0.30291045</v>
       </c>
       <c r="H76">
         <v>0.35034021999999998</v>
@@ -7437,7 +7489,7 @@
         <v>5</v>
       </c>
       <c r="K76">
-        <v>0.37099325999999999</v>
+        <v>0.36312686999999999</v>
       </c>
       <c r="L76">
         <v>0.32776564000000002</v>
@@ -7446,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>0.36530876000000001</v>
+        <v>0.31553102</v>
       </c>
       <c r="O76">
         <v>0.41083792000000002</v>
@@ -7460,7 +7512,7 @@
         <v>0.35065099999999999</v>
       </c>
       <c r="E77">
-        <v>0.29306929999999998</v>
+        <v>0.29836829999999998</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -7469,7 +7521,7 @@
         <v>0.34437691999999998</v>
       </c>
       <c r="H77">
-        <v>0.4350754</v>
+        <v>0.41375622000000001</v>
       </c>
       <c r="J77" t="s">
         <v>6</v>
@@ -7487,7 +7539,7 @@
         <v>0.37752407999999998</v>
       </c>
       <c r="O77">
-        <v>0.40568050999999999</v>
+        <v>0.36477607000000001</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
@@ -7498,7 +7550,7 @@
         <v>0.32024074000000002</v>
       </c>
       <c r="E78">
-        <v>0.32852027</v>
+        <v>0.30145103000000001</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -7541,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
@@ -7549,7 +7601,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.25">
@@ -7557,7 +7609,7 @@
         <v>2</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.25">
@@ -7565,7 +7617,7 @@
         <v>3</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
@@ -7657,7 +7709,7 @@
         <v>5</v>
       </c>
       <c r="D91">
-        <v>0.53702170000000005</v>
+        <v>0.36969951000000001</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -7666,7 +7718,7 @@
         <v>0.39539029999999997</v>
       </c>
       <c r="G91">
-        <v>0.42528262999999999</v>
+        <v>0.34121575999999998</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -7675,7 +7727,7 @@
         <v>5</v>
       </c>
       <c r="K91">
-        <v>0.44092830999999999</v>
+        <v>0.34586509999999998</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -7684,7 +7736,7 @@
         <v>0.61160314000000005</v>
       </c>
       <c r="N91">
-        <v>0.42697623000000001</v>
+        <v>0.40116867</v>
       </c>
       <c r="O91">
         <v>0</v>
@@ -7695,16 +7747,16 @@
         <v>5</v>
       </c>
       <c r="D92">
-        <v>0.42522585000000002</v>
+        <v>0.29398569000000002</v>
       </c>
       <c r="E92">
-        <v>0.36172824999999997</v>
+        <v>0.30023852000000001</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>0.42991784</v>
+        <v>0.26474079</v>
       </c>
       <c r="H92">
         <v>0.39366105000000001</v>
@@ -7713,7 +7765,7 @@
         <v>5</v>
       </c>
       <c r="K92">
-        <v>0.44092830999999999</v>
+        <v>0.38557701999999999</v>
       </c>
       <c r="L92">
         <v>0.36870628999999999</v>
@@ -7722,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>0.42697623000000001</v>
+        <v>0.33333628999999998</v>
       </c>
       <c r="O92">
         <v>0.48710987</v>
@@ -7736,7 +7788,7 @@
         <v>0.34984925</v>
       </c>
       <c r="E93">
-        <v>0.30717775000000003</v>
+        <v>0.31273185999999997</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -7745,7 +7797,7 @@
         <v>0.27964749999999999</v>
       </c>
       <c r="H93">
-        <v>0.55485021999999995</v>
+        <v>0.3922641</v>
       </c>
       <c r="J93" t="s">
         <v>6</v>
@@ -7763,7 +7815,7 @@
         <v>0.37858080999999999</v>
       </c>
       <c r="O93">
-        <v>0.48817870000000002</v>
+        <v>0.38318032000000002</v>
       </c>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
@@ -7774,7 +7826,7 @@
         <v>0.31073275</v>
       </c>
       <c r="E94">
-        <v>0.31217413999999999</v>
+        <v>0.28645178999999998</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -7817,7 +7869,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
@@ -7825,7 +7877,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.25">
@@ -7833,7 +7885,7 @@
         <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.25">
@@ -7841,7 +7893,7 @@
         <v>3</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
@@ -7933,7 +7985,7 @@
         <v>5</v>
       </c>
       <c r="D107">
-        <v>0.56023842000000001</v>
+        <v>0.38804579</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -7942,7 +7994,7 @@
         <v>0.38977093000000002</v>
       </c>
       <c r="G107">
-        <v>0.47795325999999999</v>
+        <v>0.40483361000000001</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -7951,7 +8003,7 @@
         <v>5</v>
       </c>
       <c r="K107">
-        <v>0.44708100000000001</v>
+        <v>0.37549999000000001</v>
       </c>
       <c r="L107">
         <v>0</v>
@@ -7960,7 +8012,7 @@
         <v>0.59974258999999996</v>
       </c>
       <c r="N107">
-        <v>0.44566175000000002</v>
+        <v>0.42508300999999998</v>
       </c>
       <c r="O107">
         <v>0</v>
@@ -8012,7 +8064,7 @@
         <v>0.39451050999999998</v>
       </c>
       <c r="E109">
-        <v>0.33145036999999999</v>
+        <v>0.33744334999999998</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -8021,7 +8073,7 @@
         <v>0.36957290999999998</v>
       </c>
       <c r="H109">
-        <v>0.56552166000000004</v>
+        <v>0.47524291000000002</v>
       </c>
       <c r="J109" t="s">
         <v>6</v>
@@ -8039,7 +8091,7 @@
         <v>0.45795747999999997</v>
       </c>
       <c r="O109">
-        <v>0.64532429000000002</v>
+        <v>0.45489268999999999</v>
       </c>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.25">
@@ -8050,7 +8102,7 @@
         <v>0.4346081</v>
       </c>
       <c r="E110">
-        <v>0.48466429</v>
+        <v>0.44472915000000002</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -8097,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="2:16" x14ac:dyDescent="0.25">
@@ -8105,7 +8157,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
     </row>
     <row r="117" spans="2:16" x14ac:dyDescent="0.25">
@@ -8113,7 +8165,7 @@
         <v>2</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" spans="2:16" x14ac:dyDescent="0.25">
@@ -8121,7 +8173,7 @@
         <v>3</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="2:16" x14ac:dyDescent="0.25">
@@ -8213,7 +8265,7 @@
         <v>5</v>
       </c>
       <c r="D123">
-        <v>0.29993117000000002</v>
+        <v>0.23044655</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -8222,7 +8274,7 @@
         <v>0.24865472</v>
       </c>
       <c r="G123">
-        <v>0.27343956000000003</v>
+        <v>0.19531725</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -8231,7 +8283,7 @@
         <v>5</v>
       </c>
       <c r="K123">
-        <v>0.27942586000000003</v>
+        <v>0.20579491999999999</v>
       </c>
       <c r="L123">
         <v>0</v>
@@ -8240,7 +8292,7 @@
         <v>0.41532638999999999</v>
       </c>
       <c r="N123">
-        <v>0.27219241999999999</v>
+        <v>0.24480141999999999</v>
       </c>
       <c r="O123">
         <v>0</v>
@@ -8251,16 +8303,16 @@
         <v>5</v>
       </c>
       <c r="D124">
-        <v>0.23749224999999999</v>
+        <v>0.21165954000000001</v>
       </c>
       <c r="E124">
-        <v>0.27411917000000002</v>
+        <v>0.22752196999999999</v>
       </c>
       <c r="F124">
         <v>0</v>
       </c>
       <c r="G124">
-        <v>0.26205774999999998</v>
+        <v>0.16157477000000001</v>
       </c>
       <c r="H124">
         <v>0.24069503</v>
@@ -8269,7 +8321,7 @@
         <v>5</v>
       </c>
       <c r="K124">
-        <v>0.27942586000000003</v>
+        <v>0.25658979999999998</v>
       </c>
       <c r="L124">
         <v>0.21893947</v>
@@ -8278,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="N124">
-        <v>0.27219241999999999</v>
+        <v>0.24757427000000001</v>
       </c>
       <c r="O124">
         <v>0.30520138000000002</v>
@@ -8292,7 +8344,7 @@
         <v>0.26683437999999998</v>
       </c>
       <c r="E125">
-        <v>0.22503507</v>
+        <v>0.22910394000000001</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -8301,7 +8353,7 @@
         <v>0.22913829999999999</v>
       </c>
       <c r="H125">
-        <v>0.27976288999999999</v>
+        <v>0.28308305</v>
       </c>
       <c r="J125" t="s">
         <v>6</v>
@@ -8319,7 +8371,7 @@
         <v>0.26245540000000001</v>
       </c>
       <c r="O125">
-        <v>0.29800799</v>
+        <v>0.28099042000000002</v>
       </c>
     </row>
     <row r="126" spans="2:16" x14ac:dyDescent="0.25">
@@ -8330,7 +8382,7 @@
         <v>0.22474442</v>
       </c>
       <c r="E126">
-        <v>0.20257549999999999</v>
+        <v>0.18588378999999999</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -8387,10 +8439,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AA115"/>
+  <dimension ref="B3:AA122"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="N101" workbookViewId="0">
+      <selection activeCell="Q118" sqref="Q118:AA122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8403,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.25">
@@ -8411,7 +8463,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.25">
@@ -8419,7 +8471,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.25">
@@ -8427,7 +8479,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.25">
@@ -8562,7 +8614,7 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <v>0.80136775999999998</v>
+        <v>0.75147724000000005</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -8571,7 +8623,7 @@
         <v>0.81418537999999996</v>
       </c>
       <c r="G12">
-        <v>0.89584779999999997</v>
+        <v>1.2872600999999999</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -8580,7 +8632,7 @@
         <v>5</v>
       </c>
       <c r="K12">
-        <v>0.86873031000000001</v>
+        <v>1.2127454</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -8589,14 +8641,14 @@
         <v>0.27450633000000002</v>
       </c>
       <c r="N12">
-        <v>1.1267142000000001</v>
+        <v>1.1061582999999999</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="Q12">
         <f>IF('H(C)'!D13&gt;0,'I(x)'!D12/'H(C)'!D13,0)</f>
-        <v>0.35330676739297917</v>
+        <v>0.25577902473592523</v>
       </c>
       <c r="R12">
         <f>IF('H(C)'!E13&gt;0,'I(x)'!E12/'H(C)'!E13,0)</f>
@@ -8608,7 +8660,7 @@
       </c>
       <c r="T12">
         <f>IF('H(C)'!G13&gt;0,'I(x)'!G12/'H(C)'!G13,0)</f>
-        <v>0.27886887505666264</v>
+        <v>0.35452868036716129</v>
       </c>
       <c r="U12">
         <f>IF('H(C)'!H13&gt;0,'I(x)'!H12/'H(C)'!H13,0)</f>
@@ -8619,7 +8671,7 @@
       </c>
       <c r="W12">
         <f>IF('H(C)'!K13&gt;0,'I(x)'!K12/'H(C)'!K13,0)</f>
-        <v>0.356190553780519</v>
+        <v>0.39555995274854949</v>
       </c>
       <c r="X12">
         <f>IF('H(C)'!L13&gt;0,'I(x)'!L12/'H(C)'!L13,0)</f>
@@ -8631,7 +8683,7 @@
       </c>
       <c r="Z12">
         <f>IF('H(C)'!N13&gt;0,'I(x)'!N12/'H(C)'!N13,0)</f>
-        <v>0.38315915177039606</v>
+        <v>0.35945219266466966</v>
       </c>
       <c r="AA12">
         <f>IF('H(C)'!O13&gt;0,'I(x)'!O12/'H(C)'!O13,0)</f>
@@ -8643,7 +8695,7 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>0.80136775999999998</v>
+        <v>1.42377</v>
       </c>
       <c r="E13">
         <v>1.0522088999999999</v>
@@ -8652,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.92746949000000001</v>
+        <v>1.0565958</v>
       </c>
       <c r="H13">
         <v>0.50224113000000004</v>
@@ -8661,7 +8713,7 @@
         <v>5</v>
       </c>
       <c r="K13">
-        <v>0.86873031000000001</v>
+        <v>0.84916877999999996</v>
       </c>
       <c r="L13">
         <v>1.1450005000000001</v>
@@ -8670,18 +8722,18 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.1267142000000001</v>
+        <v>1.4977434000000001</v>
       </c>
       <c r="O13">
         <v>0.92418884999999995</v>
       </c>
       <c r="Q13">
         <f>IF('H(C)'!D14&gt;0,'I(x)'!D13/'H(C)'!D14,0)</f>
-        <v>0.27975623852011583</v>
+        <v>0.38874902008636264</v>
       </c>
       <c r="R13">
         <f>IF('H(C)'!E14&gt;0,'I(x)'!E13/'H(C)'!E14,0)</f>
-        <v>0.43141912567064766</v>
+        <v>0.35808272518999801</v>
       </c>
       <c r="S13">
         <f>IF('H(C)'!F14&gt;0,'I(x)'!F13/'H(C)'!F14,0)</f>
@@ -8689,7 +8741,7 @@
       </c>
       <c r="T13">
         <f>IF('H(C)'!G14&gt;0,'I(x)'!G13/'H(C)'!G14,0)</f>
-        <v>0.27851807832480291</v>
+        <v>0.33809513067159952</v>
       </c>
       <c r="U13">
         <f>IF('H(C)'!H14&gt;0,'I(x)'!H13/'H(C)'!H14,0)</f>
@@ -8700,7 +8752,7 @@
       </c>
       <c r="W13">
         <f>IF('H(C)'!K14&gt;0,'I(x)'!K13/'H(C)'!K14,0)</f>
-        <v>0.356190553780519</v>
+        <v>0.36407036197092957</v>
       </c>
       <c r="X13">
         <f>IF('H(C)'!L14&gt;0,'I(x)'!L13/'H(C)'!L14,0)</f>
@@ -8712,7 +8764,7 @@
       </c>
       <c r="Z13">
         <f>IF('H(C)'!N14&gt;0,'I(x)'!N13/'H(C)'!N14,0)</f>
-        <v>0.38315915177039606</v>
+        <v>0.46961405722308958</v>
       </c>
       <c r="AA13">
         <f>IF('H(C)'!O14&gt;0,'I(x)'!O13/'H(C)'!O14,0)</f>
@@ -8762,7 +8814,7 @@
       </c>
       <c r="R14">
         <f>IF('H(C)'!E15&gt;0,'I(x)'!E14/'H(C)'!E15,0)</f>
-        <v>0.31658518351263276</v>
+        <v>0.32230936940526872</v>
       </c>
       <c r="S14">
         <f>IF('H(C)'!F15&gt;0,'I(x)'!F14/'H(C)'!F15,0)</f>
@@ -8843,7 +8895,7 @@
       </c>
       <c r="R15">
         <f>IF('H(C)'!E16&gt;0,'I(x)'!E15/'H(C)'!E16,0)</f>
-        <v>0.29999741735157032</v>
+        <v>0.27527838768535362</v>
       </c>
       <c r="S15">
         <f>IF('H(C)'!F16&gt;0,'I(x)'!F15/'H(C)'!F16,0)</f>
@@ -8889,17 +8941,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
@@ -8907,7 +8954,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
@@ -8915,7 +8962,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
@@ -8923,7 +8970,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.25">
@@ -9058,7 +9105,7 @@
         <v>5</v>
       </c>
       <c r="D29">
-        <v>0.86288571000000003</v>
+        <v>0.79111313999999999</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -9067,7 +9114,7 @@
         <v>0.96395039999999999</v>
       </c>
       <c r="G29">
-        <v>0.72545218</v>
+        <v>1.0060377</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -9076,7 +9123,7 @@
         <v>5</v>
       </c>
       <c r="K29">
-        <v>0.92524028000000003</v>
+        <v>1.3220993999999999</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -9085,11 +9132,11 @@
         <v>0.27791571999999998</v>
       </c>
       <c r="N29">
-        <v>1.1705460999999999</v>
+        <v>1.0655253</v>
       </c>
       <c r="Q29">
         <f>IF('H(Y)'!D13&gt;0,'I(x)'!D29/'H(Y)'!D13,0)</f>
-        <v>0.2928118174277734</v>
+        <v>0.26845649850244074</v>
       </c>
       <c r="R29">
         <f>IF('H(Y)'!E13&gt;0,'I(x)'!E29/'H(Y)'!E13,0)</f>
@@ -9101,7 +9148,7 @@
       </c>
       <c r="T29">
         <f>IF('H(Y)'!G13&gt;0,'I(x)'!G29/'H(Y)'!G13,0)</f>
-        <v>0.2162924089269925</v>
+        <v>0.29994853362267243</v>
       </c>
       <c r="U29">
         <f>IF('H(Y)'!H13&gt;0,'I(x)'!H29/'H(Y)'!H13,0)</f>
@@ -9112,7 +9159,7 @@
       </c>
       <c r="W29">
         <f>IF('H(Y)'!K13&gt;0,'I(x)'!K29/'H(Y)'!K13,0)</f>
-        <v>0.28128084222494648</v>
+        <v>0.40192935908183375</v>
       </c>
       <c r="X29">
         <f>IF('H(Y)'!L13&gt;0,'I(x)'!L29/'H(Y)'!L13,0)</f>
@@ -9124,7 +9171,7 @@
       </c>
       <c r="Z29">
         <f>IF('H(Y)'!N13&gt;0,'I(x)'!N29/'H(Y)'!N13,0)</f>
-        <v>0.36849815260782215</v>
+        <v>0.33543668601082477</v>
       </c>
       <c r="AA29">
         <f>IF('H(Y)'!O13&gt;0,'I(x)'!O29/'H(Y)'!O13,0)</f>
@@ -9136,7 +9183,7 @@
         <v>5</v>
       </c>
       <c r="D30">
-        <v>0.86288571000000003</v>
+        <v>1.4371729</v>
       </c>
       <c r="E30">
         <v>1.1477348999999999</v>
@@ -9145,7 +9192,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0.72021436999999999</v>
+        <v>0.87421727000000005</v>
       </c>
       <c r="H30">
         <v>0.48901820000000001</v>
@@ -9154,7 +9201,7 @@
         <v>5</v>
       </c>
       <c r="K30">
-        <v>0.92524028000000003</v>
+        <v>0.87824844999999996</v>
       </c>
       <c r="L30">
         <v>1.2254639000000001</v>
@@ -9163,14 +9210,14 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1.1710191000000001</v>
+        <v>1.7134008000000001</v>
       </c>
       <c r="O30">
         <v>1.1872389000000001</v>
       </c>
       <c r="Q30">
         <f>IF('H(Y)'!D14&gt;0,'I(x)'!D30/'H(Y)'!D14,0)</f>
-        <v>0.22890904952491767</v>
+        <v>0.38125777113862452</v>
       </c>
       <c r="R30">
         <f>IF('H(Y)'!E14&gt;0,'I(x)'!E30/'H(Y)'!E14,0)</f>
@@ -9182,7 +9229,7 @@
       </c>
       <c r="T30">
         <f>IF('H(Y)'!G14&gt;0,'I(x)'!G30/'H(Y)'!G14,0)</f>
-        <v>0.23338748795819769</v>
+        <v>0.28329255992902985</v>
       </c>
       <c r="U30">
         <f>IF('H(Y)'!H14&gt;0,'I(x)'!H30/'H(Y)'!H14,0)</f>
@@ -9193,7 +9240,7 @@
       </c>
       <c r="W30">
         <f>IF('H(Y)'!K14&gt;0,'I(x)'!K30/'H(Y)'!K14,0)</f>
-        <v>0.33705119490776136</v>
+        <v>0.31993277410964999</v>
       </c>
       <c r="X30">
         <f>IF('H(Y)'!L14&gt;0,'I(x)'!L30/'H(Y)'!L14,0)</f>
@@ -9205,7 +9252,7 @@
       </c>
       <c r="Z30">
         <f>IF('H(Y)'!N14&gt;0,'I(x)'!N30/'H(Y)'!N14,0)</f>
-        <v>0.34472688626264864</v>
+        <v>0.50439426880734151</v>
       </c>
       <c r="AA30">
         <f>IF('H(Y)'!O14&gt;0,'I(x)'!O30/'H(Y)'!O14,0)</f>
@@ -9229,7 +9276,7 @@
         <v>0.90434574999999995</v>
       </c>
       <c r="H31">
-        <v>0.49468899</v>
+        <v>0.50854038999999995</v>
       </c>
       <c r="J31" t="s">
         <v>6</v>
@@ -9247,7 +9294,7 @@
         <v>1.0161290000000001</v>
       </c>
       <c r="O31">
-        <v>0.71295238000000005</v>
+        <v>1.0505745</v>
       </c>
       <c r="Q31">
         <f>IF('H(Y)'!D15&gt;0,'I(x)'!D31/'H(Y)'!D15,0)</f>
@@ -9267,7 +9314,7 @@
       </c>
       <c r="U31">
         <f>IF('H(Y)'!H15&gt;0,'I(x)'!H31/'H(Y)'!H15,0)</f>
-        <v>0.19783767447455672</v>
+        <v>0.20337717266354383</v>
       </c>
       <c r="V31" t="s">
         <v>6</v>
@@ -9290,7 +9337,7 @@
       </c>
       <c r="AA31">
         <f>IF('H(Y)'!O15&gt;0,'I(x)'!O31/'H(Y)'!O15,0)</f>
-        <v>0.23925608201561716</v>
+        <v>0.35255698106445194</v>
       </c>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.25">
@@ -9387,7 +9434,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
@@ -9395,7 +9442,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.25">
@@ -9403,7 +9450,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.25">
@@ -9411,7 +9458,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
@@ -9546,7 +9593,7 @@
         <v>5</v>
       </c>
       <c r="D45">
-        <v>0.62320231999999998</v>
+        <v>0.70496272999999998</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -9555,7 +9602,7 @@
         <v>0.83198117999999999</v>
       </c>
       <c r="G45">
-        <v>0.59315872000000003</v>
+        <v>0.88017917000000001</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -9564,7 +9611,7 @@
         <v>5</v>
       </c>
       <c r="K45">
-        <v>0.68864798999999999</v>
+        <v>1.0260065</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -9573,14 +9620,14 @@
         <v>0.24587439999999999</v>
       </c>
       <c r="N45">
-        <v>0.73141526999999995</v>
+        <v>0.83034538999999996</v>
       </c>
       <c r="O45">
         <v>0</v>
       </c>
       <c r="Q45">
         <f>IF('H(R) '!D13&gt;0,'I(x)'!D45/'H(R) '!D13,0)</f>
-        <v>0.25672665831127217</v>
+        <v>0.25018466911505716</v>
       </c>
       <c r="R45">
         <f>IF('H(R) '!E13&gt;0,'I(x)'!E45/'H(R) '!E13,0)</f>
@@ -9592,7 +9639,7 @@
       </c>
       <c r="T45">
         <f>IF('H(R) '!G13&gt;0,'I(x)'!G45/'H(R) '!G13,0)</f>
-        <v>0.23381689601527308</v>
+        <v>0.29612779687076823</v>
       </c>
       <c r="U45">
         <f>IF('H(R) '!H13&gt;0,'I(x)'!H45/'H(R) '!H13,0)</f>
@@ -9603,7 +9650,7 @@
       </c>
       <c r="W45">
         <f>IF('H(R) '!K13&gt;0,'I(x)'!K45/'H(R) '!K13,0)</f>
-        <v>0.32493888828439599</v>
+        <v>0.37138092307193354</v>
       </c>
       <c r="X45">
         <f>IF('H(R) '!L13&gt;0,'I(x)'!L45/'H(R) '!L13,0)</f>
@@ -9615,7 +9662,7 @@
       </c>
       <c r="Z45">
         <f>IF('H(R) '!N13&gt;0,'I(x)'!N45/'H(R) '!N13,0)</f>
-        <v>0.32518634357909765</v>
+        <v>0.32454892978971173</v>
       </c>
       <c r="AA45">
         <f>IF('H(R) '!O13&gt;0,'I(x)'!O45/'H(R) '!O13,0)</f>
@@ -9627,7 +9674,7 @@
         <v>5</v>
       </c>
       <c r="D46">
-        <v>0.62320231999999998</v>
+        <v>1.4456431999999999</v>
       </c>
       <c r="E46">
         <v>1.0466892999999999</v>
@@ -9636,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0.59608172999999998</v>
+        <v>0.86986065000000001</v>
       </c>
       <c r="H46">
         <v>0.51504612000000005</v>
@@ -9645,7 +9692,7 @@
         <v>5</v>
       </c>
       <c r="K46">
-        <v>0.68864798999999999</v>
+        <v>0.73130012</v>
       </c>
       <c r="L46">
         <v>0.96299148000000001</v>
@@ -9654,14 +9701,14 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>0.73070334999999997</v>
+        <v>1.2961704999999999</v>
       </c>
       <c r="O46">
         <v>1.0131106000000001</v>
       </c>
       <c r="Q46">
         <f>IF('H(R) '!D14&gt;0,'I(x)'!D46/'H(R) '!D14,0)</f>
-        <v>0.25672665831127217</v>
+        <v>0.38670555862464051</v>
       </c>
       <c r="R46">
         <f>IF('H(R) '!E14&gt;0,'I(x)'!E46/'H(R) '!E14,0)</f>
@@ -9673,7 +9720,7 @@
       </c>
       <c r="T46">
         <f>IF('H(R) '!G14&gt;0,'I(x)'!G46/'H(R) '!G14,0)</f>
-        <v>0.23500091720582325</v>
+        <v>0.27922363714628817</v>
       </c>
       <c r="U46">
         <f>IF('H(R) '!H14&gt;0,'I(x)'!H46/'H(R) '!H14,0)</f>
@@ -9684,7 +9731,7 @@
       </c>
       <c r="W46">
         <f>IF('H(R) '!K14&gt;0,'I(x)'!K46/'H(R) '!K14,0)</f>
-        <v>0.32493888828439599</v>
+        <v>0.28119190588866433</v>
       </c>
       <c r="X46">
         <f>IF('H(R) '!L14&gt;0,'I(x)'!L46/'H(R) '!L14,0)</f>
@@ -9696,7 +9743,7 @@
       </c>
       <c r="Z46">
         <f>IF('H(R) '!N14&gt;0,'I(x)'!N46/'H(R) '!N14,0)</f>
-        <v>0.32497263851444913</v>
+        <v>0.44991054344682496</v>
       </c>
       <c r="AA46">
         <f>IF('H(R) '!O14&gt;0,'I(x)'!O46/'H(R) '!O14,0)</f>
@@ -9720,7 +9767,7 @@
         <v>0.90231943000000003</v>
       </c>
       <c r="H47">
-        <v>0.25630640999999998</v>
+        <v>0.51911569000000002</v>
       </c>
       <c r="J47" t="s">
         <v>6</v>
@@ -9738,7 +9785,7 @@
         <v>0.83913660000000001</v>
       </c>
       <c r="O47">
-        <v>0.30895971999999999</v>
+        <v>0.90135120999999996</v>
       </c>
       <c r="Q47">
         <f>IF('H(R) '!D15&gt;0,'I(x)'!D47/'H(R) '!D15,0)</f>
@@ -9758,7 +9805,7 @@
       </c>
       <c r="U47">
         <f>IF('H(R) '!H15&gt;0,'I(x)'!H47/'H(R) '!H15,0)</f>
-        <v>0.10084962206142646</v>
+        <v>0.204481402818985</v>
       </c>
       <c r="V47" t="s">
         <v>6</v>
@@ -9781,7 +9828,7 @@
       </c>
       <c r="AA47">
         <f>IF('H(R) '!O15&gt;0,'I(x)'!O47/'H(R) '!O15,0)</f>
-        <v>0.10574372101594015</v>
+        <v>0.30890053183185973</v>
       </c>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.25">
@@ -9873,155 +9920,117 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>13</v>
-      </c>
-      <c r="J58" t="s">
-        <v>14</v>
+      <c r="C56" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" t="s">
         <v>8</v>
       </c>
-      <c r="F59" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="F60" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" t="s">
         <v>9</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H60" t="s">
         <v>10</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I60" t="s">
         <v>11</v>
       </c>
-      <c r="K59" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" t="s">
+      <c r="K60" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" t="s">
         <v>8</v>
       </c>
-      <c r="M59" t="s">
-        <v>6</v>
-      </c>
-      <c r="N59" t="s">
+      <c r="M60" t="s">
+        <v>6</v>
+      </c>
+      <c r="N60" t="s">
         <v>9</v>
       </c>
-      <c r="O59" t="s">
+      <c r="O60" t="s">
         <v>10</v>
       </c>
-      <c r="P59" t="s">
+      <c r="P60" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60">
-        <v>1.8910598999999999</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="J60" t="s">
-        <v>4</v>
-      </c>
-      <c r="K60">
-        <v>1.0669506</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61">
-        <v>1.2778947000000001</v>
+        <v>1.8910598999999999</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.2624580999999999</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>1.2090320999999999</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K61">
-        <v>1.0048895</v>
+        <v>1.0669506</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
       <c r="M61">
-        <v>0.56322742000000003</v>
+        <v>0</v>
       </c>
       <c r="N61">
-        <v>1.1863763000000001</v>
+        <v>0</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -10032,2106 +10041,2084 @@
         <v>5</v>
       </c>
       <c r="D62">
-        <v>1.2778947000000001</v>
+        <v>1.4281162999999999</v>
       </c>
       <c r="E62">
-        <v>1.6461513000000001</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1.2624580999999999</v>
       </c>
       <c r="G62">
-        <v>1.2998955000000001</v>
+        <v>1.6589904</v>
       </c>
       <c r="H62">
-        <v>1.2239263</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>5</v>
       </c>
       <c r="K62">
-        <v>1.0048895</v>
+        <v>1.352536</v>
       </c>
       <c r="L62">
-        <v>1.4709139</v>
+        <v>0</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>0.56322742000000003</v>
       </c>
       <c r="N62">
-        <v>1.1868495999999999</v>
+        <v>1.1482227</v>
       </c>
       <c r="O62">
-        <v>1.2370725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D63">
-        <v>1.3290972999999999</v>
+        <v>1.6171925</v>
       </c>
       <c r="E63">
-        <v>1.6878536</v>
+        <v>1.6461513000000001</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>1.381645</v>
+        <v>1.2517977</v>
       </c>
       <c r="H63">
-        <v>0.65147233000000004</v>
+        <v>1.2239263</v>
       </c>
       <c r="J63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K63">
-        <v>0.88128494999999996</v>
+        <v>0.92813325000000002</v>
       </c>
       <c r="L63">
-        <v>1.2654908</v>
+        <v>1.4709139</v>
       </c>
       <c r="M63">
         <v>0</v>
       </c>
       <c r="N63">
-        <v>1.1904876</v>
+        <v>1.5771014999999999</v>
       </c>
       <c r="O63">
-        <v>0.55376577000000005</v>
+        <v>1.2370725</v>
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64">
-        <v>1.5816790999999999</v>
+        <v>1.3290972999999999</v>
       </c>
       <c r="E64">
-        <v>1.3141320000000001</v>
+        <v>1.6878536</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1.2606549</v>
+        <v>1.381645</v>
       </c>
       <c r="H64">
-        <v>1.3895166000000001</v>
+        <v>0.89030147000000004</v>
       </c>
       <c r="J64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K64">
-        <v>0.93633127000000005</v>
+        <v>0.88128494999999996</v>
       </c>
       <c r="L64">
-        <v>1.4092658</v>
+        <v>1.2654908</v>
       </c>
       <c r="M64">
         <v>0</v>
       </c>
       <c r="N64">
-        <v>0.71329165000000005</v>
+        <v>1.1904876</v>
       </c>
       <c r="O64">
-        <v>1.3376836999999999</v>
+        <v>0.97318720999999997</v>
       </c>
     </row>
     <row r="65" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65">
+        <v>1.5816790999999999</v>
+      </c>
+      <c r="E65">
+        <v>1.3141320000000001</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>1.2606549</v>
+      </c>
+      <c r="H65">
+        <v>1.3895166000000001</v>
+      </c>
+      <c r="J65" t="s">
+        <v>7</v>
+      </c>
+      <c r="K65">
+        <v>0.93633127000000005</v>
+      </c>
+      <c r="L65">
+        <v>1.4092658</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0.71329165000000005</v>
+      </c>
+      <c r="O65">
+        <v>1.3376836999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
         <v>12</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J66" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D67">
-        <f>IF('H(Y)'!D12&gt;0,'I(x)'!D60/'H(Y)'!D12,0)</f>
-        <v>0.55515325751763345</v>
-      </c>
-      <c r="E67">
-        <f>IF('H(Y)'!E12&gt;0,'I(x)'!E60/'H(Y)'!E12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <f>IF('H(Y)'!F12&gt;0,'I(x)'!F60/'H(Y)'!F12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <f>IF('H(Y)'!G12&gt;0,'I(x)'!G60/'H(Y)'!G12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <f>IF('H(Y)'!H12&gt;0,'I(x)'!H60/'H(Y)'!H12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <f>IF('H(Y)'!I12&gt;0,'I(x)'!I60/'H(Y)'!I12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J67" t="e">
-        <f>IF('H(Y)'!J12&gt;0,'I(x)'!J60/'H(Y)'!J12,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K67">
-        <f>IF('H(Y)'!K12&gt;0,'I(x)'!K60/'H(Y)'!K12,0)</f>
-        <v>0.39514291688526454</v>
-      </c>
-      <c r="L67">
-        <f>IF('H(Y)'!L12&gt;0,'I(x)'!L60/'H(Y)'!L12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <f>IF('H(Y)'!M12&gt;0,'I(x)'!M60/'H(Y)'!M12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <f>IF('H(Y)'!N12&gt;0,'I(x)'!N60/'H(Y)'!N12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <f>IF('H(Y)'!O12&gt;0,'I(x)'!O60/'H(Y)'!O12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <f>IF('H(C)'!D12&gt;0,'I(x)'!D60/'H(C)'!D12,0)</f>
-        <v>0.60972944540108642</v>
-      </c>
-      <c r="R67">
-        <f>IF('H(C)'!E12&gt;0,'I(x)'!E60/'H(C)'!E12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <f>IF('H(C)'!F12&gt;0,'I(x)'!F60/'H(C)'!F12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T67">
-        <f>IF('H(C)'!G12&gt;0,'I(x)'!G60/'H(C)'!G12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U67">
-        <f>IF('H(C)'!H12&gt;0,'I(x)'!H60/'H(C)'!H12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V67" t="e">
-        <f>IF('H(C)'!J12&gt;0,'I(x)'!J60/'H(C)'!J12,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W67">
-        <f>IF('H(C)'!K12&gt;0,'I(x)'!K60/'H(C)'!K12,0)</f>
-        <v>0.47039684682847682</v>
-      </c>
-      <c r="X67">
-        <f>IF('H(C)'!L12&gt;0,'I(x)'!L60/'H(C)'!L12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y67">
-        <f>IF('H(C)'!M12&gt;0,'I(x)'!M60/'H(C)'!M12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z67">
-        <f>IF('H(C)'!N12&gt;0,'I(x)'!N60/'H(C)'!N12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA67">
-        <f>IF('H(C)'!O12&gt;0,'I(x)'!O60/'H(C)'!O12,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D68">
-        <f>IF('H(Y)'!D13&gt;0,'I(x)'!D61/'H(Y)'!D13,0)</f>
-        <v>0.43364105495305894</v>
-      </c>
-      <c r="E68">
-        <f>IF('H(Y)'!E13&gt;0,'I(x)'!E61/'H(Y)'!E13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <f>IF('H(Y)'!F13&gt;0,'I(x)'!F61/'H(Y)'!F13,0)</f>
-        <v>0.37973407625920913</v>
-      </c>
-      <c r="G68">
-        <f>IF('H(Y)'!G13&gt;0,'I(x)'!G61/'H(Y)'!G13,0)</f>
-        <v>0.360470989802609</v>
-      </c>
-      <c r="H68">
-        <f>IF('H(Y)'!H13&gt;0,'I(x)'!H61/'H(Y)'!H13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <f>IF('H(Y)'!I13&gt;0,'I(x)'!I61/'H(Y)'!I13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J68" t="e">
-        <f>IF('H(Y)'!J13&gt;0,'I(x)'!J61/'H(Y)'!J13,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K68">
-        <f>IF('H(Y)'!K13&gt;0,'I(x)'!K61/'H(Y)'!K13,0)</f>
-        <v>0.30549487631797156</v>
-      </c>
-      <c r="L68">
-        <f>IF('H(Y)'!L13&gt;0,'I(x)'!L61/'H(Y)'!L13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <f>IF('H(Y)'!M13&gt;0,'I(x)'!M61/'H(Y)'!M13,0)</f>
-        <v>0.2705783479545979</v>
-      </c>
-      <c r="N68">
-        <f>IF('H(Y)'!N13&gt;0,'I(x)'!N61/'H(Y)'!N13,0)</f>
-        <v>0.37348163805569334</v>
-      </c>
-      <c r="O68">
-        <f>IF('H(Y)'!O13&gt;0,'I(x)'!O61/'H(Y)'!O13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <f>IF('H(C)'!D13&gt;0,'I(x)'!D61/'H(C)'!D13,0)</f>
-        <v>0.56339781566158953</v>
-      </c>
-      <c r="R68">
-        <f>IF('H(C)'!E13&gt;0,'I(x)'!E61/'H(C)'!E13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <f>IF('H(C)'!F13&gt;0,'I(x)'!F61/'H(C)'!F13,0)</f>
-        <v>0.46318989379666331</v>
-      </c>
-      <c r="T68">
-        <f>IF('H(C)'!G13&gt;0,'I(x)'!G61/'H(C)'!G13,0)</f>
-        <v>0.37636016032454894</v>
-      </c>
-      <c r="U68">
-        <f>IF('H(C)'!H13&gt;0,'I(x)'!H61/'H(C)'!H13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V68" t="e">
-        <f>IF('H(C)'!J13&gt;0,'I(x)'!J61/'H(C)'!J13,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W68">
-        <f>IF('H(C)'!K13&gt;0,'I(x)'!K61/'H(C)'!K13,0)</f>
-        <v>0.41201756560471436</v>
-      </c>
-      <c r="X68">
-        <f>IF('H(C)'!L13&gt;0,'I(x)'!L61/'H(C)'!L13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y68">
-        <f>IF('H(C)'!M13&gt;0,'I(x)'!M61/'H(C)'!M13,0)</f>
-        <v>0.25197169661704649</v>
-      </c>
-      <c r="Z68">
-        <f>IF('H(C)'!N13&gt;0,'I(x)'!N61/'H(C)'!N13,0)</f>
-        <v>0.40344830728901876</v>
-      </c>
-      <c r="AA68">
-        <f>IF('H(C)'!O13&gt;0,'I(x)'!O61/'H(C)'!O13,0)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="69" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D69">
-        <f>IF('H(Y)'!D14&gt;0,'I(x)'!D62/'H(Y)'!D14,0)</f>
-        <v>0.33900394661759992</v>
-      </c>
-      <c r="E69">
-        <f>IF('H(Y)'!E14&gt;0,'I(x)'!E62/'H(Y)'!E14,0)</f>
-        <v>0.49836885484576182</v>
-      </c>
-      <c r="F69">
-        <f>IF('H(Y)'!F14&gt;0,'I(x)'!F62/'H(Y)'!F14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <f>IF('H(Y)'!G14&gt;0,'I(x)'!G62/'H(Y)'!G14,0)</f>
-        <v>0.42123478507262413</v>
-      </c>
-      <c r="H69">
-        <f>IF('H(Y)'!H14&gt;0,'I(x)'!H62/'H(Y)'!H14,0)</f>
-        <v>0.38303279721786276</v>
-      </c>
-      <c r="I69">
-        <f>IF('H(Y)'!I14&gt;0,'I(x)'!I62/'H(Y)'!I14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J69" t="e">
-        <f>IF('H(Y)'!J14&gt;0,'I(x)'!J62/'H(Y)'!J14,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K69">
-        <f>IF('H(Y)'!K14&gt;0,'I(x)'!K62/'H(Y)'!K14,0)</f>
-        <v>0.36606621441650039</v>
-      </c>
-      <c r="L69">
-        <f>IF('H(Y)'!L14&gt;0,'I(x)'!L62/'H(Y)'!L14,0)</f>
-        <v>0.41686909807684558</v>
-      </c>
-      <c r="M69">
-        <f>IF('H(Y)'!M14&gt;0,'I(x)'!M62/'H(Y)'!M14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <f>IF('H(Y)'!N14&gt;0,'I(x)'!N62/'H(Y)'!N14,0)</f>
-        <v>0.34938709972371074</v>
-      </c>
-      <c r="O69">
-        <f>IF('H(Y)'!O14&gt;0,'I(x)'!O62/'H(Y)'!O14,0)</f>
-        <v>0.37982735110634891</v>
-      </c>
-      <c r="Q69">
-        <f>IF('H(C)'!D14&gt;0,'I(x)'!D62/'H(C)'!D14,0)</f>
-        <v>0.44611105205529095</v>
-      </c>
-      <c r="R69">
-        <f>IF('H(C)'!E14&gt;0,'I(x)'!E62/'H(C)'!E14,0)</f>
-        <v>0.67494311687308495</v>
-      </c>
-      <c r="S69">
-        <f>IF('H(C)'!F14&gt;0,'I(x)'!F62/'H(C)'!F14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T69">
-        <f>IF('H(C)'!G14&gt;0,'I(x)'!G62/'H(C)'!G14,0)</f>
-        <v>0.39035720375347216</v>
-      </c>
-      <c r="U69">
-        <f>IF('H(C)'!H14&gt;0,'I(x)'!H62/'H(C)'!H14,0)</f>
-        <v>0.42287343354655177</v>
-      </c>
-      <c r="V69" t="e">
-        <f>IF('H(C)'!J14&gt;0,'I(x)'!J62/'H(C)'!J14,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W69">
-        <f>IF('H(C)'!K14&gt;0,'I(x)'!K62/'H(C)'!K14,0)</f>
-        <v>0.41201756560471436</v>
-      </c>
-      <c r="X69">
-        <f>IF('H(C)'!L14&gt;0,'I(x)'!L62/'H(C)'!L14,0)</f>
-        <v>0.4505735254516498</v>
-      </c>
-      <c r="Y69">
-        <f>IF('H(C)'!M14&gt;0,'I(x)'!M62/'H(C)'!M14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z69">
-        <f>IF('H(C)'!N14&gt;0,'I(x)'!N62/'H(C)'!N14,0)</f>
-        <v>0.40360926135042391</v>
-      </c>
-      <c r="AA69">
-        <f>IF('H(C)'!O14&gt;0,'I(x)'!O62/'H(C)'!O14,0)</f>
-        <v>0.38303523358454267</v>
+      <c r="D69" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D70">
-        <f>IF('H(Y)'!D15&gt;0,'I(x)'!D63/'H(Y)'!D15,0)</f>
-        <v>0.43501255634497588</v>
+        <f>IF('H(Y)'!D12&gt;0,'I(x)'!D61/'H(Y)'!D12,0)</f>
+        <v>0.55515325751763345</v>
       </c>
       <c r="E70">
-        <f>IF('H(Y)'!E15&gt;0,'I(x)'!E63/'H(Y)'!E15,0)</f>
-        <v>0.57422404477811906</v>
+        <f>IF('H(Y)'!E12&gt;0,'I(x)'!E61/'H(Y)'!E12,0)</f>
+        <v>0</v>
       </c>
       <c r="F70">
-        <f>IF('H(Y)'!F15&gt;0,'I(x)'!F63/'H(Y)'!F15,0)</f>
+        <f>IF('H(Y)'!F12&gt;0,'I(x)'!F61/'H(Y)'!F12,0)</f>
         <v>0</v>
       </c>
       <c r="G70">
-        <f>IF('H(Y)'!G15&gt;0,'I(x)'!G63/'H(Y)'!G15,0)</f>
-        <v>0.50678852963926757</v>
+        <f>IF('H(Y)'!G12&gt;0,'I(x)'!G61/'H(Y)'!G12,0)</f>
+        <v>0</v>
       </c>
       <c r="H70">
-        <f>IF('H(Y)'!H15&gt;0,'I(x)'!H63/'H(Y)'!H15,0)</f>
-        <v>0.2605389918860353</v>
-      </c>
-      <c r="I70">
-        <f>IF('H(Y)'!I15&gt;0,'I(x)'!I63/'H(Y)'!I15,0)</f>
+        <f>IF('H(Y)'!H12&gt;0,'I(x)'!H61/'H(Y)'!H12,0)</f>
         <v>0</v>
       </c>
       <c r="J70" t="e">
-        <f>IF('H(Y)'!J15&gt;0,'I(x)'!J63/'H(Y)'!J15,0)</f>
+        <f>IF('H(Y)'!J12&gt;0,'I(x)'!J61/'H(Y)'!J12,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="K70">
-        <f>IF('H(Y)'!K15&gt;0,'I(x)'!K63/'H(Y)'!K15,0)</f>
-        <v>0.32156336466327895</v>
+        <f>IF('H(Y)'!K12&gt;0,'I(x)'!K61/'H(Y)'!K12,0)</f>
+        <v>0.39514291688526454</v>
       </c>
       <c r="L70">
-        <f>IF('H(Y)'!L15&gt;0,'I(x)'!L63/'H(Y)'!L15,0)</f>
-        <v>0.44849852729804096</v>
+        <f>IF('H(Y)'!L12&gt;0,'I(x)'!L61/'H(Y)'!L12,0)</f>
+        <v>0</v>
       </c>
       <c r="M70">
-        <f>IF('H(Y)'!M15&gt;0,'I(x)'!M63/'H(Y)'!M15,0)</f>
+        <f>IF('H(Y)'!M12&gt;0,'I(x)'!M61/'H(Y)'!M12,0)</f>
         <v>0</v>
       </c>
       <c r="N70">
-        <f>IF('H(Y)'!N15&gt;0,'I(x)'!N63/'H(Y)'!N15,0)</f>
-        <v>0.41555734447399317</v>
+        <f>IF('H(Y)'!N12&gt;0,'I(x)'!N61/'H(Y)'!N12,0)</f>
+        <v>0</v>
       </c>
       <c r="O70">
-        <f>IF('H(Y)'!O15&gt;0,'I(x)'!O63/'H(Y)'!O15,0)</f>
-        <v>0.18583545297171375</v>
+        <f>IF('H(Y)'!O12&gt;0,'I(x)'!O61/'H(Y)'!O12,0)</f>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <f>IF('H(C)'!D15&gt;0,'I(x)'!D63/'H(C)'!D15,0)</f>
-        <v>0.52804544402252018</v>
+        <f>IF('H(C)'!D12&gt;0,'I(x)'!D61/'H(C)'!D12,0)</f>
+        <v>0.60972944540108642</v>
       </c>
       <c r="R70">
-        <f>IF('H(C)'!E15&gt;0,'I(x)'!E63/'H(C)'!E15,0)</f>
-        <v>0.59196674934578142</v>
+        <f>IF('H(C)'!E12&gt;0,'I(x)'!E61/'H(C)'!E12,0)</f>
+        <v>0</v>
       </c>
       <c r="S70">
-        <f>IF('H(C)'!F15&gt;0,'I(x)'!F63/'H(C)'!F15,0)</f>
+        <f>IF('H(C)'!F12&gt;0,'I(x)'!F61/'H(C)'!F12,0)</f>
         <v>0</v>
       </c>
       <c r="T70">
-        <f>IF('H(C)'!G15&gt;0,'I(x)'!G63/'H(C)'!G15,0)</f>
-        <v>0.48045021475939781</v>
+        <f>IF('H(C)'!G12&gt;0,'I(x)'!G61/'H(C)'!G12,0)</f>
+        <v>0</v>
       </c>
       <c r="U70">
-        <f>IF('H(C)'!H15&gt;0,'I(x)'!H63/'H(C)'!H15,0)</f>
-        <v>0.26250771640258169</v>
+        <f>IF('H(C)'!H12&gt;0,'I(x)'!H61/'H(C)'!H12,0)</f>
+        <v>0</v>
       </c>
       <c r="V70" t="e">
-        <f>IF('H(C)'!J15&gt;0,'I(x)'!J63/'H(C)'!J15,0)</f>
+        <f>IF('H(C)'!J12&gt;0,'I(x)'!J61/'H(C)'!J12,0)</f>
         <v>#VALUE!</v>
       </c>
       <c r="W70">
-        <f>IF('H(C)'!K15&gt;0,'I(x)'!K63/'H(C)'!K15,0)</f>
-        <v>0.3090856855706321</v>
+        <f>IF('H(C)'!K12&gt;0,'I(x)'!K61/'H(C)'!K12,0)</f>
+        <v>0.47039684682847682</v>
       </c>
       <c r="X70">
-        <f>IF('H(C)'!L15&gt;0,'I(x)'!L63/'H(C)'!L15,0)</f>
-        <v>0.44362101988775726</v>
+        <f>IF('H(C)'!L12&gt;0,'I(x)'!L61/'H(C)'!L12,0)</f>
+        <v>0</v>
       </c>
       <c r="Y70">
-        <f>IF('H(C)'!M15&gt;0,'I(x)'!M63/'H(C)'!M15,0)</f>
+        <f>IF('H(C)'!M12&gt;0,'I(x)'!M61/'H(C)'!M12,0)</f>
         <v>0</v>
       </c>
       <c r="Z70">
-        <f>IF('H(C)'!N15&gt;0,'I(x)'!N63/'H(C)'!N15,0)</f>
-        <v>0.40575675479558865</v>
+        <f>IF('H(C)'!N12&gt;0,'I(x)'!N61/'H(C)'!N12,0)</f>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <f>IF('H(C)'!O15&gt;0,'I(x)'!O63/'H(C)'!O15,0)</f>
-        <v>0.19959648237212269</v>
+        <f>IF('H(C)'!O12&gt;0,'I(x)'!O61/'H(C)'!O12,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D71">
-        <f>IF('H(Y)'!D16&gt;0,'I(x)'!D64/'H(Y)'!D16,0)</f>
+        <f>IF('H(Y)'!D13&gt;0,'I(x)'!D62/'H(Y)'!D13,0)</f>
+        <v>0.48461728413746386</v>
+      </c>
+      <c r="E71">
+        <f>IF('H(Y)'!E13&gt;0,'I(x)'!E62/'H(Y)'!E13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <f>IF('H(Y)'!F13&gt;0,'I(x)'!F62/'H(Y)'!F13,0)</f>
+        <v>0.37973407625920913</v>
+      </c>
+      <c r="G71">
+        <f>IF('H(Y)'!G13&gt;0,'I(x)'!G62/'H(Y)'!G13,0)</f>
+        <v>0.49462533836862255</v>
+      </c>
+      <c r="H71">
+        <f>IF('H(Y)'!H13&gt;0,'I(x)'!H62/'H(Y)'!H13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J71" t="e">
+        <f>IF('H(Y)'!J13&gt;0,'I(x)'!J62/'H(Y)'!J13,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K71">
+        <f>IF('H(Y)'!K13&gt;0,'I(x)'!K62/'H(Y)'!K13,0)</f>
+        <v>0.41118234197451953</v>
+      </c>
+      <c r="L71">
+        <f>IF('H(Y)'!L13&gt;0,'I(x)'!L62/'H(Y)'!L13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <f>IF('H(Y)'!M13&gt;0,'I(x)'!M62/'H(Y)'!M13,0)</f>
+        <v>0.2705783479545979</v>
+      </c>
+      <c r="N71">
+        <f>IF('H(Y)'!N13&gt;0,'I(x)'!N62/'H(Y)'!N13,0)</f>
+        <v>0.36147055099527103</v>
+      </c>
+      <c r="O71">
+        <f>IF('H(Y)'!O13&gt;0,'I(x)'!O62/'H(Y)'!O13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <f>IF('H(C)'!D13&gt;0,'I(x)'!D62/'H(C)'!D13,0)</f>
+        <v>0.4860855059608698</v>
+      </c>
+      <c r="R71">
+        <f>IF('H(C)'!E13&gt;0,'I(x)'!E62/'H(C)'!E13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <f>IF('H(C)'!F13&gt;0,'I(x)'!F62/'H(C)'!F13,0)</f>
+        <v>0.46318989379666331</v>
+      </c>
+      <c r="T71">
+        <f>IF('H(C)'!G13&gt;0,'I(x)'!G62/'H(C)'!G13,0)</f>
+        <v>0.45690818604087013</v>
+      </c>
+      <c r="U71">
+        <f>IF('H(C)'!H13&gt;0,'I(x)'!H62/'H(C)'!H13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V71" t="e">
+        <f>IF('H(C)'!J13&gt;0,'I(x)'!J62/'H(C)'!J13,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W71">
+        <f>IF('H(C)'!K13&gt;0,'I(x)'!K62/'H(C)'!K13,0)</f>
+        <v>0.44115531277274861</v>
+      </c>
+      <c r="X71">
+        <f>IF('H(C)'!L13&gt;0,'I(x)'!L62/'H(C)'!L13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <f>IF('H(C)'!M13&gt;0,'I(x)'!M62/'H(C)'!M13,0)</f>
+        <v>0.25197169661704649</v>
+      </c>
+      <c r="Z71">
+        <f>IF('H(C)'!N13&gt;0,'I(x)'!N62/'H(C)'!N13,0)</f>
+        <v>0.37312124962796661</v>
+      </c>
+      <c r="AA71">
+        <f>IF('H(C)'!O13&gt;0,'I(x)'!O62/'H(C)'!O13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <f>IF('H(Y)'!D14&gt;0,'I(x)'!D63/'H(Y)'!D14,0)</f>
+        <v>0.42901393983430947</v>
+      </c>
+      <c r="E72">
+        <f>IF('H(Y)'!E14&gt;0,'I(x)'!E63/'H(Y)'!E14,0)</f>
+        <v>0.49836885484576182</v>
+      </c>
+      <c r="F72">
+        <f>IF('H(Y)'!F14&gt;0,'I(x)'!F63/'H(Y)'!F14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <f>IF('H(Y)'!G14&gt;0,'I(x)'!G63/'H(Y)'!G14,0)</f>
+        <v>0.4056485579909348</v>
+      </c>
+      <c r="H72">
+        <f>IF('H(Y)'!H14&gt;0,'I(x)'!H63/'H(Y)'!H14,0)</f>
+        <v>0.38303279721786276</v>
+      </c>
+      <c r="J72" t="e">
+        <f>IF('H(Y)'!J14&gt;0,'I(x)'!J63/'H(Y)'!J14,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K72">
+        <f>IF('H(Y)'!K14&gt;0,'I(x)'!K63/'H(Y)'!K14,0)</f>
+        <v>0.33810506060774181</v>
+      </c>
+      <c r="L72">
+        <f>IF('H(Y)'!L14&gt;0,'I(x)'!L63/'H(Y)'!L14,0)</f>
+        <v>0.41686909807684558</v>
+      </c>
+      <c r="M72">
+        <f>IF('H(Y)'!M14&gt;0,'I(x)'!M63/'H(Y)'!M14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <f>IF('H(Y)'!N14&gt;0,'I(x)'!N63/'H(Y)'!N14,0)</f>
+        <v>0.46427021507604144</v>
+      </c>
+      <c r="O72">
+        <f>IF('H(Y)'!O14&gt;0,'I(x)'!O63/'H(Y)'!O14,0)</f>
+        <v>0.37982735110634891</v>
+      </c>
+      <c r="Q72">
+        <f>IF('H(C)'!D14&gt;0,'I(x)'!D63/'H(C)'!D14,0)</f>
+        <v>0.44156148792713362</v>
+      </c>
+      <c r="R72">
+        <f>IF('H(C)'!E14&gt;0,'I(x)'!E63/'H(C)'!E14,0)</f>
+        <v>0.56021037607556634</v>
+      </c>
+      <c r="S72">
+        <f>IF('H(C)'!F14&gt;0,'I(x)'!F63/'H(C)'!F14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <f>IF('H(C)'!G14&gt;0,'I(x)'!G63/'H(C)'!G14,0)</f>
+        <v>0.4005568704285099</v>
+      </c>
+      <c r="U72">
+        <f>IF('H(C)'!H14&gt;0,'I(x)'!H63/'H(C)'!H14,0)</f>
+        <v>0.42287343354655177</v>
+      </c>
+      <c r="V72" t="e">
+        <f>IF('H(C)'!J14&gt;0,'I(x)'!J63/'H(C)'!J14,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W72">
+        <f>IF('H(C)'!K14&gt;0,'I(x)'!K63/'H(C)'!K14,0)</f>
+        <v>0.39792537860936822</v>
+      </c>
+      <c r="X72">
+        <f>IF('H(C)'!L14&gt;0,'I(x)'!L63/'H(C)'!L14,0)</f>
+        <v>0.4505735254516498</v>
+      </c>
+      <c r="Y72">
+        <f>IF('H(C)'!M14&gt;0,'I(x)'!M63/'H(C)'!M14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <f>IF('H(C)'!N14&gt;0,'I(x)'!N63/'H(C)'!N14,0)</f>
+        <v>0.49449661007861584</v>
+      </c>
+      <c r="AA72">
+        <f>IF('H(C)'!O14&gt;0,'I(x)'!O63/'H(C)'!O14,0)</f>
+        <v>0.38303523358454267</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <f>IF('H(Y)'!D15&gt;0,'I(x)'!D64/'H(Y)'!D15,0)</f>
+        <v>0.43501255634497588</v>
+      </c>
+      <c r="E73">
+        <f>IF('H(Y)'!E15&gt;0,'I(x)'!E64/'H(Y)'!E15,0)</f>
+        <v>0.57422404477811906</v>
+      </c>
+      <c r="F73">
+        <f>IF('H(Y)'!F15&gt;0,'I(x)'!F64/'H(Y)'!F15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <f>IF('H(Y)'!G15&gt;0,'I(x)'!G64/'H(Y)'!G15,0)</f>
+        <v>0.50678852963926757</v>
+      </c>
+      <c r="H73">
+        <f>IF('H(Y)'!H15&gt;0,'I(x)'!H64/'H(Y)'!H15,0)</f>
+        <v>0.35605233988749035</v>
+      </c>
+      <c r="J73" t="e">
+        <f>IF('H(Y)'!J15&gt;0,'I(x)'!J64/'H(Y)'!J15,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K73">
+        <f>IF('H(Y)'!K15&gt;0,'I(x)'!K64/'H(Y)'!K15,0)</f>
+        <v>0.32156336466327895</v>
+      </c>
+      <c r="L73">
+        <f>IF('H(Y)'!L15&gt;0,'I(x)'!L64/'H(Y)'!L15,0)</f>
+        <v>0.44849852729804096</v>
+      </c>
+      <c r="M73">
+        <f>IF('H(Y)'!M15&gt;0,'I(x)'!M64/'H(Y)'!M15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <f>IF('H(Y)'!N15&gt;0,'I(x)'!N64/'H(Y)'!N15,0)</f>
+        <v>0.41555734447399317</v>
+      </c>
+      <c r="O73">
+        <f>IF('H(Y)'!O15&gt;0,'I(x)'!O64/'H(Y)'!O15,0)</f>
+        <v>0.32658697195499875</v>
+      </c>
+      <c r="Q73">
+        <f>IF('H(C)'!D15&gt;0,'I(x)'!D64/'H(C)'!D15,0)</f>
+        <v>0.52804544402252018</v>
+      </c>
+      <c r="R73">
+        <f>IF('H(C)'!E15&gt;0,'I(x)'!E64/'H(C)'!E15,0)</f>
+        <v>0.60267011732376974</v>
+      </c>
+      <c r="S73">
+        <f>IF('H(C)'!F15&gt;0,'I(x)'!F64/'H(C)'!F15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <f>IF('H(C)'!G15&gt;0,'I(x)'!G64/'H(C)'!G15,0)</f>
+        <v>0.48045021475939781</v>
+      </c>
+      <c r="U73">
+        <f>IF('H(C)'!H15&gt;0,'I(x)'!H64/'H(C)'!H15,0)</f>
+        <v>0.35874279694973632</v>
+      </c>
+      <c r="V73" t="e">
+        <f>IF('H(C)'!J15&gt;0,'I(x)'!J64/'H(C)'!J15,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W73">
+        <f>IF('H(C)'!K15&gt;0,'I(x)'!K64/'H(C)'!K15,0)</f>
+        <v>0.3090856855706321</v>
+      </c>
+      <c r="X73">
+        <f>IF('H(C)'!L15&gt;0,'I(x)'!L64/'H(C)'!L15,0)</f>
+        <v>0.44362101988775726</v>
+      </c>
+      <c r="Y73">
+        <f>IF('H(C)'!M15&gt;0,'I(x)'!M64/'H(C)'!M15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <f>IF('H(C)'!N15&gt;0,'I(x)'!N64/'H(C)'!N15,0)</f>
+        <v>0.40575675479558865</v>
+      </c>
+      <c r="AA73">
+        <f>IF('H(C)'!O15&gt;0,'I(x)'!O64/'H(C)'!O15,0)</f>
+        <v>0.35077058628152519</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <f>IF('H(Y)'!D16&gt;0,'I(x)'!D65/'H(Y)'!D16,0)</f>
         <v>0.43624013895881392</v>
       </c>
-      <c r="E71">
-        <f>IF('H(Y)'!E16&gt;0,'I(x)'!E64/'H(Y)'!E16,0)</f>
+      <c r="E74">
+        <f>IF('H(Y)'!E16&gt;0,'I(x)'!E65/'H(Y)'!E16,0)</f>
         <v>0.38878954811453054</v>
       </c>
-      <c r="F71">
-        <f>IF('H(Y)'!F16&gt;0,'I(x)'!F64/'H(Y)'!F16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <f>IF('H(Y)'!G16&gt;0,'I(x)'!G64/'H(Y)'!G16,0)</f>
+      <c r="F74">
+        <f>IF('H(Y)'!F16&gt;0,'I(x)'!F65/'H(Y)'!F16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f>IF('H(Y)'!G16&gt;0,'I(x)'!G65/'H(Y)'!G16,0)</f>
         <v>0.36300264577840491</v>
       </c>
-      <c r="H71">
-        <f>IF('H(Y)'!H16&gt;0,'I(x)'!H64/'H(Y)'!H16,0)</f>
+      <c r="H74">
+        <f>IF('H(Y)'!H16&gt;0,'I(x)'!H65/'H(Y)'!H16,0)</f>
         <v>0.42899456083383569</v>
       </c>
-      <c r="I71">
-        <f>IF('H(Y)'!I16&gt;0,'I(x)'!I64/'H(Y)'!I16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J71" t="e">
-        <f>IF('H(Y)'!J16&gt;0,'I(x)'!J64/'H(Y)'!J16,0)</f>
+      <c r="J74" t="e">
+        <f>IF('H(Y)'!J16&gt;0,'I(x)'!J65/'H(Y)'!J16,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K71">
-        <f>IF('H(Y)'!K16&gt;0,'I(x)'!K64/'H(Y)'!K16,0)</f>
+      <c r="K74">
+        <f>IF('H(Y)'!K16&gt;0,'I(x)'!K65/'H(Y)'!K16,0)</f>
         <v>0.28520433219532593</v>
       </c>
-      <c r="L71">
-        <f>IF('H(Y)'!L16&gt;0,'I(x)'!L64/'H(Y)'!L16,0)</f>
+      <c r="L74">
+        <f>IF('H(Y)'!L16&gt;0,'I(x)'!L65/'H(Y)'!L16,0)</f>
         <v>0.36557782205274558</v>
       </c>
-      <c r="M71">
-        <f>IF('H(Y)'!M16&gt;0,'I(x)'!M64/'H(Y)'!M16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <f>IF('H(Y)'!N16&gt;0,'I(x)'!N64/'H(Y)'!N16,0)</f>
+      <c r="M74">
+        <f>IF('H(Y)'!M16&gt;0,'I(x)'!M65/'H(Y)'!M16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <f>IF('H(Y)'!N16&gt;0,'I(x)'!N65/'H(Y)'!N16,0)</f>
         <v>0.18821130881137932</v>
       </c>
-      <c r="O71">
-        <f>IF('H(Y)'!O16&gt;0,'I(x)'!O64/'H(Y)'!O16,0)</f>
+      <c r="O74">
+        <f>IF('H(Y)'!O16&gt;0,'I(x)'!O65/'H(Y)'!O16,0)</f>
         <v>0.37001979908042443</v>
       </c>
-      <c r="Q71">
-        <f>IF('H(C)'!D16&gt;0,'I(x)'!D64/'H(C)'!D16,0)</f>
+      <c r="Q74">
+        <f>IF('H(C)'!D16&gt;0,'I(x)'!D65/'H(C)'!D16,0)</f>
         <v>0.44772382347100803</v>
       </c>
-      <c r="R71">
-        <f>IF('H(C)'!E16&gt;0,'I(x)'!E64/'H(C)'!E16,0)</f>
-        <v>0.43962965624414141</v>
-      </c>
-      <c r="S71">
-        <f>IF('H(C)'!F16&gt;0,'I(x)'!F64/'H(C)'!F16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T71">
-        <f>IF('H(C)'!G16&gt;0,'I(x)'!G64/'H(C)'!G16,0)</f>
+      <c r="R74">
+        <f>IF('H(C)'!E16&gt;0,'I(x)'!E65/'H(C)'!E16,0)</f>
+        <v>0.40340528267857784</v>
+      </c>
+      <c r="S74">
+        <f>IF('H(C)'!F16&gt;0,'I(x)'!F65/'H(C)'!F16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <f>IF('H(C)'!G16&gt;0,'I(x)'!G65/'H(C)'!G16,0)</f>
         <v>0.37875821388217296</v>
       </c>
-      <c r="U71">
-        <f>IF('H(C)'!H16&gt;0,'I(x)'!H64/'H(C)'!H16,0)</f>
+      <c r="U74">
+        <f>IF('H(C)'!H16&gt;0,'I(x)'!H65/'H(C)'!H16,0)</f>
         <v>0.43892917596714737</v>
       </c>
-      <c r="V71" t="e">
-        <f>IF('H(C)'!J16&gt;0,'I(x)'!J64/'H(C)'!J16,0)</f>
+      <c r="V74" t="e">
+        <f>IF('H(C)'!J16&gt;0,'I(x)'!J65/'H(C)'!J16,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="W71">
-        <f>IF('H(C)'!K16&gt;0,'I(x)'!K64/'H(C)'!K16,0)</f>
+      <c r="W74">
+        <f>IF('H(C)'!K16&gt;0,'I(x)'!K65/'H(C)'!K16,0)</f>
         <v>0.31324021815216457</v>
       </c>
-      <c r="X71">
-        <f>IF('H(C)'!L16&gt;0,'I(x)'!L64/'H(C)'!L16,0)</f>
+      <c r="X74">
+        <f>IF('H(C)'!L16&gt;0,'I(x)'!L65/'H(C)'!L16,0)</f>
         <v>0.41337910641008363</v>
       </c>
-      <c r="Y71">
-        <f>IF('H(C)'!M16&gt;0,'I(x)'!M64/'H(C)'!M16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z71">
-        <f>IF('H(C)'!N16&gt;0,'I(x)'!N64/'H(C)'!N16,0)</f>
+      <c r="Y74">
+        <f>IF('H(C)'!M16&gt;0,'I(x)'!M65/'H(C)'!M16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <f>IF('H(C)'!N16&gt;0,'I(x)'!N65/'H(C)'!N16,0)</f>
         <v>0.37408265944260355</v>
       </c>
-      <c r="AA71">
-        <f>IF('H(C)'!O16&gt;0,'I(x)'!O64/'H(C)'!O16,0)</f>
+      <c r="AA74">
+        <f>IF('H(C)'!O16&gt;0,'I(x)'!O65/'H(C)'!O16,0)</f>
         <v>0.43379969611923708</v>
-      </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>2</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="77" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
+      <c r="C80" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
         <v>13</v>
       </c>
-      <c r="J80" t="s">
+      <c r="J83" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" t="s">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" t="s">
         <v>8</v>
       </c>
-      <c r="F81" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="F84" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" t="s">
         <v>9</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H84" t="s">
         <v>10</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I84" t="s">
         <v>11</v>
       </c>
-      <c r="K81" t="s">
-        <v>4</v>
-      </c>
-      <c r="L81" t="s">
+      <c r="K84" t="s">
+        <v>4</v>
+      </c>
+      <c r="L84" t="s">
         <v>8</v>
       </c>
-      <c r="M81" t="s">
-        <v>6</v>
-      </c>
-      <c r="N81" t="s">
+      <c r="M84" t="s">
+        <v>6</v>
+      </c>
+      <c r="N84" t="s">
         <v>9</v>
       </c>
-      <c r="O81" t="s">
+      <c r="O84" t="s">
         <v>10</v>
       </c>
-      <c r="P81" t="s">
+      <c r="P84" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
-        <v>4</v>
-      </c>
-      <c r="D82">
+    <row r="85" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85">
         <v>2.1252441000000002</v>
       </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="J82" t="s">
-        <v>4</v>
-      </c>
-      <c r="K82">
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="J85" t="s">
+        <v>4</v>
+      </c>
+      <c r="K85">
         <v>1.3734388</v>
       </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83">
-        <v>1.1523570999999999</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>1.2964327</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
         <v>1.5306895</v>
       </c>
-      <c r="G83">
-        <v>0.99522995999999997</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="J83" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83">
-        <v>1.0580239</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
+      <c r="G86">
+        <v>1.3399346000000001</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="J86" t="s">
+        <v>5</v>
+      </c>
+      <c r="K86">
+        <v>1.4002669000000001</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
         <v>0.62879574000000005</v>
       </c>
-      <c r="N83">
-        <v>1.1159523</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84">
-        <v>1.1523570999999999</v>
-      </c>
-      <c r="E84">
+      <c r="N86">
+        <v>1.1459973000000001</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <v>2.2864258</v>
+      </c>
+      <c r="E87">
         <v>1.9336395</v>
       </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>1.0465422</v>
-      </c>
-      <c r="H84">
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>1.3658485</v>
+      </c>
+      <c r="H87">
         <v>1.4197507</v>
       </c>
-      <c r="J84" t="s">
-        <v>5</v>
-      </c>
-      <c r="K84">
-        <v>1.0580239</v>
-      </c>
-      <c r="L84">
+      <c r="J87" t="s">
+        <v>5</v>
+      </c>
+      <c r="K87">
+        <v>1.2641926000000001</v>
+      </c>
+      <c r="L87">
         <v>1.6200254000000001</v>
       </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="N84">
-        <v>1.1157138</v>
-      </c>
-      <c r="O84">
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>1.8474056999999999</v>
+      </c>
+      <c r="O87">
         <v>1.3763529999999999</v>
       </c>
     </row>
-    <row r="85" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85">
+    <row r="88" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88">
         <v>1.5783815000000001</v>
       </c>
-      <c r="E85">
+      <c r="E88">
         <v>1.7684309</v>
       </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
         <v>1.4572737</v>
       </c>
-      <c r="H85">
-        <v>0.27250122999999998</v>
-      </c>
-      <c r="J85" t="s">
-        <v>6</v>
-      </c>
-      <c r="K85">
+      <c r="H88">
+        <v>1.0321183</v>
+      </c>
+      <c r="J88" t="s">
+        <v>6</v>
+      </c>
+      <c r="K88">
         <v>1.3281350000000001</v>
       </c>
-      <c r="L85">
+      <c r="L88">
         <v>1.2221084</v>
       </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-      <c r="N85">
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
         <v>1.4315089999999999</v>
       </c>
-      <c r="O85">
-        <v>0.3118341</v>
-      </c>
-    </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
+      <c r="O88">
+        <v>1.3267667000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
         <v>7</v>
       </c>
-      <c r="D86">
+      <c r="D89">
         <v>2.2099802</v>
       </c>
-      <c r="E86">
+      <c r="E89">
         <v>1.8862734000000001</v>
       </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
         <v>1.5602906000000001</v>
       </c>
-      <c r="H86">
+      <c r="H89">
         <v>1.4753522999999999</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J89" t="s">
         <v>7</v>
       </c>
-      <c r="K86">
+      <c r="K89">
         <v>1.8039978000000001</v>
       </c>
-      <c r="L86">
+      <c r="L89">
         <v>1.9622231000000001</v>
       </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-      <c r="N86">
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
         <v>2.0776626999999999</v>
       </c>
-      <c r="O86">
+      <c r="O89">
         <v>1.7056941999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
         <v>12</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J90" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D89">
-        <f>IF('H(Y)'!D12&gt;0,'I(x)'!D82/'H(Y)'!D12,0)</f>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <f>IF('H(Y)'!D12&gt;0,'I(x)'!D85/'H(Y)'!D12,0)</f>
         <v>0.62390206948766203</v>
       </c>
-      <c r="E89">
-        <f>IF('H(Y)'!E12&gt;0,'I(x)'!E82/'H(Y)'!E12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <f>IF('H(Y)'!F12&gt;0,'I(x)'!F82/'H(Y)'!F12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <f>IF('H(Y)'!G12&gt;0,'I(x)'!G82/'H(Y)'!G12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <f>IF('H(Y)'!H12&gt;0,'I(x)'!H82/'H(Y)'!H12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <f>IF('H(Y)'!I12&gt;0,'I(x)'!I82/'H(Y)'!I12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J89" t="e">
-        <f>IF('H(Y)'!J12&gt;0,'I(x)'!J82/'H(Y)'!J12,0)</f>
+      <c r="E94">
+        <f>IF('H(Y)'!E12&gt;0,'I(x)'!E85/'H(Y)'!E12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <f>IF('H(Y)'!F12&gt;0,'I(x)'!F85/'H(Y)'!F12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f>IF('H(Y)'!G12&gt;0,'I(x)'!G85/'H(Y)'!G12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <f>IF('H(Y)'!H12&gt;0,'I(x)'!H85/'H(Y)'!H12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J94" t="e">
+        <f>IF('H(Y)'!J12&gt;0,'I(x)'!J85/'H(Y)'!J12,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K89">
-        <f>IF('H(Y)'!K12&gt;0,'I(x)'!K82/'H(Y)'!K12,0)</f>
+      <c r="K94">
+        <f>IF('H(Y)'!K12&gt;0,'I(x)'!K85/'H(Y)'!K12,0)</f>
         <v>0.50865017892618214</v>
       </c>
-      <c r="L89">
-        <f>IF('H(Y)'!L12&gt;0,'I(x)'!L82/'H(Y)'!L12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M89">
-        <f>IF('H(Y)'!M12&gt;0,'I(x)'!M82/'H(Y)'!M12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N89">
-        <f>IF('H(Y)'!N12&gt;0,'I(x)'!N82/'H(Y)'!N12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O89">
-        <f>IF('H(Y)'!O12&gt;0,'I(x)'!O82/'H(Y)'!O12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q89">
-        <f>IF('H(R) '!D12&gt;0,'I(x)'!D82/'H(R) '!D12,0)</f>
+      <c r="L94">
+        <f>IF('H(Y)'!L12&gt;0,'I(x)'!L85/'H(Y)'!L12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <f>IF('H(Y)'!M12&gt;0,'I(x)'!M85/'H(Y)'!M12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <f>IF('H(Y)'!N12&gt;0,'I(x)'!N85/'H(Y)'!N12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <f>IF('H(Y)'!O12&gt;0,'I(x)'!O85/'H(Y)'!O12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <f>IF('H(R) '!D12&gt;0,'I(x)'!D85/'H(R) '!D12,0)</f>
         <v>0.64495382357546827</v>
       </c>
-      <c r="R89">
-        <f>IF('H(R) '!E12&gt;0,'I(x)'!E82/'H(R) '!E12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S89">
-        <f>IF('H(R) '!F12&gt;0,'I(x)'!F82/'H(R) '!F12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T89">
-        <f>IF('H(R) '!G12&gt;0,'I(x)'!G82/'H(R) '!G12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U89">
-        <f>IF('H(R) '!H12&gt;0,'I(x)'!H82/'H(R) '!H12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V89" t="e">
-        <f>IF('H(R) '!J12&gt;0,'I(x)'!J82/'H(R) '!J12,0)</f>
+      <c r="R94">
+        <f>IF('H(R) '!E12&gt;0,'I(x)'!E85/'H(R) '!E12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <f>IF('H(R) '!F12&gt;0,'I(x)'!F85/'H(R) '!F12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <f>IF('H(R) '!G12&gt;0,'I(x)'!G85/'H(R) '!G12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <f>IF('H(R) '!H12&gt;0,'I(x)'!H85/'H(R) '!H12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V94" t="e">
+        <f>IF('H(R) '!J12&gt;0,'I(x)'!J85/'H(R) '!J12,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="W89">
-        <f>IF('H(R) '!K12&gt;0,'I(x)'!K82/'H(R) '!K12,0)</f>
+      <c r="W94">
+        <f>IF('H(R) '!K12&gt;0,'I(x)'!K85/'H(R) '!K12,0)</f>
         <v>0.54200851853572174</v>
       </c>
-      <c r="X89">
-        <f>IF('H(R) '!L12&gt;0,'I(x)'!L82/'H(R) '!L12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y89">
-        <f>IF('H(R) '!M12&gt;0,'I(x)'!M82/'H(R) '!M12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z89">
-        <f>IF('H(R) '!N12&gt;0,'I(x)'!N82/'H(R) '!N12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA89">
-        <f>IF('H(R) '!O12&gt;0,'I(x)'!O82/'H(R) '!O12,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D90">
-        <f>IF('H(Y)'!D13&gt;0,'I(x)'!D83/'H(Y)'!D13,0)</f>
-        <v>0.39104109949485477</v>
-      </c>
-      <c r="E90">
-        <f>IF('H(Y)'!E13&gt;0,'I(x)'!E83/'H(Y)'!E13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <f>IF('H(Y)'!F13&gt;0,'I(x)'!F83/'H(Y)'!F13,0)</f>
+      <c r="X94">
+        <f>IF('H(R) '!L12&gt;0,'I(x)'!L85/'H(R) '!L12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y94">
+        <f>IF('H(R) '!M12&gt;0,'I(x)'!M85/'H(R) '!M12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <f>IF('H(R) '!N12&gt;0,'I(x)'!N85/'H(R) '!N12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <f>IF('H(R) '!O12&gt;0,'I(x)'!O85/'H(R) '!O12,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <f>IF('H(Y)'!D13&gt;0,'I(x)'!D86/'H(Y)'!D13,0)</f>
+        <v>0.43993174375294186</v>
+      </c>
+      <c r="E95">
+        <f>IF('H(Y)'!E13&gt;0,'I(x)'!E86/'H(Y)'!E13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <f>IF('H(Y)'!F13&gt;0,'I(x)'!F86/'H(Y)'!F13,0)</f>
         <v>0.46041525126431582</v>
       </c>
-      <c r="G90">
-        <f>IF('H(Y)'!G13&gt;0,'I(x)'!G83/'H(Y)'!G13,0)</f>
-        <v>0.29672622320152708</v>
-      </c>
-      <c r="H90">
-        <f>IF('H(Y)'!H13&gt;0,'I(x)'!H83/'H(Y)'!H13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <f>IF('H(Y)'!I13&gt;0,'I(x)'!I83/'H(Y)'!I13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J90" t="e">
-        <f>IF('H(Y)'!J13&gt;0,'I(x)'!J83/'H(Y)'!J13,0)</f>
+      <c r="G95">
+        <f>IF('H(Y)'!G13&gt;0,'I(x)'!G86/'H(Y)'!G13,0)</f>
+        <v>0.39949936112760204</v>
+      </c>
+      <c r="H95">
+        <f>IF('H(Y)'!H13&gt;0,'I(x)'!H86/'H(Y)'!H13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J95" t="e">
+        <f>IF('H(Y)'!J13&gt;0,'I(x)'!J86/'H(Y)'!J13,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K90">
-        <f>IF('H(Y)'!K13&gt;0,'I(x)'!K83/'H(Y)'!K13,0)</f>
-        <v>0.3216481816875964</v>
-      </c>
-      <c r="L90">
-        <f>IF('H(Y)'!L13&gt;0,'I(x)'!L83/'H(Y)'!L13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M90">
-        <f>IF('H(Y)'!M13&gt;0,'I(x)'!M83/'H(Y)'!M13,0)</f>
+      <c r="K95">
+        <f>IF('H(Y)'!K13&gt;0,'I(x)'!K86/'H(Y)'!K13,0)</f>
+        <v>0.42569293780823608</v>
+      </c>
+      <c r="L95">
+        <f>IF('H(Y)'!L13&gt;0,'I(x)'!L86/'H(Y)'!L13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <f>IF('H(Y)'!M13&gt;0,'I(x)'!M86/'H(Y)'!M13,0)</f>
         <v>0.30207782236541125</v>
       </c>
-      <c r="N90">
-        <f>IF('H(Y)'!N13&gt;0,'I(x)'!N83/'H(Y)'!N13,0)</f>
-        <v>0.35131154676304516</v>
-      </c>
-      <c r="O90">
-        <f>IF('H(Y)'!O13&gt;0,'I(x)'!O83/'H(Y)'!O13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q90">
-        <f>IF('H(R) '!D13&gt;0,'I(x)'!D83/'H(R) '!D13,0)</f>
-        <v>0.47471066453069122</v>
-      </c>
-      <c r="R90">
-        <f>IF('H(R) '!E13&gt;0,'I(x)'!E83/'H(R) '!E13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S90">
-        <f>IF('H(R) '!F13&gt;0,'I(x)'!F83/'H(R) '!F13,0)</f>
+      <c r="N95">
+        <f>IF('H(Y)'!N13&gt;0,'I(x)'!N86/'H(Y)'!N13,0)</f>
+        <v>0.36076997560672941</v>
+      </c>
+      <c r="O95">
+        <f>IF('H(Y)'!O13&gt;0,'I(x)'!O86/'H(Y)'!O13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <f>IF('H(R) '!D13&gt;0,'I(x)'!D86/'H(R) '!D13,0)</f>
+        <v>0.46009182085333811</v>
+      </c>
+      <c r="R95">
+        <f>IF('H(R) '!E13&gt;0,'I(x)'!E86/'H(R) '!E13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <f>IF('H(R) '!F13&gt;0,'I(x)'!F86/'H(R) '!F13,0)</f>
         <v>0.49400061234937714</v>
       </c>
-      <c r="T90">
-        <f>IF('H(R) '!G13&gt;0,'I(x)'!G83/'H(R) '!G13,0)</f>
-        <v>0.39230912776365218</v>
-      </c>
-      <c r="U90">
-        <f>IF('H(R) '!H13&gt;0,'I(x)'!H83/'H(R) '!H13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V90" t="e">
-        <f>IF('H(R) '!J13&gt;0,'I(x)'!J83/'H(R) '!J13,0)</f>
+      <c r="T95">
+        <f>IF('H(R) '!G13&gt;0,'I(x)'!G86/'H(R) '!G13,0)</f>
+        <v>0.45080807927880651</v>
+      </c>
+      <c r="U95">
+        <f>IF('H(R) '!H13&gt;0,'I(x)'!H86/'H(R) '!H13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V95" t="e">
+        <f>IF('H(R) '!J13&gt;0,'I(x)'!J86/'H(R) '!J13,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="W90">
-        <f>IF('H(R) '!K13&gt;0,'I(x)'!K83/'H(R) '!K13,0)</f>
-        <v>0.49922909067711202</v>
-      </c>
-      <c r="X90">
-        <f>IF('H(R) '!L13&gt;0,'I(x)'!L83/'H(R) '!L13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y90">
-        <f>IF('H(R) '!M13&gt;0,'I(x)'!M83/'H(R) '!M13,0)</f>
+      <c r="W95">
+        <f>IF('H(R) '!K13&gt;0,'I(x)'!K86/'H(R) '!K13,0)</f>
+        <v>0.50685099350644935</v>
+      </c>
+      <c r="X95">
+        <f>IF('H(R) '!L13&gt;0,'I(x)'!L86/'H(R) '!L13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <f>IF('H(R) '!M13&gt;0,'I(x)'!M86/'H(R) '!M13,0)</f>
         <v>0.3788525233658937</v>
       </c>
-      <c r="Z90">
-        <f>IF('H(R) '!N13&gt;0,'I(x)'!N83/'H(R) '!N13,0)</f>
-        <v>0.49615104159048284</v>
-      </c>
-      <c r="AA90">
-        <f>IF('H(R) '!O13&gt;0,'I(x)'!O83/'H(R) '!O13,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D91">
-        <f>IF('H(Y)'!D14&gt;0,'I(x)'!D84/'H(Y)'!D14,0)</f>
-        <v>0.30570093514967406</v>
-      </c>
-      <c r="E91">
-        <f>IF('H(Y)'!E14&gt;0,'I(x)'!E84/'H(Y)'!E14,0)</f>
+      <c r="Z95">
+        <f>IF('H(R) '!N13&gt;0,'I(x)'!N86/'H(R) '!N13,0)</f>
+        <v>0.44792468499993632</v>
+      </c>
+      <c r="AA95">
+        <f>IF('H(R) '!O13&gt;0,'I(x)'!O86/'H(R) '!O13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <f>IF('H(Y)'!D14&gt;0,'I(x)'!D87/'H(Y)'!D14,0)</f>
+        <v>0.60655026572087911</v>
+      </c>
+      <c r="E96">
+        <f>IF('H(Y)'!E14&gt;0,'I(x)'!E87/'H(Y)'!E14,0)</f>
         <v>0.58540530466399499</v>
       </c>
-      <c r="F91">
-        <f>IF('H(Y)'!F14&gt;0,'I(x)'!F84/'H(Y)'!F14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <f>IF('H(Y)'!G14&gt;0,'I(x)'!G84/'H(Y)'!G14,0)</f>
-        <v>0.33913493714412518</v>
-      </c>
-      <c r="H91">
-        <f>IF('H(Y)'!H14&gt;0,'I(x)'!H84/'H(Y)'!H14,0)</f>
+      <c r="F96">
+        <f>IF('H(Y)'!F14&gt;0,'I(x)'!F87/'H(Y)'!F14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <f>IF('H(Y)'!G14&gt;0,'I(x)'!G87/'H(Y)'!G14,0)</f>
+        <v>0.44260703982686767</v>
+      </c>
+      <c r="H96">
+        <f>IF('H(Y)'!H14&gt;0,'I(x)'!H87/'H(Y)'!H14,0)</f>
         <v>0.44431685304337254</v>
       </c>
-      <c r="I91">
-        <f>IF('H(Y)'!I14&gt;0,'I(x)'!I84/'H(Y)'!I14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J91" t="e">
-        <f>IF('H(Y)'!J14&gt;0,'I(x)'!J84/'H(Y)'!J14,0)</f>
+      <c r="J96" t="e">
+        <f>IF('H(Y)'!J14&gt;0,'I(x)'!J87/'H(Y)'!J14,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K91">
-        <f>IF('H(Y)'!K14&gt;0,'I(x)'!K84/'H(Y)'!K14,0)</f>
-        <v>0.38542228158935088</v>
-      </c>
-      <c r="L91">
-        <f>IF('H(Y)'!L14&gt;0,'I(x)'!L84/'H(Y)'!L14,0)</f>
+      <c r="K96">
+        <f>IF('H(Y)'!K14&gt;0,'I(x)'!K87/'H(Y)'!K14,0)</f>
+        <v>0.46052645527229924</v>
+      </c>
+      <c r="L96">
+        <f>IF('H(Y)'!L14&gt;0,'I(x)'!L87/'H(Y)'!L14,0)</f>
         <v>0.45912852367469031</v>
       </c>
-      <c r="M91">
-        <f>IF('H(Y)'!M14&gt;0,'I(x)'!M84/'H(Y)'!M14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N91">
-        <f>IF('H(Y)'!N14&gt;0,'I(x)'!N84/'H(Y)'!N14,0)</f>
-        <v>0.32844600419776881</v>
-      </c>
-      <c r="O91">
-        <f>IF('H(Y)'!O14&gt;0,'I(x)'!O84/'H(Y)'!O14,0)</f>
+      <c r="M96">
+        <f>IF('H(Y)'!M14&gt;0,'I(x)'!M87/'H(Y)'!M14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <f>IF('H(Y)'!N14&gt;0,'I(x)'!N87/'H(Y)'!N14,0)</f>
+        <v>0.54384289259233154</v>
+      </c>
+      <c r="O96">
+        <f>IF('H(Y)'!O14&gt;0,'I(x)'!O87/'H(Y)'!O14,0)</f>
         <v>0.42259165422986655</v>
       </c>
-      <c r="Q91">
-        <f>IF('H(R) '!D14&gt;0,'I(x)'!D84/'H(R) '!D14,0)</f>
-        <v>0.47471066453069122</v>
-      </c>
-      <c r="R91">
-        <f>IF('H(R) '!E14&gt;0,'I(x)'!E84/'H(R) '!E14,0)</f>
+      <c r="Q96">
+        <f>IF('H(R) '!D14&gt;0,'I(x)'!D87/'H(R) '!D14,0)</f>
+        <v>0.61161257926076817</v>
+      </c>
+      <c r="R96">
+        <f>IF('H(R) '!E14&gt;0,'I(x)'!E87/'H(R) '!E14,0)</f>
         <v>0.64686737388852888</v>
       </c>
-      <c r="S91">
-        <f>IF('H(R) '!F14&gt;0,'I(x)'!F84/'H(R) '!F14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T91">
-        <f>IF('H(R) '!G14&gt;0,'I(x)'!G84/'H(R) '!G14,0)</f>
-        <v>0.41259170431980879</v>
-      </c>
-      <c r="U91">
-        <f>IF('H(R) '!H14&gt;0,'I(x)'!H84/'H(R) '!H14,0)</f>
+      <c r="S96">
+        <f>IF('H(R) '!F14&gt;0,'I(x)'!F87/'H(R) '!F14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <f>IF('H(R) '!G14&gt;0,'I(x)'!G87/'H(R) '!G14,0)</f>
+        <v>0.43843480672542434</v>
+      </c>
+      <c r="U96">
+        <f>IF('H(R) '!H14&gt;0,'I(x)'!H87/'H(R) '!H14,0)</f>
         <v>0.48969399443513362</v>
       </c>
-      <c r="V91" t="e">
-        <f>IF('H(R) '!J14&gt;0,'I(x)'!J84/'H(R) '!J14,0)</f>
+      <c r="V96" t="e">
+        <f>IF('H(R) '!J14&gt;0,'I(x)'!J87/'H(R) '!J14,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="W91">
-        <f>IF('H(R) '!K14&gt;0,'I(x)'!K84/'H(R) '!K14,0)</f>
-        <v>0.49922909067711202</v>
-      </c>
-      <c r="X91">
-        <f>IF('H(R) '!L14&gt;0,'I(x)'!L84/'H(R) '!L14,0)</f>
+      <c r="W96">
+        <f>IF('H(R) '!K14&gt;0,'I(x)'!K87/'H(R) '!K14,0)</f>
+        <v>0.48609417239579544</v>
+      </c>
+      <c r="X96">
+        <f>IF('H(R) '!L14&gt;0,'I(x)'!L87/'H(R) '!L14,0)</f>
         <v>0.56212130706838415</v>
       </c>
-      <c r="Y91">
-        <f>IF('H(R) '!M14&gt;0,'I(x)'!M84/'H(R) '!M14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z91">
-        <f>IF('H(R) '!N14&gt;0,'I(x)'!N84/'H(R) '!N14,0)</f>
-        <v>0.49620199142782412</v>
-      </c>
-      <c r="AA91">
-        <f>IF('H(R) '!O14&gt;0,'I(x)'!O84/'H(R) '!O14,0)</f>
+      <c r="Y96">
+        <f>IF('H(R) '!M14&gt;0,'I(x)'!M87/'H(R) '!M14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <f>IF('H(R) '!N14&gt;0,'I(x)'!N87/'H(R) '!N14,0)</f>
+        <v>0.6412484333301538</v>
+      </c>
+      <c r="AA96">
+        <f>IF('H(R) '!O14&gt;0,'I(x)'!O87/'H(R) '!O14,0)</f>
         <v>0.51598896876585576</v>
       </c>
     </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D92">
-        <f>IF('H(Y)'!D15&gt;0,'I(x)'!D85/'H(Y)'!D15,0)</f>
+    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <f>IF('H(Y)'!D15&gt;0,'I(x)'!D88/'H(Y)'!D15,0)</f>
         <v>0.51660308933184773</v>
       </c>
-      <c r="E92">
-        <f>IF('H(Y)'!E15&gt;0,'I(x)'!E85/'H(Y)'!E15,0)</f>
+      <c r="E97">
+        <f>IF('H(Y)'!E15&gt;0,'I(x)'!E88/'H(Y)'!E15,0)</f>
         <v>0.60163721800789438</v>
       </c>
-      <c r="F92">
-        <f>IF('H(Y)'!F15&gt;0,'I(x)'!F85/'H(Y)'!F15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <f>IF('H(Y)'!G15&gt;0,'I(x)'!G85/'H(Y)'!G15,0)</f>
+      <c r="F97">
+        <f>IF('H(Y)'!F15&gt;0,'I(x)'!F88/'H(Y)'!F15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <f>IF('H(Y)'!G15&gt;0,'I(x)'!G88/'H(Y)'!G15,0)</f>
         <v>0.53452919939997257</v>
       </c>
-      <c r="H92">
-        <f>IF('H(Y)'!H15&gt;0,'I(x)'!H85/'H(Y)'!H15,0)</f>
-        <v>0.10897960278973726</v>
-      </c>
-      <c r="I92">
-        <f>IF('H(Y)'!I15&gt;0,'I(x)'!I85/'H(Y)'!I15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J92" t="e">
-        <f>IF('H(Y)'!J15&gt;0,'I(x)'!J85/'H(Y)'!J15,0)</f>
+      <c r="H97">
+        <f>IF('H(Y)'!H15&gt;0,'I(x)'!H88/'H(Y)'!H15,0)</f>
+        <v>0.4127682005913107</v>
+      </c>
+      <c r="J97" t="e">
+        <f>IF('H(Y)'!J15&gt;0,'I(x)'!J88/'H(Y)'!J15,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K92">
-        <f>IF('H(Y)'!K15&gt;0,'I(x)'!K85/'H(Y)'!K15,0)</f>
+      <c r="K97">
+        <f>IF('H(Y)'!K15&gt;0,'I(x)'!K88/'H(Y)'!K15,0)</f>
         <v>0.48461006775057713</v>
       </c>
-      <c r="L92">
-        <f>IF('H(Y)'!L15&gt;0,'I(x)'!L85/'H(Y)'!L15,0)</f>
+      <c r="L97">
+        <f>IF('H(Y)'!L15&gt;0,'I(x)'!L88/'H(Y)'!L15,0)</f>
         <v>0.43312351033967622</v>
       </c>
-      <c r="M92">
-        <f>IF('H(Y)'!M15&gt;0,'I(x)'!M85/'H(Y)'!M15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N92">
-        <f>IF('H(Y)'!N15&gt;0,'I(x)'!N85/'H(Y)'!N15,0)</f>
+      <c r="M97">
+        <f>IF('H(Y)'!M15&gt;0,'I(x)'!M88/'H(Y)'!M15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <f>IF('H(Y)'!N15&gt;0,'I(x)'!N88/'H(Y)'!N15,0)</f>
         <v>0.49968943702615753</v>
       </c>
-      <c r="O92">
-        <f>IF('H(Y)'!O15&gt;0,'I(x)'!O85/'H(Y)'!O15,0)</f>
-        <v>0.10464682789173964</v>
-      </c>
-      <c r="Q92">
-        <f>IF('H(R) '!D15&gt;0,'I(x)'!D85/'H(R) '!D15,0)</f>
+      <c r="O97">
+        <f>IF('H(Y)'!O15&gt;0,'I(x)'!O88/'H(Y)'!O15,0)</f>
+        <v>0.44524292406568544</v>
+      </c>
+      <c r="Q97">
+        <f>IF('H(R) '!D15&gt;0,'I(x)'!D88/'H(R) '!D15,0)</f>
         <v>0.56435333910231444</v>
       </c>
-      <c r="R92">
-        <f>IF('H(R) '!E15&gt;0,'I(x)'!E85/'H(R) '!E15,0)</f>
+      <c r="R97">
+        <f>IF('H(R) '!E15&gt;0,'I(x)'!E88/'H(R) '!E15,0)</f>
         <v>0.62703091406241884</v>
       </c>
-      <c r="S92">
-        <f>IF('H(R) '!F15&gt;0,'I(x)'!F85/'H(R) '!F15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T92">
-        <f>IF('H(R) '!G15&gt;0,'I(x)'!G85/'H(R) '!G15,0)</f>
+      <c r="S97">
+        <f>IF('H(R) '!F15&gt;0,'I(x)'!F88/'H(R) '!F15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <f>IF('H(R) '!G15&gt;0,'I(x)'!G88/'H(R) '!G15,0)</f>
         <v>0.50062870866311826</v>
       </c>
-      <c r="U92">
-        <f>IF('H(R) '!H15&gt;0,'I(x)'!H85/'H(R) '!H15,0)</f>
-        <v>0.10722184457569299</v>
-      </c>
-      <c r="V92" t="e">
-        <f>IF('H(R) '!J15&gt;0,'I(x)'!J85/'H(R) '!J15,0)</f>
+      <c r="U97">
+        <f>IF('H(R) '!H15&gt;0,'I(x)'!H88/'H(R) '!H15,0)</f>
+        <v>0.4065548430238084</v>
+      </c>
+      <c r="V97" t="e">
+        <f>IF('H(R) '!J15&gt;0,'I(x)'!J88/'H(R) '!J15,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="W92">
-        <f>IF('H(R) '!K15&gt;0,'I(x)'!K85/'H(R) '!K15,0)</f>
+      <c r="W97">
+        <f>IF('H(R) '!K15&gt;0,'I(x)'!K88/'H(R) '!K15,0)</f>
         <v>0.48707118804684507</v>
       </c>
-      <c r="X92">
-        <f>IF('H(R) '!L15&gt;0,'I(x)'!L85/'H(R) '!L15,0)</f>
+      <c r="X97">
+        <f>IF('H(R) '!L15&gt;0,'I(x)'!L88/'H(R) '!L15,0)</f>
         <v>0.44490160319287236</v>
       </c>
-      <c r="Y92">
-        <f>IF('H(R) '!M15&gt;0,'I(x)'!M85/'H(R) '!M15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z92">
-        <f>IF('H(R) '!N15&gt;0,'I(x)'!N85/'H(R) '!N15,0)</f>
+      <c r="Y97">
+        <f>IF('H(R) '!M15&gt;0,'I(x)'!M88/'H(R) '!M15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <f>IF('H(R) '!N15&gt;0,'I(x)'!N88/'H(R) '!N15,0)</f>
         <v>0.52997556648441513</v>
       </c>
-      <c r="AA92">
-        <f>IF('H(R) '!O15&gt;0,'I(x)'!O85/'H(R) '!O15,0)</f>
-        <v>0.10672749856731092</v>
-      </c>
-    </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D93">
-        <f>IF('H(Y)'!D16&gt;0,'I(x)'!D86/'H(Y)'!D16,0)</f>
+      <c r="AA97">
+        <f>IF('H(R) '!O15&gt;0,'I(x)'!O88/'H(R) '!O15,0)</f>
+        <v>0.45469394693196402</v>
+      </c>
+    </row>
+    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <f>IF('H(Y)'!D16&gt;0,'I(x)'!D89/'H(Y)'!D16,0)</f>
         <v>0.60953076356906244</v>
       </c>
-      <c r="E93">
-        <f>IF('H(Y)'!E16&gt;0,'I(x)'!E86/'H(Y)'!E16,0)</f>
+      <c r="E98">
+        <f>IF('H(Y)'!E16&gt;0,'I(x)'!E89/'H(Y)'!E16,0)</f>
         <v>0.55805914687904956</v>
       </c>
-      <c r="F93">
-        <f>IF('H(Y)'!F16&gt;0,'I(x)'!F86/'H(Y)'!F16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <f>IF('H(Y)'!G16&gt;0,'I(x)'!G86/'H(Y)'!G16,0)</f>
+      <c r="F98">
+        <f>IF('H(Y)'!F16&gt;0,'I(x)'!F89/'H(Y)'!F16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <f>IF('H(Y)'!G16&gt;0,'I(x)'!G89/'H(Y)'!G16,0)</f>
         <v>0.44928204854728676</v>
       </c>
-      <c r="H93">
-        <f>IF('H(Y)'!H16&gt;0,'I(x)'!H86/'H(Y)'!H16,0)</f>
+      <c r="H98">
+        <f>IF('H(Y)'!H16&gt;0,'I(x)'!H89/'H(Y)'!H16,0)</f>
         <v>0.45549517869285572</v>
       </c>
-      <c r="I93">
-        <f>IF('H(Y)'!I16&gt;0,'I(x)'!I86/'H(Y)'!I16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J93" t="e">
-        <f>IF('H(Y)'!J16&gt;0,'I(x)'!J86/'H(Y)'!J16,0)</f>
+      <c r="J98" t="e">
+        <f>IF('H(Y)'!J16&gt;0,'I(x)'!J89/'H(Y)'!J16,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K93">
-        <f>IF('H(Y)'!K16&gt;0,'I(x)'!K86/'H(Y)'!K16,0)</f>
+      <c r="K98">
+        <f>IF('H(Y)'!K16&gt;0,'I(x)'!K89/'H(Y)'!K16,0)</f>
         <v>0.54949354391511152</v>
       </c>
-      <c r="L93">
-        <f>IF('H(Y)'!L16&gt;0,'I(x)'!L86/'H(Y)'!L16,0)</f>
+      <c r="L98">
+        <f>IF('H(Y)'!L16&gt;0,'I(x)'!L89/'H(Y)'!L16,0)</f>
         <v>0.50902054621604154</v>
       </c>
-      <c r="M93">
-        <f>IF('H(Y)'!M16&gt;0,'I(x)'!M86/'H(Y)'!M16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N93">
-        <f>IF('H(Y)'!N16&gt;0,'I(x)'!N86/'H(Y)'!N16,0)</f>
+      <c r="M98">
+        <f>IF('H(Y)'!M16&gt;0,'I(x)'!M89/'H(Y)'!M16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <f>IF('H(Y)'!N16&gt;0,'I(x)'!N89/'H(Y)'!N16,0)</f>
         <v>0.54821841253235482</v>
       </c>
-      <c r="O93">
-        <f>IF('H(Y)'!O16&gt;0,'I(x)'!O86/'H(Y)'!O16,0)</f>
+      <c r="O98">
+        <f>IF('H(Y)'!O16&gt;0,'I(x)'!O89/'H(Y)'!O16,0)</f>
         <v>0.47181603930484112</v>
       </c>
-      <c r="Q93">
-        <f>IF('H(R) '!D16&gt;0,'I(x)'!D86/'H(R) '!D16,0)</f>
+      <c r="Q98">
+        <f>IF('H(R) '!D16&gt;0,'I(x)'!D89/'H(R) '!D16,0)</f>
         <v>0.60252295251324117</v>
       </c>
-      <c r="R93">
-        <f>IF('H(R) '!E16&gt;0,'I(x)'!E86/'H(R) '!E16,0)</f>
+      <c r="R98">
+        <f>IF('H(R) '!E16&gt;0,'I(x)'!E89/'H(R) '!E16,0)</f>
         <v>0.52270822823298824</v>
       </c>
-      <c r="S93">
-        <f>IF('H(R) '!F16&gt;0,'I(x)'!F86/'H(R) '!F16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T93">
-        <f>IF('H(R) '!G16&gt;0,'I(x)'!G86/'H(R) '!G16,0)</f>
+      <c r="S98">
+        <f>IF('H(R) '!F16&gt;0,'I(x)'!F89/'H(R) '!F16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <f>IF('H(R) '!G16&gt;0,'I(x)'!G89/'H(R) '!G16,0)</f>
         <v>0.42678438688961234</v>
       </c>
-      <c r="U93">
-        <f>IF('H(R) '!H16&gt;0,'I(x)'!H86/'H(R) '!H16,0)</f>
+      <c r="U98">
+        <f>IF('H(R) '!H16&gt;0,'I(x)'!H89/'H(R) '!H16,0)</f>
         <v>0.41925685640968807</v>
       </c>
-      <c r="V93" t="e">
-        <f>IF('H(R) '!J16&gt;0,'I(x)'!J86/'H(R) '!J16,0)</f>
+      <c r="V98" t="e">
+        <f>IF('H(R) '!J16&gt;0,'I(x)'!J89/'H(R) '!J16,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="W93">
-        <f>IF('H(R) '!K16&gt;0,'I(x)'!K86/'H(R) '!K16,0)</f>
+      <c r="W98">
+        <f>IF('H(R) '!K16&gt;0,'I(x)'!K89/'H(R) '!K16,0)</f>
         <v>0.57993810342649332</v>
       </c>
-      <c r="X93">
-        <f>IF('H(R) '!L16&gt;0,'I(x)'!L86/'H(R) '!L16,0)</f>
+      <c r="X98">
+        <f>IF('H(R) '!L16&gt;0,'I(x)'!L89/'H(R) '!L16,0)</f>
         <v>0.57270786968460496</v>
       </c>
-      <c r="Y93">
-        <f>IF('H(R) '!M16&gt;0,'I(x)'!M86/'H(R) '!M16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z93">
-        <f>IF('H(R) '!N16&gt;0,'I(x)'!N86/'H(R) '!N16,0)</f>
+      <c r="Y98">
+        <f>IF('H(R) '!M16&gt;0,'I(x)'!M89/'H(R) '!M16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <f>IF('H(R) '!N16&gt;0,'I(x)'!N89/'H(R) '!N16,0)</f>
         <v>0.61451129843241648</v>
       </c>
-      <c r="AA93">
-        <f>IF('H(R) '!O16&gt;0,'I(x)'!O86/'H(R) '!O16,0)</f>
+      <c r="AA98">
+        <f>IF('H(R) '!O16&gt;0,'I(x)'!O89/'H(R) '!O16,0)</f>
         <v>0.52524685485166289</v>
       </c>
     </row>
-    <row r="96" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>0</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="102" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>1</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+      <c r="C102" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
         <v>2</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
+      <c r="C103" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
         <v>3</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D102" t="s">
+      <c r="C104" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
         <v>13</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J107" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D103" t="s">
-        <v>4</v>
-      </c>
-      <c r="E103" t="s">
+    <row r="108" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>4</v>
+      </c>
+      <c r="E108" t="s">
         <v>8</v>
       </c>
-      <c r="F103" t="s">
-        <v>6</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="F108" t="s">
+        <v>6</v>
+      </c>
+      <c r="G108" t="s">
         <v>9</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H108" t="s">
         <v>10</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I108" t="s">
         <v>11</v>
       </c>
-      <c r="K103" t="s">
-        <v>4</v>
-      </c>
-      <c r="L103" t="s">
+      <c r="K108" t="s">
+        <v>4</v>
+      </c>
+      <c r="L108" t="s">
         <v>8</v>
       </c>
-      <c r="M103" t="s">
-        <v>6</v>
-      </c>
-      <c r="N103" t="s">
+      <c r="M108" t="s">
+        <v>6</v>
+      </c>
+      <c r="N108" t="s">
         <v>9</v>
       </c>
-      <c r="O103" t="s">
+      <c r="O108" t="s">
         <v>10</v>
       </c>
-      <c r="P103" t="s">
+      <c r="P108" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C104" t="s">
-        <v>4</v>
-      </c>
-      <c r="D104">
-        <v>1.6949859</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="J104" t="s">
-        <v>4</v>
-      </c>
-      <c r="K104">
-        <v>0.77482556999999996</v>
-      </c>
-      <c r="L104">
-        <v>0</v>
-      </c>
-      <c r="M104">
-        <v>0</v>
-      </c>
-      <c r="N104">
-        <v>0</v>
-      </c>
-      <c r="O104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C105" t="s">
-        <v>5</v>
-      </c>
-      <c r="D105">
-        <v>0.87817763999999998</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>0.95718026</v>
-      </c>
-      <c r="G105">
-        <v>1.048878</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="J105" t="s">
-        <v>5</v>
-      </c>
-      <c r="K105">
-        <v>0.68732667000000003</v>
-      </c>
-      <c r="L105">
-        <v>0</v>
-      </c>
-      <c r="M105">
-        <v>0.40764558000000001</v>
-      </c>
-      <c r="N105">
-        <v>0.75988555000000002</v>
-      </c>
-      <c r="O105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C106" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106">
-        <v>0.87817763999999998</v>
-      </c>
-      <c r="E106">
-        <v>1.6263969</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>1.0609337999999999</v>
-      </c>
-      <c r="H106">
-        <v>1.0439407999999999</v>
-      </c>
-      <c r="J106" t="s">
-        <v>5</v>
-      </c>
-      <c r="K106">
-        <v>0.68732667000000003</v>
-      </c>
-      <c r="L106">
-        <v>1.1228867</v>
-      </c>
-      <c r="M106">
-        <v>0</v>
-      </c>
-      <c r="N106">
-        <v>0.75917363000000004</v>
-      </c>
-      <c r="O106">
-        <v>0.81112218000000003</v>
-      </c>
-    </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C107" t="s">
-        <v>6</v>
-      </c>
-      <c r="D107">
-        <v>1.2593004999999999</v>
-      </c>
-      <c r="E107">
-        <v>1.6400117999999999</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>1.5995252</v>
-      </c>
-      <c r="H107">
-        <v>0.25554561999999997</v>
-      </c>
-      <c r="J107" t="s">
-        <v>6</v>
-      </c>
-      <c r="K107">
-        <v>0.71982526999999996</v>
-      </c>
-      <c r="L107">
-        <v>1.0507926999999999</v>
-      </c>
-      <c r="M107">
-        <v>0</v>
-      </c>
-      <c r="N107">
-        <v>1.0278651999999999</v>
-      </c>
-      <c r="O107">
-        <v>0.27113271</v>
-      </c>
-    </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108">
-        <v>1.6104052</v>
-      </c>
-      <c r="E108">
-        <v>1.4398245999999999</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>1.6820752999999999</v>
-      </c>
-      <c r="H108">
-        <v>1.3270862000000001</v>
-      </c>
-      <c r="J108" t="s">
-        <v>7</v>
-      </c>
-      <c r="K108">
-        <v>0.79427146999999998</v>
-      </c>
-      <c r="L108">
-        <v>1.2071135</v>
-      </c>
-      <c r="M108">
-        <v>0</v>
-      </c>
-      <c r="N108">
-        <v>0.57585620999999998</v>
-      </c>
-      <c r="O108">
-        <v>0.98246193000000004</v>
       </c>
     </row>
     <row r="109" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>1.6949859</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="J109" t="s">
+        <v>4</v>
+      </c>
+      <c r="K109">
+        <v>0.77482556999999996</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110">
+        <v>1.2007251000000001</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0.95718026</v>
+      </c>
+      <c r="G110">
+        <v>1.2757022</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="J110" t="s">
+        <v>5</v>
+      </c>
+      <c r="K110">
+        <v>0.9592309</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0.40764558000000001</v>
+      </c>
+      <c r="N110">
+        <v>0.86363363000000004</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111">
+        <v>1.5460278999999999</v>
+      </c>
+      <c r="E111">
+        <v>1.6263969</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>1.5023293</v>
+      </c>
+      <c r="H111">
+        <v>1.0439407999999999</v>
+      </c>
+      <c r="J111" t="s">
+        <v>5</v>
+      </c>
+      <c r="K111">
+        <v>0.69557809999999998</v>
+      </c>
+      <c r="L111">
+        <v>1.1228867</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>1.2439427000000001</v>
+      </c>
+      <c r="O111">
+        <v>0.81112218000000003</v>
+      </c>
+    </row>
+    <row r="112" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112">
+        <v>1.2593004999999999</v>
+      </c>
+      <c r="E112">
+        <v>1.6400117999999999</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>1.5995252</v>
+      </c>
+      <c r="H112">
+        <v>1.0461195000000001</v>
+      </c>
+      <c r="J112" t="s">
+        <v>6</v>
+      </c>
+      <c r="K112">
+        <v>0.71982526999999996</v>
+      </c>
+      <c r="L112">
+        <v>1.0507926999999999</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>1.0278651999999999</v>
+      </c>
+      <c r="O112">
+        <v>0.93505572999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113">
+        <v>1.6104052</v>
+      </c>
+      <c r="E113">
+        <v>1.4398245999999999</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>1.6820752999999999</v>
+      </c>
+      <c r="H113">
+        <v>1.3270862000000001</v>
+      </c>
+      <c r="J113" t="s">
+        <v>7</v>
+      </c>
+      <c r="K113">
+        <v>0.79427146999999998</v>
+      </c>
+      <c r="L113">
+        <v>1.2071135</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0.57585620999999998</v>
+      </c>
+      <c r="O113">
+        <v>0.98246193000000004</v>
+      </c>
+    </row>
+    <row r="114" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
         <v>12</v>
       </c>
-      <c r="J109" t="s">
+      <c r="J114" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D110" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D111">
-        <f>IF('H(R) '!D12&gt;0,'I(x)'!D104/'H(R) '!D12,0)</f>
+    <row r="117" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <f>IF('H(R) '!D12&gt;0,'I(x)'!D109/'H(R) '!D12,0)</f>
         <v>0.5143821536130867</v>
       </c>
-      <c r="E111">
-        <f>IF('H(R) '!E12&gt;0,'I(x)'!E104/'H(R) '!E12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <f>IF('H(R) '!F12&gt;0,'I(x)'!F104/'H(R) '!F12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <f>IF('H(R) '!G12&gt;0,'I(x)'!G104/'H(R) '!G12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <f>IF('H(R) '!H12&gt;0,'I(x)'!H104/'H(R) '!H12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I111">
-        <f>IF('H(R) '!I12&gt;0,'I(x)'!I104/'H(R) '!I12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J111" t="e">
-        <f>IF('H(R) '!J12&gt;0,'I(x)'!J104/'H(R) '!J12,0)</f>
+      <c r="E118">
+        <f>IF('H(R) '!E12&gt;0,'I(x)'!E109/'H(R) '!E12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <f>IF('H(R) '!F12&gt;0,'I(x)'!F109/'H(R) '!F12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <f>IF('H(R) '!G12&gt;0,'I(x)'!G109/'H(R) '!G12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <f>IF('H(R) '!H12&gt;0,'I(x)'!H109/'H(R) '!H12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J118" t="e">
+        <f>IF('H(R) '!J12&gt;0,'I(x)'!J109/'H(R) '!J12,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K111">
-        <f>IF('H(R) '!K12&gt;0,'I(x)'!K104/'H(R) '!K12,0)</f>
+      <c r="K118">
+        <f>IF('H(R) '!K12&gt;0,'I(x)'!K109/'H(R) '!K12,0)</f>
         <v>0.30577413374319712</v>
       </c>
-      <c r="L111">
-        <f>IF('H(R) '!L12&gt;0,'I(x)'!L104/'H(R) '!L12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M111">
-        <f>IF('H(R) '!M12&gt;0,'I(x)'!M104/'H(R) '!M12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N111">
-        <f>IF('H(R) '!N12&gt;0,'I(x)'!N104/'H(R) '!N12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O111">
-        <f>IF('H(R) '!O12&gt;0,'I(x)'!O104/'H(R) '!O12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q111">
-        <f>IF('H(C)'!D12&gt;0,'I(x)'!D104/'H(C)'!D12,0)</f>
+      <c r="L118">
+        <f>IF('H(R) '!L12&gt;0,'I(x)'!L109/'H(R) '!L12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <f>IF('H(R) '!M12&gt;0,'I(x)'!M109/'H(R) '!M12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <f>IF('H(R) '!N12&gt;0,'I(x)'!N109/'H(R) '!N12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <f>IF('H(R) '!O12&gt;0,'I(x)'!O109/'H(R) '!O12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <f>IF('H(C)'!D12&gt;0,'I(x)'!D109/'H(C)'!D12,0)</f>
         <v>0.54650982381343993</v>
       </c>
-      <c r="R111">
-        <f>IF('H(C)'!E12&gt;0,'I(x)'!E104/'H(C)'!E12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S111">
-        <f>IF('H(C)'!F12&gt;0,'I(x)'!F104/'H(C)'!F12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T111">
-        <f>IF('H(C)'!G12&gt;0,'I(x)'!G104/'H(C)'!G12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U111">
-        <f>IF('H(C)'!H12&gt;0,'I(x)'!H104/'H(C)'!H12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V111" t="e">
-        <f>IF('H(C)'!J12&gt;0,'I(x)'!J104/'H(C)'!J12,0)</f>
+      <c r="R118">
+        <f>IF('H(C)'!E12&gt;0,'I(x)'!E109/'H(C)'!E12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <f>IF('H(C)'!F12&gt;0,'I(x)'!F109/'H(C)'!F12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <f>IF('H(C)'!G12&gt;0,'I(x)'!G109/'H(C)'!G12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <f>IF('H(C)'!H12&gt;0,'I(x)'!H109/'H(C)'!H12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V118" t="e">
+        <f>IF('H(C)'!J12&gt;0,'I(x)'!J109/'H(C)'!J12,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="W111">
-        <f>IF('H(C)'!K12&gt;0,'I(x)'!K104/'H(C)'!K12,0)</f>
+      <c r="W118">
+        <f>IF('H(C)'!K12&gt;0,'I(x)'!K109/'H(C)'!K12,0)</f>
         <v>0.34160485496711585</v>
       </c>
-      <c r="X111">
-        <f>IF('H(C)'!L12&gt;0,'I(x)'!L104/'H(C)'!L12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y111">
-        <f>IF('H(C)'!M12&gt;0,'I(x)'!M104/'H(C)'!M12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z111">
-        <f>IF('H(C)'!N12&gt;0,'I(x)'!N104/'H(C)'!N12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA111">
-        <f>IF('H(C)'!O12&gt;0,'I(x)'!O104/'H(C)'!O12,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="D112">
-        <f>IF('H(R) '!D13&gt;0,'I(x)'!D105/'H(R) '!D13,0)</f>
-        <v>0.3617631123723663</v>
-      </c>
-      <c r="E112">
-        <f>IF('H(R) '!E13&gt;0,'I(x)'!E105/'H(R) '!E13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <f>IF('H(R) '!F13&gt;0,'I(x)'!F105/'H(R) '!F13,0)</f>
+      <c r="X118">
+        <f>IF('H(C)'!L12&gt;0,'I(x)'!L109/'H(C)'!L12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <f>IF('H(C)'!M12&gt;0,'I(x)'!M109/'H(C)'!M12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z118">
+        <f>IF('H(C)'!N12&gt;0,'I(x)'!N109/'H(C)'!N12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA118">
+        <f>IF('H(C)'!O12&gt;0,'I(x)'!O109/'H(C)'!O12,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <f>IF('H(R) '!D13&gt;0,'I(x)'!D110/'H(R) '!D13,0)</f>
+        <v>0.42612609015748099</v>
+      </c>
+      <c r="E119">
+        <f>IF('H(R) '!E13&gt;0,'I(x)'!E110/'H(R) '!E13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <f>IF('H(R) '!F13&gt;0,'I(x)'!F110/'H(R) '!F13,0)</f>
         <v>0.30891152945697742</v>
       </c>
-      <c r="G112">
-        <f>IF('H(R) '!G13&gt;0,'I(x)'!G105/'H(R) '!G13,0)</f>
-        <v>0.41345661791620902</v>
-      </c>
-      <c r="H112">
-        <f>IF('H(R) '!H13&gt;0,'I(x)'!H105/'H(R) '!H13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I112">
-        <f>IF('H(R) '!I13&gt;0,'I(x)'!I105/'H(R) '!I13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J112" t="e">
-        <f>IF('H(R) '!J13&gt;0,'I(x)'!J105/'H(R) '!J13,0)</f>
+      <c r="G119">
+        <f>IF('H(R) '!G13&gt;0,'I(x)'!G110/'H(R) '!G13,0)</f>
+        <v>0.4291977074953866</v>
+      </c>
+      <c r="H119">
+        <f>IF('H(R) '!H13&gt;0,'I(x)'!H110/'H(R) '!H13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J119" t="e">
+        <f>IF('H(R) '!J13&gt;0,'I(x)'!J110/'H(R) '!J13,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K112">
-        <f>IF('H(R) '!K13&gt;0,'I(x)'!K105/'H(R) '!K13,0)</f>
-        <v>0.3243154228011555</v>
-      </c>
-      <c r="L112">
-        <f>IF('H(R) '!L13&gt;0,'I(x)'!L105/'H(R) '!L13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M112">
-        <f>IF('H(R) '!M13&gt;0,'I(x)'!M105/'H(R) '!M13,0)</f>
+      <c r="K119">
+        <f>IF('H(R) '!K13&gt;0,'I(x)'!K110/'H(R) '!K13,0)</f>
+        <v>0.34721033159255965</v>
+      </c>
+      <c r="L119">
+        <f>IF('H(R) '!L13&gt;0,'I(x)'!L110/'H(R) '!L13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <f>IF('H(R) '!M13&gt;0,'I(x)'!M110/'H(R) '!M13,0)</f>
         <v>0.24560846519404422</v>
       </c>
-      <c r="N112">
-        <f>IF('H(R) '!N13&gt;0,'I(x)'!N105/'H(R) '!N13,0)</f>
-        <v>0.33784419560052609</v>
-      </c>
-      <c r="O112">
-        <f>IF('H(R) '!O13&gt;0,'I(x)'!O105/'H(R) '!O13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q112">
-        <f>IF('H(C)'!D13&gt;0,'I(x)'!D105/'H(C)'!D13,0)</f>
-        <v>0.38717068326431725</v>
-      </c>
-      <c r="R112">
-        <f>IF('H(C)'!E13&gt;0,'I(x)'!E105/'H(C)'!E13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S112">
-        <f>IF('H(C)'!F13&gt;0,'I(x)'!F105/'H(C)'!F13,0)</f>
+      <c r="N119">
+        <f>IF('H(R) '!N13&gt;0,'I(x)'!N110/'H(R) '!N13,0)</f>
+        <v>0.33755997651399489</v>
+      </c>
+      <c r="O119">
+        <f>IF('H(R) '!O13&gt;0,'I(x)'!O110/'H(R) '!O13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <f>IF('H(C)'!D13&gt;0,'I(x)'!D110/'H(C)'!D13,0)</f>
+        <v>0.4086887515767561</v>
+      </c>
+      <c r="R119">
+        <f>IF('H(C)'!E13&gt;0,'I(x)'!E110/'H(C)'!E13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S119">
+        <f>IF('H(C)'!F13&gt;0,'I(x)'!F110/'H(C)'!F13,0)</f>
         <v>0.35118490108595496</v>
       </c>
-      <c r="T112">
-        <f>IF('H(C)'!G13&gt;0,'I(x)'!G105/'H(C)'!G13,0)</f>
-        <v>0.32650571663142131</v>
-      </c>
-      <c r="U112">
-        <f>IF('H(C)'!H13&gt;0,'I(x)'!H105/'H(C)'!H13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V112" t="e">
-        <f>IF('H(C)'!J13&gt;0,'I(x)'!J105/'H(C)'!J13,0)</f>
+      <c r="T119">
+        <f>IF('H(C)'!G13&gt;0,'I(x)'!G110/'H(C)'!G13,0)</f>
+        <v>0.35134547983541514</v>
+      </c>
+      <c r="U119">
+        <f>IF('H(C)'!H13&gt;0,'I(x)'!H110/'H(C)'!H13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V119" t="e">
+        <f>IF('H(C)'!J13&gt;0,'I(x)'!J110/'H(C)'!J13,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="W112">
-        <f>IF('H(C)'!K13&gt;0,'I(x)'!K105/'H(C)'!K13,0)</f>
-        <v>0.28181273796630862</v>
-      </c>
-      <c r="X112">
-        <f>IF('H(C)'!L13&gt;0,'I(x)'!L105/'H(C)'!L13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y112">
-        <f>IF('H(C)'!M13&gt;0,'I(x)'!M105/'H(C)'!M13,0)</f>
+      <c r="W119">
+        <f>IF('H(C)'!K13&gt;0,'I(x)'!K110/'H(C)'!K13,0)</f>
+        <v>0.31287138213754395</v>
+      </c>
+      <c r="X119">
+        <f>IF('H(C)'!L13&gt;0,'I(x)'!L110/'H(C)'!L13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y119">
+        <f>IF('H(C)'!M13&gt;0,'I(x)'!M110/'H(C)'!M13,0)</f>
         <v>0.18236887048403994</v>
       </c>
-      <c r="Z112">
-        <f>IF('H(C)'!N13&gt;0,'I(x)'!N105/'H(C)'!N13,0)</f>
-        <v>0.25841256174865007</v>
-      </c>
-      <c r="AA112">
-        <f>IF('H(C)'!O13&gt;0,'I(x)'!O105/'H(C)'!O13,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D113">
-        <f>IF('H(R) '!D14&gt;0,'I(x)'!D106/'H(R) '!D14,0)</f>
-        <v>0.3617631123723663</v>
-      </c>
-      <c r="E113">
-        <f>IF('H(R) '!E14&gt;0,'I(x)'!E106/'H(R) '!E14,0)</f>
+      <c r="Z119">
+        <f>IF('H(C)'!N13&gt;0,'I(x)'!N110/'H(C)'!N13,0)</f>
+        <v>0.28064247401339215</v>
+      </c>
+      <c r="AA119">
+        <f>IF('H(C)'!O13&gt;0,'I(x)'!O110/'H(C)'!O13,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <f>IF('H(R) '!D14&gt;0,'I(x)'!D111/'H(R) '!D14,0)</f>
+        <v>0.41355818829900753</v>
+      </c>
+      <c r="E120">
+        <f>IF('H(R) '!E14&gt;0,'I(x)'!E111/'H(R) '!E14,0)</f>
         <v>0.54408440229083255</v>
       </c>
-      <c r="F113">
-        <f>IF('H(R) '!F14&gt;0,'I(x)'!F106/'H(R) '!F14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <f>IF('H(R) '!G14&gt;0,'I(x)'!G106/'H(R) '!G14,0)</f>
-        <v>0.41826548868501545</v>
-      </c>
-      <c r="H113">
-        <f>IF('H(R) '!H14&gt;0,'I(x)'!H106/'H(R) '!H14,0)</f>
+      <c r="F120">
+        <f>IF('H(R) '!F14&gt;0,'I(x)'!F111/'H(R) '!F14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <f>IF('H(R) '!G14&gt;0,'I(x)'!G111/'H(R) '!G14,0)</f>
+        <v>0.48224488754312211</v>
+      </c>
+      <c r="H120">
+        <f>IF('H(R) '!H14&gt;0,'I(x)'!H111/'H(R) '!H14,0)</f>
         <v>0.36007134231792165</v>
       </c>
-      <c r="I113">
-        <f>IF('H(R) '!I14&gt;0,'I(x)'!I106/'H(R) '!I14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J113" t="e">
-        <f>IF('H(R) '!J14&gt;0,'I(x)'!J106/'H(R) '!J14,0)</f>
+      <c r="J120" t="e">
+        <f>IF('H(R) '!J14&gt;0,'I(x)'!J111/'H(R) '!J14,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K113">
-        <f>IF('H(R) '!K14&gt;0,'I(x)'!K106/'H(R) '!K14,0)</f>
-        <v>0.3243154228011555</v>
-      </c>
-      <c r="L113">
-        <f>IF('H(R) '!L14&gt;0,'I(x)'!L106/'H(R) '!L14,0)</f>
+      <c r="K120">
+        <f>IF('H(R) '!K14&gt;0,'I(x)'!K111/'H(R) '!K14,0)</f>
+        <v>0.26745644679152514</v>
+      </c>
+      <c r="L120">
+        <f>IF('H(R) '!L14&gt;0,'I(x)'!L111/'H(R) '!L14,0)</f>
         <v>0.38962261918467733</v>
       </c>
-      <c r="M113">
-        <f>IF('H(R) '!M14&gt;0,'I(x)'!M106/'H(R) '!M14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N113">
-        <f>IF('H(R) '!N14&gt;0,'I(x)'!N106/'H(R) '!N14,0)</f>
-        <v>0.33763449645015609</v>
-      </c>
-      <c r="O113">
-        <f>IF('H(R) '!O14&gt;0,'I(x)'!O106/'H(R) '!O14,0)</f>
+      <c r="M120">
+        <f>IF('H(R) '!M14&gt;0,'I(x)'!M111/'H(R) '!M14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <f>IF('H(R) '!N14&gt;0,'I(x)'!N111/'H(R) '!N14,0)</f>
+        <v>0.43178188068136936</v>
+      </c>
+      <c r="O120">
+        <f>IF('H(R) '!O14&gt;0,'I(x)'!O111/'H(R) '!O14,0)</f>
         <v>0.30408630431387357</v>
       </c>
-      <c r="Q113">
-        <f>IF('H(C)'!D14&gt;0,'I(x)'!D106/'H(C)'!D14,0)</f>
-        <v>0.30657044815338269</v>
-      </c>
-      <c r="R113">
-        <f>IF('H(C)'!E14&gt;0,'I(x)'!E106/'H(C)'!E14,0)</f>
-        <v>0.66684355985912291</v>
-      </c>
-      <c r="S113">
-        <f>IF('H(C)'!F14&gt;0,'I(x)'!F106/'H(C)'!F14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T113">
-        <f>IF('H(C)'!G14&gt;0,'I(x)'!G106/'H(C)'!G14,0)</f>
-        <v>0.31859726534598004</v>
-      </c>
-      <c r="U113">
-        <f>IF('H(C)'!H14&gt;0,'I(x)'!H106/'H(C)'!H14,0)</f>
+      <c r="Q120">
+        <f>IF('H(C)'!D14&gt;0,'I(x)'!D111/'H(C)'!D14,0)</f>
+        <v>0.42213056262681264</v>
+      </c>
+      <c r="R120">
+        <f>IF('H(C)'!E14&gt;0,'I(x)'!E111/'H(C)'!E14,0)</f>
+        <v>0.55348765268243283</v>
+      </c>
+      <c r="S120">
+        <f>IF('H(C)'!F14&gt;0,'I(x)'!F111/'H(C)'!F14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <f>IF('H(C)'!G14&gt;0,'I(x)'!G111/'H(C)'!G14,0)</f>
+        <v>0.48072330118600953</v>
+      </c>
+      <c r="U120">
+        <f>IF('H(C)'!H14&gt;0,'I(x)'!H111/'H(C)'!H14,0)</f>
         <v>0.36068742906769308</v>
       </c>
-      <c r="V113" t="e">
-        <f>IF('H(C)'!J14&gt;0,'I(x)'!J106/'H(C)'!J14,0)</f>
+      <c r="V120" t="e">
+        <f>IF('H(C)'!J14&gt;0,'I(x)'!J111/'H(C)'!J14,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="W113">
-        <f>IF('H(C)'!K14&gt;0,'I(x)'!K106/'H(C)'!K14,0)</f>
-        <v>0.28181273796630862</v>
-      </c>
-      <c r="X113">
-        <f>IF('H(C)'!L14&gt;0,'I(x)'!L106/'H(C)'!L14,0)</f>
+      <c r="W120">
+        <f>IF('H(C)'!K14&gt;0,'I(x)'!K111/'H(C)'!K14,0)</f>
+        <v>0.29822030273657901</v>
+      </c>
+      <c r="X120">
+        <f>IF('H(C)'!L14&gt;0,'I(x)'!L111/'H(C)'!L14,0)</f>
         <v>0.34396508123403352</v>
       </c>
-      <c r="Y113">
-        <f>IF('H(C)'!M14&gt;0,'I(x)'!M106/'H(C)'!M14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z113">
-        <f>IF('H(C)'!N14&gt;0,'I(x)'!N106/'H(C)'!N14,0)</f>
-        <v>0.25817046072309419</v>
-      </c>
-      <c r="AA113">
-        <f>IF('H(C)'!O14&gt;0,'I(x)'!O106/'H(C)'!O14,0)</f>
+      <c r="Y120">
+        <f>IF('H(C)'!M14&gt;0,'I(x)'!M111/'H(C)'!M14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z120">
+        <f>IF('H(C)'!N14&gt;0,'I(x)'!N111/'H(C)'!N14,0)</f>
+        <v>0.39003542148811643</v>
+      </c>
+      <c r="AA120">
+        <f>IF('H(C)'!O14&gt;0,'I(x)'!O111/'H(C)'!O14,0)</f>
         <v>0.25114807230934599</v>
       </c>
     </row>
-    <row r="114" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D114">
-        <f>IF('H(R) '!D15&gt;0,'I(x)'!D107/'H(R) '!D15,0)</f>
+    <row r="121" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <f>IF('H(R) '!D15&gt;0,'I(x)'!D112/'H(R) '!D15,0)</f>
         <v>0.45026531425274186</v>
       </c>
-      <c r="E114">
-        <f>IF('H(R) '!E15&gt;0,'I(x)'!E107/'H(R) '!E15,0)</f>
+      <c r="E121">
+        <f>IF('H(R) '!E15&gt;0,'I(x)'!E112/'H(R) '!E15,0)</f>
         <v>0.58149747215294234</v>
       </c>
-      <c r="F114">
-        <f>IF('H(R) '!F15&gt;0,'I(x)'!F107/'H(R) '!F15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <f>IF('H(R) '!G15&gt;0,'I(x)'!G107/'H(R) '!G15,0)</f>
+      <c r="F121">
+        <f>IF('H(R) '!F15&gt;0,'I(x)'!F112/'H(R) '!F15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <f>IF('H(R) '!G15&gt;0,'I(x)'!G112/'H(R) '!G15,0)</f>
         <v>0.54949748653949904</v>
       </c>
-      <c r="H114">
-        <f>IF('H(R) '!H15&gt;0,'I(x)'!H107/'H(R) '!H15,0)</f>
-        <v>0.10055027182680644</v>
-      </c>
-      <c r="I114">
-        <f>IF('H(R) '!I15&gt;0,'I(x)'!I107/'H(R) '!I15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J114" t="e">
-        <f>IF('H(R) '!J15&gt;0,'I(x)'!J107/'H(R) '!J15,0)</f>
+      <c r="H121">
+        <f>IF('H(R) '!H15&gt;0,'I(x)'!H112/'H(R) '!H15,0)</f>
+        <v>0.41206996243225702</v>
+      </c>
+      <c r="J121" t="e">
+        <f>IF('H(R) '!J15&gt;0,'I(x)'!J112/'H(R) '!J15,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K114">
-        <f>IF('H(R) '!K15&gt;0,'I(x)'!K107/'H(R) '!K15,0)</f>
+      <c r="K121">
+        <f>IF('H(R) '!K15&gt;0,'I(x)'!K112/'H(R) '!K15,0)</f>
         <v>0.26398381899809958</v>
       </c>
-      <c r="L114">
-        <f>IF('H(R) '!L15&gt;0,'I(x)'!L107/'H(R) '!L15,0)</f>
+      <c r="L121">
+        <f>IF('H(R) '!L15&gt;0,'I(x)'!L112/'H(R) '!L15,0)</f>
         <v>0.38253509823953991</v>
       </c>
-      <c r="M114">
-        <f>IF('H(R) '!M15&gt;0,'I(x)'!M107/'H(R) '!M15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N114">
-        <f>IF('H(R) '!N15&gt;0,'I(x)'!N107/'H(R) '!N15,0)</f>
+      <c r="M121">
+        <f>IF('H(R) '!M15&gt;0,'I(x)'!M112/'H(R) '!M15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <f>IF('H(R) '!N15&gt;0,'I(x)'!N112/'H(R) '!N15,0)</f>
         <v>0.38053790904536167</v>
       </c>
-      <c r="O114">
-        <f>IF('H(R) '!O15&gt;0,'I(x)'!O107/'H(R) '!O15,0)</f>
-        <v>9.27971505299649E-2</v>
-      </c>
-      <c r="Q114">
-        <f>IF('H(C)'!D15&gt;0,'I(x)'!D107/'H(C)'!D15,0)</f>
+      <c r="O121">
+        <f>IF('H(R) '!O15&gt;0,'I(x)'!O112/'H(R) '!O15,0)</f>
+        <v>0.3204513502449593</v>
+      </c>
+      <c r="Q121">
+        <f>IF('H(C)'!D15&gt;0,'I(x)'!D112/'H(C)'!D15,0)</f>
         <v>0.50031543340000895</v>
       </c>
-      <c r="R114">
-        <f>IF('H(C)'!E15&gt;0,'I(x)'!E107/'H(C)'!E15,0)</f>
-        <v>0.57518759573385025</v>
-      </c>
-      <c r="S114">
-        <f>IF('H(C)'!F15&gt;0,'I(x)'!F107/'H(C)'!F15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T114">
-        <f>IF('H(C)'!G15&gt;0,'I(x)'!G107/'H(C)'!G15,0)</f>
+      <c r="R121">
+        <f>IF('H(C)'!E15&gt;0,'I(x)'!E112/'H(C)'!E15,0)</f>
+        <v>0.58558757934833139</v>
+      </c>
+      <c r="S121">
+        <f>IF('H(C)'!F15&gt;0,'I(x)'!F112/'H(C)'!F15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T121">
+        <f>IF('H(C)'!G15&gt;0,'I(x)'!G112/'H(C)'!G15,0)</f>
         <v>0.55621539965263778</v>
       </c>
-      <c r="U114">
-        <f>IF('H(C)'!H15&gt;0,'I(x)'!H107/'H(C)'!H15,0)</f>
-        <v>0.1029709076713694</v>
-      </c>
-      <c r="V114" t="e">
-        <f>IF('H(C)'!J15&gt;0,'I(x)'!J107/'H(C)'!J15,0)</f>
+      <c r="U121">
+        <f>IF('H(C)'!H15&gt;0,'I(x)'!H112/'H(C)'!H15,0)</f>
+        <v>0.42152894049883988</v>
+      </c>
+      <c r="V121" t="e">
+        <f>IF('H(C)'!J15&gt;0,'I(x)'!J112/'H(C)'!J15,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="W114">
-        <f>IF('H(C)'!K15&gt;0,'I(x)'!K107/'H(C)'!K15,0)</f>
+      <c r="W121">
+        <f>IF('H(C)'!K15&gt;0,'I(x)'!K112/'H(C)'!K15,0)</f>
         <v>0.25245828499512601</v>
       </c>
-      <c r="X114">
-        <f>IF('H(C)'!L15&gt;0,'I(x)'!L107/'H(C)'!L15,0)</f>
+      <c r="X121">
+        <f>IF('H(C)'!L15&gt;0,'I(x)'!L112/'H(C)'!L15,0)</f>
         <v>0.36835805464931876</v>
       </c>
-      <c r="Y114">
-        <f>IF('H(C)'!M15&gt;0,'I(x)'!M107/'H(C)'!M15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z114">
-        <f>IF('H(C)'!N15&gt;0,'I(x)'!N107/'H(C)'!N15,0)</f>
+      <c r="Y121">
+        <f>IF('H(C)'!M15&gt;0,'I(x)'!M112/'H(C)'!M15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z121">
+        <f>IF('H(C)'!N15&gt;0,'I(x)'!N112/'H(C)'!N15,0)</f>
         <v>0.35032977069170534</v>
       </c>
-      <c r="AA114">
-        <f>IF('H(C)'!O15&gt;0,'I(x)'!O107/'H(C)'!O15,0)</f>
-        <v>9.7725677721143447E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="4:27" x14ac:dyDescent="0.25">
-      <c r="D115">
-        <f>IF('H(R) '!D16&gt;0,'I(x)'!D108/'H(R) '!D16,0)</f>
+      <c r="AA121">
+        <f>IF('H(C)'!O15&gt;0,'I(x)'!O112/'H(C)'!O15,0)</f>
+        <v>0.33702667199869951</v>
+      </c>
+    </row>
+    <row r="122" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <f>IF('H(R) '!D16&gt;0,'I(x)'!D113/'H(R) '!D16,0)</f>
         <v>0.43905646568538337</v>
       </c>
-      <c r="E115">
-        <f>IF('H(R) '!E16&gt;0,'I(x)'!E108/'H(R) '!E16,0)</f>
+      <c r="E122">
+        <f>IF('H(R) '!E16&gt;0,'I(x)'!E113/'H(R) '!E16,0)</f>
         <v>0.39899208971099892</v>
       </c>
-      <c r="F115">
-        <f>IF('H(R) '!F16&gt;0,'I(x)'!F108/'H(R) '!F16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <f>IF('H(R) '!G16&gt;0,'I(x)'!G108/'H(R) '!G16,0)</f>
+      <c r="F122">
+        <f>IF('H(R) '!F16&gt;0,'I(x)'!F113/'H(R) '!F16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <f>IF('H(R) '!G16&gt;0,'I(x)'!G113/'H(R) '!G16,0)</f>
         <v>0.46009600750825563</v>
       </c>
-      <c r="H115">
-        <f>IF('H(R) '!H16&gt;0,'I(x)'!H108/'H(R) '!H16,0)</f>
+      <c r="H122">
+        <f>IF('H(R) '!H16&gt;0,'I(x)'!H113/'H(R) '!H16,0)</f>
         <v>0.37712347647180855</v>
       </c>
-      <c r="I115">
-        <f>IF('H(R) '!I16&gt;0,'I(x)'!I108/'H(R) '!I16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J115" t="e">
-        <f>IF('H(R) '!J16&gt;0,'I(x)'!J108/'H(R) '!J16,0)</f>
+      <c r="J122" t="e">
+        <f>IF('H(R) '!J16&gt;0,'I(x)'!J113/'H(R) '!J16,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K115">
-        <f>IF('H(R) '!K16&gt;0,'I(x)'!K108/'H(R) '!K16,0)</f>
+      <c r="K122">
+        <f>IF('H(R) '!K16&gt;0,'I(x)'!K113/'H(R) '!K16,0)</f>
         <v>0.2553375009202189</v>
       </c>
-      <c r="L115">
-        <f>IF('H(R) '!L16&gt;0,'I(x)'!L108/'H(R) '!L16,0)</f>
+      <c r="L122">
+        <f>IF('H(R) '!L16&gt;0,'I(x)'!L113/'H(R) '!L16,0)</f>
         <v>0.35231641144808012</v>
       </c>
-      <c r="M115">
-        <f>IF('H(R) '!M16&gt;0,'I(x)'!M108/'H(R) '!M16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N115">
-        <f>IF('H(R) '!N16&gt;0,'I(x)'!N108/'H(R) '!N16,0)</f>
+      <c r="M122">
+        <f>IF('H(R) '!M16&gt;0,'I(x)'!M113/'H(R) '!M16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <f>IF('H(R) '!N16&gt;0,'I(x)'!N113/'H(R) '!N16,0)</f>
         <v>0.17032126885536825</v>
       </c>
-      <c r="O115">
-        <f>IF('H(R) '!O16&gt;0,'I(x)'!O108/'H(R) '!O16,0)</f>
+      <c r="O122">
+        <f>IF('H(R) '!O16&gt;0,'I(x)'!O113/'H(R) '!O16,0)</f>
         <v>0.30253666732524193</v>
       </c>
-      <c r="Q115">
-        <f>IF('H(C)'!D16&gt;0,'I(x)'!D108/'H(C)'!D16,0)</f>
+      <c r="Q122">
+        <f>IF('H(C)'!D16&gt;0,'I(x)'!D113/'H(C)'!D16,0)</f>
         <v>0.45585528283303067</v>
       </c>
-      <c r="R115">
-        <f>IF('H(C)'!E16&gt;0,'I(x)'!E108/'H(C)'!E16,0)</f>
-        <v>0.48167885261895937</v>
-      </c>
-      <c r="S115">
-        <f>IF('H(C)'!F16&gt;0,'I(x)'!F108/'H(C)'!F16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T115">
-        <f>IF('H(C)'!G16&gt;0,'I(x)'!G108/'H(C)'!G16,0)</f>
+      <c r="R122">
+        <f>IF('H(C)'!E16&gt;0,'I(x)'!E113/'H(C)'!E16,0)</f>
+        <v>0.44198973145054693</v>
+      </c>
+      <c r="S122">
+        <f>IF('H(C)'!F16&gt;0,'I(x)'!F113/'H(C)'!F16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <f>IF('H(C)'!G16&gt;0,'I(x)'!G113/'H(C)'!G16,0)</f>
         <v>0.50537211749489908</v>
       </c>
-      <c r="U115">
-        <f>IF('H(C)'!H16&gt;0,'I(x)'!H108/'H(C)'!H16,0)</f>
+      <c r="U122">
+        <f>IF('H(C)'!H16&gt;0,'I(x)'!H113/'H(C)'!H16,0)</f>
         <v>0.41920827156967605</v>
       </c>
-      <c r="V115" t="e">
-        <f>IF('H(C)'!J16&gt;0,'I(x)'!J108/'H(C)'!J16,0)</f>
+      <c r="V122" t="e">
+        <f>IF('H(C)'!J16&gt;0,'I(x)'!J113/'H(C)'!J16,0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="W115">
-        <f>IF('H(C)'!K16&gt;0,'I(x)'!K108/'H(C)'!K16,0)</f>
+      <c r="W122">
+        <f>IF('H(C)'!K16&gt;0,'I(x)'!K113/'H(C)'!K16,0)</f>
         <v>0.2657155394744431</v>
       </c>
-      <c r="X115">
-        <f>IF('H(C)'!L16&gt;0,'I(x)'!L108/'H(C)'!L16,0)</f>
+      <c r="X122">
+        <f>IF('H(C)'!L16&gt;0,'I(x)'!L113/'H(C)'!L16,0)</f>
         <v>0.35408189141150553</v>
       </c>
-      <c r="Y115">
-        <f>IF('H(C)'!M16&gt;0,'I(x)'!M108/'H(C)'!M16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z115">
-        <f>IF('H(C)'!N16&gt;0,'I(x)'!N108/'H(C)'!N16,0)</f>
+      <c r="Y122">
+        <f>IF('H(C)'!M16&gt;0,'I(x)'!M113/'H(C)'!M16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <f>IF('H(C)'!N16&gt;0,'I(x)'!N113/'H(C)'!N16,0)</f>
         <v>0.30200524917589933</v>
       </c>
-      <c r="AA115">
-        <f>IF('H(C)'!O16&gt;0,'I(x)'!O108/'H(C)'!O16,0)</f>
+      <c r="AA122">
+        <f>IF('H(C)'!O16&gt;0,'I(x)'!O113/'H(C)'!O16,0)</f>
         <v>0.31860423109193842</v>
       </c>
     </row>
